--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AEDD3E-3AD1-4DD3-89B5-7E855150A600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4196C6-0D94-4D2E-B8F1-190BFA256D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="210">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>An advanced DICOM viewer and dicomizer (converts png, jpeg, bmp, pdf, tiff to DICOM).</t>
-  </si>
-  <si>
-    <t>LGPL</t>
   </si>
   <si>
     <t>Sacyl Public healthcare system of Castilla y León
@@ -682,6 +679,59 @@
 Source code
 Troubleshooting guide
 Version Control</t>
+  </si>
+  <si>
+    <t>GNU LGPL</t>
+  </si>
+  <si>
+    <t>XMedCon</t>
+  </si>
+  <si>
+    <t>https://xmedcon.sourceforge.io/</t>
+  </si>
+  <si>
+    <t>An open source toolkit for medical image conversion</t>
+  </si>
+  <si>
+    <t>4, 0, 55, 13, 7</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 1, 1</t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/p/xmedcon/code/ci/master/tree/</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>5, Windows</t>
+  </si>
+  <si>
+    <t>FAQ, E-mail</t>
+  </si>
+  <si>
+    <t>0.16.2</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+Bug tracker
+FAQ
+Installation Guide
+License
+Makefile
+README
+Source code
+Troubleshooting guide
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>SourceForge</t>
+  </si>
+  <si>
+    <t>git</t>
   </si>
 </sst>
 </file>
@@ -723,15 +773,20 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -789,13 +844,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,9 +915,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="3" builtinId="10"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1163,8 +1241,8 @@
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1211,6 +1289,9 @@
       <c r="D3" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1225,6 +1306,9 @@
       <c r="D4" s="18" t="s">
         <v>183</v>
       </c>
+      <c r="E4" s="18" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="5" spans="1:1024" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1237,7 +1321,10 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
@@ -1253,6 +1340,9 @@
       <c r="D6" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="7" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1267,6 +1357,9 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:1024" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1281,6 +1374,9 @@
       <c r="D8" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="9" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1297,12 +1393,15 @@
         <f>"stars: " &amp; D121 &amp; ", forks:" &amp; D122 &amp; ", watching: " &amp; D123</f>
         <v>stars: 91, forks:27, watching: 22</v>
       </c>
-    </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="11">
@@ -1310,6 +1409,9 @@
       </c>
       <c r="D10" s="19">
         <v>2010</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1325,6 +1427,9 @@
       <c r="D11" s="14">
         <v>43606</v>
       </c>
+      <c r="E11" s="14">
+        <v>44046</v>
+      </c>
     </row>
     <row r="12" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -1339,6 +1444,9 @@
       <c r="D12" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1351,7 +1459,10 @@
         <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1367,6 +1478,9 @@
       <c r="D14" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="15" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1381,6 +1495,9 @@
       <c r="D15" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="16" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1395,6 +1512,9 @@
       <c r="D16" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="17" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1409,6 +1529,9 @@
       <c r="D17">
         <v>51</v>
       </c>
+      <c r="E17">
+        <v>193</v>
+      </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1424,6 +1547,9 @@
       <c r="D18" s="18" t="s">
         <v>184</v>
       </c>
+      <c r="E18" s="10" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="19" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1436,7 +1562,10 @@
         <v>156</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
@@ -1450,7 +1579,10 @@
         <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1024" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,6 +1612,9 @@
       <c r="D23" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="24" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
@@ -1494,6 +1629,9 @@
       <c r="D24" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="25" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
@@ -1508,6 +1646,9 @@
       <c r="D25" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="26" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
@@ -1522,6 +1663,9 @@
       <c r="D26" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="27" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -1531,10 +1675,13 @@
         <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1550,6 +1697,9 @@
       <c r="D28" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="29" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -1559,9 +1709,12 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1578,6 +1731,9 @@
       <c r="D30" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="31" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -1590,7 +1746,10 @@
         <v>161</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1606,10 +1765,13 @@
       <c r="D32" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1619,6 +1781,9 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>0</v>
       </c>
     </row>
@@ -1635,6 +1800,9 @@
       <c r="D34" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="35" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -1649,6 +1817,9 @@
       <c r="D35" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="36" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1677,6 +1848,9 @@
       <c r="D37">
         <v>8</v>
       </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -1705,6 +1879,9 @@
       <c r="D40" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="41" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -1717,7 +1894,10 @@
         <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:1024" x14ac:dyDescent="0.2">
@@ -1733,6 +1913,9 @@
       <c r="D42" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="43" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -1747,6 +1930,9 @@
       <c r="D43" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="44" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1761,6 +1947,9 @@
       <c r="D44" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="45" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1775,6 +1964,9 @@
       <c r="D45" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -1789,6 +1981,9 @@
       <c r="D46" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E46" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
@@ -1803,6 +1998,9 @@
       <c r="D47" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1817,6 +2015,9 @@
       <c r="D48">
         <v>5</v>
       </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -1845,6 +2046,9 @@
       <c r="D51" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="52" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
@@ -1859,6 +2063,9 @@
       <c r="D52" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="53" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
@@ -1873,6 +2080,9 @@
       <c r="D53" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="54" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -1887,6 +2097,9 @@
       <c r="D54" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="55" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
@@ -1901,6 +2114,9 @@
       <c r="D55" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E55" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="56" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1915,6 +2131,9 @@
       <c r="D56">
         <v>8</v>
       </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -1943,6 +2162,9 @@
       <c r="D59" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E59" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="60" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -1957,6 +2179,9 @@
       <c r="D60" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="61" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -1971,6 +2196,9 @@
       <c r="D61">
         <v>9</v>
       </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:1024" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -1999,6 +2227,9 @@
       <c r="D64" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="65" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -2013,6 +2244,9 @@
       <c r="D65" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="66" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -2027,6 +2261,9 @@
       <c r="D66" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="67" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
@@ -2036,10 +2273,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:1024" x14ac:dyDescent="0.2">
@@ -2055,6 +2295,9 @@
       <c r="D68">
         <v>7</v>
       </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -2081,7 +2324,10 @@
         <v>169</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
@@ -2097,6 +2343,9 @@
       <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="73" spans="1:1024" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -2106,10 +2355,13 @@
         <v>96</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
@@ -2125,6 +2377,9 @@
       <c r="D74" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="75" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -2139,6 +2394,9 @@
       <c r="D75" s="21">
         <v>0.5625</v>
       </c>
+      <c r="E75" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:1024" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
@@ -2155,6 +2413,10 @@
         <f>D118/D116</f>
         <v>0.1869731206759559</v>
       </c>
+      <c r="E76" s="16">
+        <f>E118/E116</f>
+        <v>0.14357147802540177</v>
+      </c>
     </row>
     <row r="77" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
@@ -2169,6 +2431,9 @@
       <c r="D77" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="78" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -2183,6 +2448,9 @@
       <c r="D78">
         <v>6</v>
       </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
@@ -2212,7 +2480,10 @@
         <f>D106</f>
         <v>1058</v>
       </c>
-      <c r="E81" s="9"/>
+      <c r="E81" s="8">
+        <f>E106</f>
+        <v>257</v>
+      </c>
     </row>
     <row r="82" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
@@ -2227,6 +2498,9 @@
       <c r="D82" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="83" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -2241,6 +2515,9 @@
       <c r="D83">
         <v>5</v>
       </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
@@ -2269,6 +2546,9 @@
       <c r="D86" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="87" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -2283,6 +2563,9 @@
       <c r="D87" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E87" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="88" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -2297,6 +2580,9 @@
       <c r="D88" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E88" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="89" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
@@ -2311,6 +2597,9 @@
       <c r="D89" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E89" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="90" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
@@ -2325,6 +2614,9 @@
       <c r="D90" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E90" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="91" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
@@ -2339,6 +2631,9 @@
       <c r="D91" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E91" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="92" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -2353,6 +2648,9 @@
       <c r="D92" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="93" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
@@ -2367,6 +2665,9 @@
       <c r="D93" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E93" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="94" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -2381,6 +2682,9 @@
       <c r="D94">
         <v>7</v>
       </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
     </row>
     <row r="95" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
@@ -2408,6 +2712,9 @@
       <c r="D97" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="98" spans="1:1024" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -2422,6 +2729,9 @@
       <c r="D98" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E98" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="99" spans="1:1024" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -2436,6 +2746,9 @@
       <c r="D99" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="100" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -2450,6 +2763,9 @@
       <c r="D100" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="101" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -2464,6 +2780,9 @@
       <c r="D101">
         <v>4</v>
       </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
@@ -2492,6 +2811,9 @@
       <c r="D106">
         <v>1058</v>
       </c>
+      <c r="E106">
+        <v>257</v>
+      </c>
     </row>
     <row r="107" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -2506,6 +2828,9 @@
       <c r="D107">
         <v>212</v>
       </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
@@ -2520,6 +2845,9 @@
       <c r="D108">
         <v>632107</v>
       </c>
+      <c r="E108">
+        <v>144742</v>
+      </c>
     </row>
     <row r="109" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -2534,6 +2862,9 @@
       <c r="D109">
         <v>863932</v>
       </c>
+      <c r="E109">
+        <v>414757</v>
+      </c>
     </row>
     <row r="110" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
@@ -2548,6 +2879,9 @@
       <c r="D110">
         <v>231825</v>
       </c>
+      <c r="E110">
+        <v>270015</v>
+      </c>
     </row>
     <row r="111" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -2562,6 +2896,9 @@
       <c r="D111">
         <v>201</v>
       </c>
+      <c r="E111">
+        <v>2377</v>
+      </c>
     </row>
     <row r="112" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -2576,6 +2913,9 @@
       <c r="D112" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="E112" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="113" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
@@ -2590,6 +2930,9 @@
       <c r="D113" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="E113" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="114" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
@@ -2612,6 +2955,9 @@
       <c r="D115">
         <v>974</v>
       </c>
+      <c r="E115">
+        <v>202</v>
+      </c>
     </row>
     <row r="116" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
@@ -2626,6 +2972,9 @@
       <c r="D116">
         <v>361207</v>
       </c>
+      <c r="E116">
+        <v>129991</v>
+      </c>
     </row>
     <row r="117" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
@@ -2640,6 +2989,9 @@
       <c r="D117">
         <v>257144</v>
       </c>
+      <c r="E117">
+        <v>96767</v>
+      </c>
     </row>
     <row r="118" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -2654,6 +3006,9 @@
       <c r="D118">
         <v>67536</v>
       </c>
+      <c r="E118">
+        <v>18663</v>
+      </c>
     </row>
     <row r="119" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -2668,6 +3023,9 @@
       <c r="D119">
         <v>36527</v>
       </c>
+      <c r="E119">
+        <v>14561</v>
+      </c>
     </row>
     <row r="120" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
@@ -2690,6 +3048,9 @@
       <c r="D121">
         <v>91</v>
       </c>
+      <c r="E121" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="122" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -2704,6 +3065,9 @@
       <c r="D122">
         <v>27</v>
       </c>
+      <c r="E122" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="123" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -2718,6 +3082,9 @@
       <c r="D123">
         <v>22</v>
       </c>
+      <c r="E123" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="124" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -2732,6 +3099,9 @@
       <c r="D124">
         <v>1</v>
       </c>
+      <c r="E124" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="125" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -2745,6 +3115,9 @@
       </c>
       <c r="D125">
         <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2753,9 +3126,11 @@
     <hyperlink ref="C18" r:id="rId2" xr:uid="{5883CF0C-BD14-4E4D-ABD9-637F3F351F28}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{D81B5CD1-749A-40E9-A714-C5073F62DD8E}"/>
     <hyperlink ref="D18" r:id="rId4" xr:uid="{6625147F-C758-436E-B7E3-BFE217E8844E}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{D1D68045-B9C5-47AD-BA44-03467E246489}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{4E644BFA-C909-43EA-BAD6-B3EDBE4399CB}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4196C6-0D94-4D2E-B8F1-190BFA256D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51149839-8435-4403-B67C-6F6641437167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="211">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>git</t>
+  </si>
+  <si>
+    <t>({number, n/a})</t>
   </si>
 </sst>
 </file>
@@ -1241,8 +1244,8 @@
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2622,7 +2625,7 @@
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3039,8 +3042,8 @@
       <c r="A121" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>12</v>
+      <c r="B121" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C121" s="1">
         <v>132</v>
@@ -3056,8 +3059,8 @@
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>12</v>
+      <c r="B122" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C122" s="1">
         <v>63</v>
@@ -3073,8 +3076,8 @@
       <c r="A123" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>12</v>
+      <c r="B123" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C123" s="1">
         <v>19</v>
@@ -3090,8 +3093,8 @@
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>12</v>
+      <c r="B124" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C124" s="1">
         <v>10</v>
@@ -3107,8 +3110,8 @@
       <c r="A125" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>12</v>
+      <c r="B125" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C125" s="1">
         <v>215</v>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51149839-8435-4403-B67C-6F6641437167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C28EBB6-378F-4DBE-9D06-CF93E413984B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="212">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -201,9 +201,6 @@
     <t>({Windows, Linux, OS X, Android, other* }) *given via string</t>
   </si>
   <si>
-    <t>How many software packages need to be installed before or during installation?</t>
-  </si>
-  <si>
     <t>Are required package versions listed?</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
   </si>
   <si>
     <t xml:space="preserve">Explicit identification of a coding standard? </t>
-  </si>
-  <si>
-    <t>({yes∗, no, n/a})</t>
   </si>
   <si>
     <t xml:space="preserve">Are the code identifiers consistent, distinctive, and meaningful? </t>
@@ -735,6 +729,15 @@
   </si>
   <si>
     <t>({number, n/a})</t>
+  </si>
+  <si>
+    <t>How many extra software packages need to be installed before or during installation?</t>
+  </si>
+  <si>
+    <t>({yes, no∗ , unclear})</t>
+  </si>
+  <si>
+    <t>({yes∗, no, unclear})</t>
   </si>
 </sst>
 </file>
@@ -776,20 +779,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -847,29 +845,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -921,13 +903,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="3" builtinId="10"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1244,8 +1222,8 @@
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1287,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
@@ -1304,13 +1282,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="102" x14ac:dyDescent="0.2">
@@ -1321,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
@@ -1338,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
@@ -1372,13 +1350,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1397,7 +1375,7 @@
         <v>stars: 91, forks:27, watching: 22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1024" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1442,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
@@ -1459,13 +1437,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1476,13 +1454,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
@@ -1493,13 +1471,13 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1510,13 +1488,13 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
@@ -1545,13 +1523,13 @@
         <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
@@ -1562,13 +1540,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
@@ -1579,13 +1557,13 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1024" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,13 +1588,13 @@
         <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -1627,13 +1605,13 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1644,13 +1622,13 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
@@ -1661,13 +1639,13 @@
         <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:1024" x14ac:dyDescent="0.2">
@@ -1678,13 +1656,13 @@
         <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1695,13 +1673,13 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1712,13 +1690,13 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
@@ -1729,13 +1707,13 @@
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1746,13 +1724,13 @@
         <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
@@ -1763,19 +1741,19 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>56</v>
+      <c r="A33" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
@@ -1792,58 +1770,58 @@
     </row>
     <row r="34" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -1863,7 +1841,7 @@
     </row>
     <row r="39" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1871,146 +1849,146 @@
     </row>
     <row r="40" spans="1:1024" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
@@ -2030,7 +2008,7 @@
     </row>
     <row r="50" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2038,95 +2016,95 @@
     </row>
     <row r="51" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C56" s="1">
         <v>10</v>
@@ -2146,7 +2124,7 @@
     </row>
     <row r="58" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2154,44 +2132,44 @@
     </row>
     <row r="59" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -2211,7 +2189,7 @@
     </row>
     <row r="63" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2219,78 +2197,78 @@
     </row>
     <row r="64" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C68" s="1">
         <v>8</v>
@@ -2310,7 +2288,7 @@
     </row>
     <row r="70" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2318,78 +2296,78 @@
     </row>
     <row r="71" spans="1:1024" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:1024" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C75" s="15">
         <v>0.91649999999999998</v>
@@ -2403,10 +2381,10 @@
     </row>
     <row r="76" spans="1:1024" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="16">
         <f>C118/C116</f>
@@ -2423,27 +2401,27 @@
     </row>
     <row r="77" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -2462,7 +2440,7 @@
     </row>
     <row r="80" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2470,7 +2448,7 @@
     </row>
     <row r="81" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>12</v>
@@ -2490,27 +2468,27 @@
     </row>
     <row r="82" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" s="1">
         <v>8</v>
@@ -2530,7 +2508,7 @@
     </row>
     <row r="85" spans="1:1024" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2538,146 +2516,146 @@
     </row>
     <row r="86" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>86</v>
+        <v>113</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="1">
         <v>9</v>
@@ -2696,7 +2674,7 @@
     </row>
     <row r="96" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2704,78 +2682,78 @@
     </row>
     <row r="97" spans="1:1024" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:1024" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:1024" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C101" s="1">
         <v>9</v>
@@ -2795,7 +2773,7 @@
     </row>
     <row r="105" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2803,7 +2781,7 @@
     </row>
     <row r="106" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>12</v>
@@ -2820,7 +2798,7 @@
     </row>
     <row r="107" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>12</v>
@@ -2837,7 +2815,7 @@
     </row>
     <row r="108" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>12</v>
@@ -2854,7 +2832,7 @@
     </row>
     <row r="109" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>12</v>
@@ -2871,7 +2849,7 @@
     </row>
     <row r="110" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>12</v>
@@ -2888,7 +2866,7 @@
     </row>
     <row r="111" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>12</v>
@@ -2905,41 +2883,41 @@
     </row>
     <row r="112" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2947,7 +2925,7 @@
     </row>
     <row r="115" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>12</v>
@@ -2964,7 +2942,7 @@
     </row>
     <row r="116" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>12</v>
@@ -2981,7 +2959,7 @@
     </row>
     <row r="117" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>12</v>
@@ -2998,7 +2976,7 @@
     </row>
     <row r="118" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>12</v>
@@ -3015,7 +2993,7 @@
     </row>
     <row r="119" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>12</v>
@@ -3032,7 +3010,7 @@
     </row>
     <row r="120" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3040,10 +3018,10 @@
     </row>
     <row r="121" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>210</v>
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>208</v>
       </c>
       <c r="C121" s="1">
         <v>132</v>
@@ -3052,15 +3030,15 @@
         <v>91</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>210</v>
+        <v>139</v>
+      </c>
+      <c r="B122" t="s">
+        <v>208</v>
       </c>
       <c r="C122" s="1">
         <v>63</v>
@@ -3069,15 +3047,15 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>210</v>
+        <v>140</v>
+      </c>
+      <c r="B123" t="s">
+        <v>208</v>
       </c>
       <c r="C123" s="1">
         <v>19</v>
@@ -3086,15 +3064,15 @@
         <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>210</v>
+        <v>141</v>
+      </c>
+      <c r="B124" t="s">
+        <v>208</v>
       </c>
       <c r="C124" s="1">
         <v>10</v>
@@ -3103,15 +3081,15 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>210</v>
+        <v>142</v>
+      </c>
+      <c r="B125" t="s">
+        <v>208</v>
       </c>
       <c r="C125" s="1">
         <v>215</v>
@@ -3120,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C28EBB6-378F-4DBE-9D06-CF93E413984B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD520FB7-7AE1-4579-AFE8-36A1A00C044B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,6 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="256">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -739,12 +733,199 @@
   <si>
     <t>({yes∗, no, unclear})</t>
   </si>
+  <si>
+    <t>Weasis</t>
+  </si>
+  <si>
+    <t>https://nroduit.github.io/en/</t>
+  </si>
+  <si>
+    <t>A multipurpose standalone and web-based DICOM viewer with a highly modular architecture.</t>
+  </si>
+  <si>
+    <t>https://github.com/nroduit/Weasis</t>
+  </si>
+  <si>
+    <t>University Hospital of Geneva</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>240, 303, 164, 135, 70</t>
+  </si>
+  <si>
+    <t>10, 18, 17, 6, 10, 9, 3, 2, 12, 8, 19, 7</t>
+  </si>
+  <si>
+    <t>EPL 2.0</t>
+  </si>
+  <si>
+    <t>yes
+It allows high-quality renderings with high performance through the OpenCV library.</t>
+  </si>
+  <si>
+    <t>2, Windows</t>
+  </si>
+  <si>
+    <t>automated testing, assertions used in the code</t>
+  </si>
+  <si>
+    <t>FAQ, Github issue</t>
+  </si>
+  <si>
+    <t>3.6.1</t>
+  </si>
+  <si>
+    <t>yes
+https://nroduit.github.io/en/getting-started/#developer-documentation</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Change request
+Developer's Manual
+FAQ
+License
+README
+Release notes
+Source code
+Test cases
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://nroduit.github.io/en/getting-started/guidelines/</t>
+  </si>
+  <si>
+    <t>yes
+https://nroduit.github.io/en/getting-started/building-weasis/</t>
+  </si>
+  <si>
+    <t>yes
+Graham Scan algorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/nroduit/Weasis/blob/master/CHANGELOG.md</t>
+  </si>
+  <si>
+    <t>AMIDE</t>
+  </si>
+  <si>
+    <t>http://amide.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>A competely free tool for viewing, analyzing, and registering volumetric medical imaging data sets.</t>
+  </si>
+  <si>
+    <t>GNU GPL</t>
+  </si>
+  <si>
+    <t>MRIcroGL</t>
+  </si>
+  <si>
+    <t>A program designed to display 3D medical imaging.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://github.com/neurolabusc/MRIcroGL
+https://github.com/rordenlab/MRIcroGL12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>It has two repos for the older and newer versions respectively.</t>
+    </r>
+  </si>
+  <si>
+    <t>multiple, see https://github.com/rordenlab/MRIcroGL12/blob/master/license.txt</t>
+  </si>
+  <si>
+    <t>Pascal, Metal, GLSL</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>24, 83, 48, 33, 18</t>
+  </si>
+  <si>
+    <t>8, 3, 4, 3, 0, 0, 6, 1, 0, 0, 7, 4</t>
+  </si>
+  <si>
+    <t>https://www.mccauslandcenter.sc.edu/mricrogl/home
+https://www.nitrc.org/projects/mricrogl/</t>
+  </si>
+  <si>
+    <t>NOTICE:
+Most tests are based on the newer version, but the empirical data is the combination of two repos.</t>
+  </si>
+  <si>
+    <t>yes
+mentioned in the comments for the source code</t>
+  </si>
+  <si>
+    <t>1.2.20200707</t>
+  </si>
+  <si>
+    <t>yes
+https://www.nitrc.org/plugins/mwiki/index.php/mricrogl:MainPage#Installation</t>
+  </si>
+  <si>
+    <t>yes
+installer</t>
+  </si>
+  <si>
+    <t>no
+but still very simple, just need to unzip and use</t>
+  </si>
+  <si>
+    <t>1, Windows</t>
+  </si>
+  <si>
+    <t>FAQ, user forum, E-mail, Github issue</t>
+  </si>
+  <si>
+    <t>yes
+Authors
+Bug tracker
+Build file
+Change request
+FAQ
+Installation Guide
+License
+Makefile
+README
+Release notes
+Source code
+Troubleshooting guide
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+FIFO algorithm
+Deflate algorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/neurolabusc/MRIcroGL/releases
+https://github.com/rordenlab/MRIcroGL12/releases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -777,6 +958,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -851,7 +1037,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -873,7 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -903,13 +1088,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1219,11 +1420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ125"/>
+  <dimension ref="A1:AMK126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1233,10 +1434,10 @@
     <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="6" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1245,9 +1446,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="AMJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:1024" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="AMK1" s="1"/>
+    </row>
+    <row r="2" spans="1:10 1025:1025" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1255,9 +1456,9 @@
         <v>3</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="AMJ2" s="7"/>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK2" s="7"/>
+    </row>
+    <row r="3" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1273,25 +1474,43 @@
       <c r="E3" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="1:1024" ht="102" x14ac:dyDescent="0.2">
+      <c r="F4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10 1025:1025" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1307,8 +1526,17 @@
       <c r="E5" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1324,8 +1552,17 @@
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="7" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1578,14 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1024" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1358,8 +1601,14 @@
       <c r="E8" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1377,42 +1626,74 @@
       <c r="E9" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="10" spans="1:1024" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="F9" s="1" t="str">
+        <f>"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <v>stars: 255, forks:152, watching: 48</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>"stars: " &amp; G121 &amp; ", forks:" &amp; G122 &amp; ", watching: " &amp; G123</f>
+        <v>stars: 74, forks:22, watching: 18</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" ref="H9:J9" si="0">"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; H123</f>
+        <v xml:space="preserve">stars: , forks:, watching: </v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">stars: , forks:, watching: </v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">stars: , forks:, watching: </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>1998</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>2010</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="10">
+        <v>2010</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10 1025:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>44045</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>43606</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>44046</v>
       </c>
-    </row>
-    <row r="12" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="13">
+        <v>44049</v>
+      </c>
+      <c r="G11" s="13">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1428,8 +1709,20 @@
       <c r="E12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1445,8 +1738,17 @@
       <c r="E13" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="14" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1462,8 +1764,14 @@
       <c r="E14" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1479,8 +1787,17 @@
       <c r="E15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1496,8 +1813,17 @@
       <c r="E16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1505,34 +1831,45 @@
         <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="D17">
         <v>51</v>
       </c>
       <c r="E17">
-        <v>193</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="F17" s="22">
+        <v>188</v>
+      </c>
+      <c r="G17" s="22">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="F18" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,14 +1879,20 @@
       <c r="C19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="F19" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -1562,25 +1905,31 @@
       <c r="D20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1024" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8 1025:1025" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="AMJ22"/>
-    </row>
-    <row r="23" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK22"/>
+    </row>
+    <row r="23" spans="1:8 1025:1025" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1596,8 +1945,14 @@
       <c r="E23" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -1613,8 +1968,14 @@
       <c r="E24" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="25" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -1630,8 +1991,14 @@
       <c r="E25" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -1647,8 +2014,14 @@
       <c r="E26" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8 1025:1025" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -1664,8 +2037,14 @@
       <c r="E27" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -1673,16 +2052,22 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -1698,8 +2083,14 @@
       <c r="E29" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -1715,8 +2106,14 @@
       <c r="E30" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -1732,8 +2129,14 @@
       <c r="E31" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="32" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1749,9 +2152,17 @@
       <c r="E32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F32" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -1767,8 +2178,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -1784,8 +2201,14 @@
       <c r="E34" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -1801,8 +2224,14 @@
       <c r="E35" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -1815,8 +2244,17 @@
       <c r="D36" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1832,22 +2270,28 @@
       <c r="E37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="AMJ39"/>
-    </row>
-    <row r="40" spans="1:1024" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="AMK39"/>
+    </row>
+    <row r="40" spans="1:7 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -1863,8 +2307,14 @@
       <c r="E40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7 1025:1025" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -1880,8 +2330,14 @@
       <c r="E41" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -1897,8 +2353,14 @@
       <c r="E42" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="43" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -1914,8 +2376,14 @@
       <c r="E43" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -1931,8 +2399,14 @@
       <c r="E44" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -1948,8 +2422,14 @@
       <c r="E45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -1965,8 +2445,14 @@
       <c r="E46" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="47" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -1982,8 +2468,14 @@
       <c r="E47" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1999,22 +2491,28 @@
       <c r="E48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="AMJ50"/>
-    </row>
-    <row r="51" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK50"/>
+    </row>
+    <row r="51" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2030,8 +2528,14 @@
       <c r="E51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -2047,8 +2551,14 @@
       <c r="E52" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -2064,8 +2574,14 @@
       <c r="E53" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -2081,8 +2597,14 @@
       <c r="E54" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -2098,8 +2620,14 @@
       <c r="E55" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2115,22 +2643,28 @@
       <c r="E56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="AMJ58"/>
-    </row>
-    <row r="59" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="AMK58"/>
+    </row>
+    <row r="59" spans="1:7 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -2146,8 +2680,14 @@
       <c r="E59" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -2163,8 +2703,14 @@
       <c r="E60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2180,22 +2726,28 @@
       <c r="E61">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:1024" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="1">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7 1025:1025" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="AMJ63"/>
-    </row>
-    <row r="64" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK63"/>
+    </row>
+    <row r="64" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -2211,8 +2763,14 @@
       <c r="E64" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -2228,8 +2786,14 @@
       <c r="E65" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="66" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -2245,8 +2809,14 @@
       <c r="E66" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -2262,8 +2832,14 @@
       <c r="E67" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="68" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2279,22 +2855,28 @@
       <c r="E68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="1">
+        <v>6</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="AMJ70"/>
-    </row>
-    <row r="71" spans="1:1024" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMK70"/>
+    </row>
+    <row r="71" spans="1:10 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
@@ -2310,8 +2892,14 @@
       <c r="E71" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="72" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="F71" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -2327,8 +2915,14 @@
       <c r="E72" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:1024" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="F72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10 1025:1025" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -2344,8 +2938,14 @@
       <c r="E73" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="74" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="F73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -2361,45 +2961,77 @@
       <c r="E74" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="75" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="14">
         <v>0.91649999999999998</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="20">
         <v>0.5625</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:1024" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+      <c r="F75" s="20">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G75" s="20">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="15">
         <f>C118/C116</f>
         <v>0.17447679805060473</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="15">
         <f>D118/D116</f>
         <v>0.1869731206759559</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="15">
         <f>E118/E116</f>
         <v>0.14357147802540177</v>
       </c>
-    </row>
-    <row r="77" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F76" s="15">
+        <f t="shared" ref="F76:J76" si="1">F118/F116</f>
+        <v>9.0424206808005059E-2</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="1"/>
+        <v>0.68738692609660357</v>
+      </c>
+      <c r="H76" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -2415,8 +3047,14 @@
       <c r="E77" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="78" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -2432,21 +3070,27 @@
       <c r="E78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="1">
+        <v>8</v>
+      </c>
+      <c r="G78" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="AMJ80"/>
-    </row>
-    <row r="81" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK80"/>
+    </row>
+    <row r="81" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -2455,7 +3099,7 @@
       </c>
       <c r="C81" s="8">
         <f>C106</f>
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="D81" s="8">
         <f>D106</f>
@@ -2465,8 +3109,28 @@
         <f>E106</f>
         <v>257</v>
       </c>
-    </row>
-    <row r="82" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F81" s="8">
+        <f>F106</f>
+        <v>1041</v>
+      </c>
+      <c r="G81" s="8">
+        <f>G106</f>
+        <v>620</v>
+      </c>
+      <c r="H81" s="8">
+        <f t="shared" ref="H81:J81" si="2">H106</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -2482,8 +3146,14 @@
       <c r="E82" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,22 +3169,28 @@
       <c r="E83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="1">
+        <v>7</v>
+      </c>
+      <c r="G83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:1024" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="AMJ85"/>
-    </row>
-    <row r="86" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK85"/>
+    </row>
+    <row r="86" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -2530,8 +3206,14 @@
       <c r="E86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -2547,8 +3229,14 @@
       <c r="E87" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F87" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -2564,8 +3252,14 @@
       <c r="E88" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -2581,8 +3275,14 @@
       <c r="E89" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -2598,8 +3298,14 @@
       <c r="E90" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -2615,8 +3321,14 @@
       <c r="E91" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="92" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -2632,8 +3344,14 @@
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -2649,8 +3367,14 @@
       <c r="E93" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -2666,21 +3390,27 @@
       <c r="E94">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="1">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="AMJ96"/>
-    </row>
-    <row r="97" spans="1:1024" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="AMK96"/>
+    </row>
+    <row r="97" spans="1:7 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -2696,8 +3426,14 @@
       <c r="E97" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="98" spans="1:1024" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="F97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -2713,8 +3449,14 @@
       <c r="E98" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:1024" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="F98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -2730,8 +3472,14 @@
       <c r="E99" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="100" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="F99" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -2747,8 +3495,14 @@
       <c r="E100" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="101" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -2764,22 +3518,28 @@
       <c r="E101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="1">
+        <v>7</v>
+      </c>
+      <c r="G101" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="AMJ105"/>
-    </row>
-    <row r="106" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK105"/>
+    </row>
+    <row r="106" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -2787,7 +3547,7 @@
         <v>12</v>
       </c>
       <c r="C106" s="1">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="D106">
         <v>1058</v>
@@ -2795,8 +3555,14 @@
       <c r="E106">
         <v>257</v>
       </c>
-    </row>
-    <row r="107" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F106" s="1">
+        <v>1041</v>
+      </c>
+      <c r="G106" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -2804,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="1">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D107">
         <v>212</v>
@@ -2812,8 +3578,14 @@
       <c r="E107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F107" s="1">
+        <v>214</v>
+      </c>
+      <c r="G107" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -2829,8 +3601,14 @@
       <c r="E108">
         <v>144742</v>
       </c>
-    </row>
-    <row r="109" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F108" s="1">
+        <v>158642</v>
+      </c>
+      <c r="G108" s="24">
+        <v>157040</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -2846,8 +3624,14 @@
       <c r="E109">
         <v>414757</v>
       </c>
-    </row>
-    <row r="110" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F109" s="1">
+        <v>514448</v>
+      </c>
+      <c r="G109" s="24">
+        <v>400409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -2863,8 +3647,14 @@
       <c r="E110">
         <v>270015</v>
       </c>
-    </row>
-    <row r="111" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F110" s="1">
+        <v>348317</v>
+      </c>
+      <c r="G110" s="24">
+        <v>243583</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -2880,8 +3670,14 @@
       <c r="E111">
         <v>2377</v>
       </c>
-    </row>
-    <row r="112" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F111" s="1">
+        <v>2127</v>
+      </c>
+      <c r="G111" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -2897,8 +3693,14 @@
       <c r="E112" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="113" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -2914,16 +3716,22 @@
       <c r="E113" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="114" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="AMJ114"/>
-    </row>
-    <row r="115" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK114"/>
+    </row>
+    <row r="115" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -2939,8 +3747,14 @@
       <c r="E115">
         <v>202</v>
       </c>
-    </row>
-    <row r="116" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F115" s="1">
+        <v>1027</v>
+      </c>
+      <c r="G115" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -2956,8 +3770,14 @@
       <c r="E116">
         <v>129991</v>
       </c>
-    </row>
-    <row r="117" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F116" s="1">
+        <v>156551</v>
+      </c>
+      <c r="G116" s="1">
+        <v>117180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -2973,8 +3793,14 @@
       <c r="E117">
         <v>96767</v>
       </c>
-    </row>
-    <row r="118" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>123272</v>
+      </c>
+      <c r="G117" s="23">
+        <v>34783</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -2990,8 +3816,14 @@
       <c r="E118">
         <v>18663</v>
       </c>
-    </row>
-    <row r="119" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>14156</v>
+      </c>
+      <c r="G118" s="23">
+        <v>80548</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -3007,16 +3839,22 @@
       <c r="E119">
         <v>14561</v>
       </c>
-    </row>
-    <row r="120" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>19123</v>
+      </c>
+      <c r="G119" s="23">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="AMJ120"/>
-    </row>
-    <row r="121" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMK120"/>
+    </row>
+    <row r="121" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -3032,8 +3870,14 @@
       <c r="E121" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="122" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>255</v>
+      </c>
+      <c r="G121" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -3049,8 +3893,14 @@
       <c r="E122" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="123" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <v>152</v>
+      </c>
+      <c r="G122" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -3066,8 +3916,14 @@
       <c r="E123" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="124" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>48</v>
+      </c>
+      <c r="G123" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -3083,8 +3939,14 @@
       <c r="E124" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="125" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -3100,8 +3962,24 @@
       <c r="E125" t="s">
         <v>161</v>
       </c>
+      <c r="F125">
+        <v>32</v>
+      </c>
+      <c r="G125" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G126" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EE3D5CC2-09AF-44EB-9575-D376C7C23524}"/>
     <hyperlink ref="C18" r:id="rId2" xr:uid="{5883CF0C-BD14-4E4D-ABD9-637F3F351F28}"/>
@@ -3109,9 +3987,12 @@
     <hyperlink ref="D18" r:id="rId4" xr:uid="{6625147F-C758-436E-B7E3-BFE217E8844E}"/>
     <hyperlink ref="E4" r:id="rId5" xr:uid="{D1D68045-B9C5-47AD-BA44-03467E246489}"/>
     <hyperlink ref="E18" r:id="rId6" xr:uid="{4E644BFA-C909-43EA-BAD6-B3EDBE4399CB}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{549D2C60-3FAA-4224-ACED-785969FDC766}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{40978F48-28F8-4CF3-B12A-B5C45FC8D94F}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{27303CE6-3ACB-4C54-88C1-6F41966A2650}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD520FB7-7AE1-4579-AFE8-36A1A00C044B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FE64B2-2B93-4B06-8CC2-17A643E7CD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="269">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -812,39 +812,12 @@
 https://github.com/nroduit/Weasis/blob/master/CHANGELOG.md</t>
   </si>
   <si>
-    <t>AMIDE</t>
-  </si>
-  <si>
-    <t>http://amide.sourceforge.net/</t>
-  </si>
-  <si>
-    <t>A competely free tool for viewing, analyzing, and registering volumetric medical imaging data sets.</t>
-  </si>
-  <si>
-    <t>GNU GPL</t>
-  </si>
-  <si>
     <t>MRIcroGL</t>
   </si>
   <si>
     <t>A program designed to display 3D medical imaging.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">https://github.com/neurolabusc/MRIcroGL
-https://github.com/rordenlab/MRIcroGL12
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>It has two repos for the older and newer versions respectively.</t>
-    </r>
-  </si>
-  <si>
     <t>multiple, see https://github.com/rordenlab/MRIcroGL12/blob/master/license.txt</t>
   </si>
   <si>
@@ -852,20 +825,10 @@
   </si>
   <si>
     <t>University of South Carolina</t>
-  </si>
-  <si>
-    <t>24, 83, 48, 33, 18</t>
-  </si>
-  <si>
-    <t>8, 3, 4, 3, 0, 0, 6, 1, 0, 0, 7, 4</t>
   </si>
   <si>
     <t>https://www.mccauslandcenter.sc.edu/mricrogl/home
 https://www.nitrc.org/projects/mricrogl/</t>
-  </si>
-  <si>
-    <t>NOTICE:
-Most tests are based on the newer version, but the empirical data is the combination of two repos.</t>
   </si>
   <si>
     <t>yes
@@ -919,6 +882,92 @@
     <t>yes
 https://github.com/neurolabusc/MRIcroGL/releases
 https://github.com/rordenlab/MRIcroGL12/releases</t>
+  </si>
+  <si>
+    <t>SMILI</t>
+  </si>
+  <si>
+    <t>https://smili-project.sourceforge.io/</t>
+  </si>
+  <si>
+    <t>BSD 3-Clause</t>
+  </si>
+  <si>
+    <t>A light-weight, cross platform and open source library with a handful of classes to make building medical image processing and scientific visualisation applications/pipelines easy.</t>
+  </si>
+  <si>
+    <t>9
+according to https://smili-project.sourceforge.io/credits.html</t>
+  </si>
+  <si>
+    <t>Australian e-Health Research Centre
+CSIRO
+University of Queensland</t>
+  </si>
+  <si>
+    <t>https://github.com/shakes76/smili</t>
+  </si>
+  <si>
+    <t>last commit 2019-08-15
+last release 2020-06-13</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>C++, Objective C, Python</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/shakes76/smili/releases</t>
+  </si>
+  <si>
+    <t>no
+https://smili-project.sourceforge.io/getting_started.html</t>
+  </si>
+  <si>
+    <t>no
+it can open a bronken dcm file and display meanless images</t>
+  </si>
+  <si>
+    <t>Github issue</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+API documentation
+Authors
+Bug tracker
+Build file
+Change request
+FAQ
+License
+Makefile
+README
+Release notes
+Source code
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+quadric clustering algorithm</t>
+  </si>
+  <si>
+    <t>18, 19, 15, 3, 0</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>https://github.com/rordenlab/MRIcroGL12</t>
+  </si>
+  <si>
+    <t>5, 31, 18</t>
+  </si>
+  <si>
+    <t>7, 3, 4, 3, 0, 0, 6, 1, 0, 0, 7, 4</t>
   </si>
 </sst>
 </file>
@@ -1422,22 +1471,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H127" sqref="H127:H131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="12" width="25.7109375" customWidth="1"/>
+    <col min="6" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1497,7 @@
       <c r="E1" s="3"/>
       <c r="AMK1" s="1"/>
     </row>
-    <row r="2" spans="1:10 1025:1025" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10 1025:1025" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1507,7 @@
       <c r="C2" s="5"/>
       <c r="AMK2" s="7"/>
     </row>
-    <row r="3" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1478,13 +1527,13 @@
         <v>212</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10 1025:1025" ht="51" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1504,13 +1553,13 @@
         <v>213</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10 1025:1025" ht="102" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1530,13 +1579,13 @@
         <v>216</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1556,13 +1605,13 @@
         <v>214</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1584,8 +1633,11 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1607,8 +1659,11 @@
       <c r="G8" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1632,14 +1687,14 @@
       </c>
       <c r="G9" s="1" t="str">
         <f>"stars: " &amp; G121 &amp; ", forks:" &amp; G122 &amp; ", watching: " &amp; G123</f>
-        <v>stars: 74, forks:22, watching: 18</v>
+        <v>stars: 29, forks:1, watching: 8</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" ref="H9:J9" si="0">"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; H123</f>
-        <v xml:space="preserve">stars: , forks:, watching: </v>
+        <f>"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; H123</f>
+        <v>stars: 16, forks:9, watching: 5</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I9:J9" si="0">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; I123</f>
         <v xml:space="preserve">stars: , forks:, watching: </v>
       </c>
       <c r="J9" s="1" t="str">
@@ -1647,7 +1702,7 @@
         <v xml:space="preserve">stars: , forks:, watching: </v>
       </c>
     </row>
-    <row r="10" spans="1:10 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
@@ -1669,8 +1724,11 @@
       <c r="G10" s="10">
         <v>2015</v>
       </c>
-    </row>
-    <row r="11" spans="1:10 1025:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10 1025:1025" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="G11" s="13">
         <v>44047</v>
       </c>
-    </row>
-    <row r="12" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H11" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1783,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:10 1025:1025" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1742,13 +1803,13 @@
         <v>220</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1770,8 +1831,11 @@
       <c r="G14" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:10 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1861,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1823,7 +1887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:8 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1845,8 +1909,11 @@
       <c r="G17" s="22">
         <v>484</v>
       </c>
-    </row>
-    <row r="18" spans="1:8 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,10 +1933,13 @@
         <v>215</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8 1025:1025" ht="51" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,10 +1959,13 @@
         <v>217</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -1912,16 +1985,19 @@
         <v>221</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8 1025:1025" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8 1025:1025" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:8 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1929,7 +2005,7 @@
       <c r="C22" s="5"/>
       <c r="AMK22"/>
     </row>
-    <row r="23" spans="1:8 1025:1025" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2027,11 @@
       <c r="G23" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:8 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -1972,10 +2051,13 @@
         <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -1997,8 +2079,11 @@
       <c r="G25" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="26" spans="1:8 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H25" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -2020,8 +2105,11 @@
       <c r="G26" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="27" spans="1:8 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -2043,8 +2131,11 @@
       <c r="G27" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:8 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -2052,22 +2143,25 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -2089,8 +2183,11 @@
       <c r="G29" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:8 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="H29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -2112,8 +2209,11 @@
       <c r="G30" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:8 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -2133,10 +2233,13 @@
         <v>222</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2162,7 +2265,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -2184,8 +2287,11 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2207,8 +2313,11 @@
       <c r="G34" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H34" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -2230,8 +2339,11 @@
       <c r="G35" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H35" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -2254,7 +2366,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -2276,14 +2388,17 @@
       <c r="G37" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:7 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -2291,7 +2406,7 @@
       <c r="C39" s="5"/>
       <c r="AMK39"/>
     </row>
-    <row r="40" spans="1:7 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -2313,8 +2428,11 @@
       <c r="G40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:7 1025:1025" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8 1025:1025" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -2336,8 +2454,11 @@
       <c r="G41" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2359,8 +2480,11 @@
       <c r="G42" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="43" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2382,8 +2506,11 @@
       <c r="G43" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2405,8 +2532,11 @@
       <c r="G44" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H44" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -2428,8 +2558,11 @@
       <c r="G45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -2451,8 +2584,11 @@
       <c r="G46" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="47" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H46" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -2474,8 +2610,11 @@
       <c r="G47" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,14 +2636,17 @@
       <c r="G48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:7 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
@@ -2512,7 +2654,7 @@
       <c r="C50" s="5"/>
       <c r="AMK50"/>
     </row>
-    <row r="51" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2534,8 +2676,11 @@
       <c r="G51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -2557,8 +2702,11 @@
       <c r="G52" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H52" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -2580,8 +2728,11 @@
       <c r="G53" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H53" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -2603,8 +2754,11 @@
       <c r="G54" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -2626,8 +2780,11 @@
       <c r="G55" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2649,14 +2806,17 @@
       <c r="G56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:7 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
@@ -2664,7 +2824,7 @@
       <c r="C58" s="5"/>
       <c r="AMK58"/>
     </row>
-    <row r="59" spans="1:7 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -2684,10 +2844,13 @@
         <v>156</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -2709,8 +2872,11 @@
       <c r="G60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2732,14 +2898,17 @@
       <c r="G61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7 1025:1025" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8 1025:1025" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
@@ -2747,7 +2916,7 @@
       <c r="C63" s="5"/>
       <c r="AMK63"/>
     </row>
-    <row r="64" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -2769,8 +2938,11 @@
       <c r="G64" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H64" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -2792,8 +2964,11 @@
       <c r="G65" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="66" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H65" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -2815,8 +2990,11 @@
       <c r="G66" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="67" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -2836,10 +3014,13 @@
         <v>224</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2861,14 +3042,17 @@
       <c r="G68" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:10 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
@@ -2876,7 +3060,7 @@
       <c r="C70" s="5"/>
       <c r="AMK70"/>
     </row>
-    <row r="71" spans="1:10 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
@@ -2896,10 +3080,13 @@
         <v>225</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="H71">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -2921,8 +3108,11 @@
       <c r="G72" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:10 1025:1025" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="H72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10 1025:1025" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -2942,10 +3132,13 @@
         <v>227</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10 1025:1025" ht="51" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -2967,8 +3160,11 @@
       <c r="G74" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H74" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -2990,8 +3186,11 @@
       <c r="G75" s="20">
         <v>0.95450000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:10 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="20">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>100</v>
       </c>
@@ -3016,11 +3215,11 @@
       </c>
       <c r="G76" s="15">
         <f t="shared" si="1"/>
-        <v>0.68738692609660357</v>
-      </c>
-      <c r="H76" s="15" t="e">
+        <v>0.8249975220537219</v>
+      </c>
+      <c r="H76" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.18920417988596278</v>
       </c>
       <c r="I76" s="15" t="e">
         <f t="shared" si="1"/>
@@ -3031,7 +3230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -3053,8 +3252,11 @@
       <c r="G77" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -3076,13 +3278,16 @@
       <c r="G78" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:10 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
@@ -3090,7 +3295,7 @@
       <c r="C80" s="5"/>
       <c r="AMK80"/>
     </row>
-    <row r="81" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -3115,11 +3320,11 @@
       </c>
       <c r="G81" s="8">
         <f>G106</f>
-        <v>620</v>
+        <v>281</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" ref="H81:J81" si="2">H106</f>
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="2"/>
@@ -3130,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -3152,8 +3357,11 @@
       <c r="G82" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H82" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -3175,14 +3383,17 @@
       <c r="G83" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:10 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:10 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
@@ -3190,7 +3401,7 @@
       <c r="C85" s="5"/>
       <c r="AMK85"/>
     </row>
-    <row r="86" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -3212,8 +3423,11 @@
       <c r="G86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:10 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -3235,8 +3449,11 @@
       <c r="G87" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H87" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -3258,8 +3475,11 @@
       <c r="G88" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H88" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -3281,8 +3501,11 @@
       <c r="G89" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:10 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -3304,8 +3527,11 @@
       <c r="G90" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="1:10 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -3325,10 +3551,13 @@
         <v>230</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -3350,8 +3579,11 @@
       <c r="G92" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H92" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -3373,8 +3605,11 @@
       <c r="G93" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:10 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -3396,13 +3631,16 @@
       <c r="G94" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:10 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
@@ -3410,7 +3648,7 @@
       <c r="C96" s="5"/>
       <c r="AMK96"/>
     </row>
-    <row r="97" spans="1:7 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -3432,8 +3670,11 @@
       <c r="G97" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="98" spans="1:7 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="H97" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -3455,8 +3696,11 @@
       <c r="G98" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:7 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="H98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -3478,8 +3722,11 @@
       <c r="G99" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="100" spans="1:7 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="H99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -3499,10 +3746,13 @@
         <v>231</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -3524,14 +3774,17 @@
       <c r="G101" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:7 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
@@ -3539,7 +3792,7 @@
       <c r="C105" s="5"/>
       <c r="AMK105"/>
     </row>
-    <row r="106" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -3559,10 +3812,13 @@
         <v>1041</v>
       </c>
       <c r="G106" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="H106" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -3582,10 +3838,13 @@
         <v>214</v>
       </c>
       <c r="G107" s="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="H107" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -3605,10 +3864,13 @@
         <v>158642</v>
       </c>
       <c r="G108" s="24">
-        <v>157040</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>77216</v>
+      </c>
+      <c r="H108">
+        <v>96698</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -3628,10 +3890,13 @@
         <v>514448</v>
       </c>
       <c r="G109" s="24">
-        <v>400409</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>119012</v>
+      </c>
+      <c r="H109">
+        <v>107631</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -3651,10 +3916,13 @@
         <v>348317</v>
       </c>
       <c r="G110" s="24">
-        <v>243583</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>41983</v>
+      </c>
+      <c r="H110">
+        <v>10933</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -3674,10 +3942,13 @@
         <v>2127</v>
       </c>
       <c r="G111" s="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="H111" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -3697,10 +3968,13 @@
         <v>218</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -3720,10 +3994,13 @@
         <v>219</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
@@ -3731,7 +4008,7 @@
       <c r="C114" s="5"/>
       <c r="AMK114"/>
     </row>
-    <row r="115" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -3751,10 +4028,13 @@
         <v>1027</v>
       </c>
       <c r="G115" s="1">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="H115" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -3774,10 +4054,13 @@
         <v>156551</v>
       </c>
       <c r="G116" s="1">
-        <v>117180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>50445</v>
+      </c>
+      <c r="H116" s="1">
+        <v>90146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -3797,10 +4080,13 @@
         <v>123272</v>
       </c>
       <c r="G117" s="23">
-        <v>34783</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>8493</v>
+      </c>
+      <c r="H117">
+        <v>62626</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -3820,10 +4106,13 @@
         <v>14156</v>
       </c>
       <c r="G118" s="23">
-        <v>80548</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>41617</v>
+      </c>
+      <c r="H118">
+        <v>17056</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -3843,10 +4132,13 @@
         <v>19123</v>
       </c>
       <c r="G119" s="23">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="H119">
+        <v>10464</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
@@ -3854,7 +4146,7 @@
       <c r="C120" s="5"/>
       <c r="AMK120"/>
     </row>
-    <row r="121" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -3874,10 +4166,13 @@
         <v>255</v>
       </c>
       <c r="G121" s="23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -3897,10 +4192,13 @@
         <v>152</v>
       </c>
       <c r="G122" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -3920,10 +4218,13 @@
         <v>48</v>
       </c>
       <c r="G123" s="23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -3945,8 +4246,11 @@
       <c r="G124" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -3966,16 +4270,17 @@
         <v>32</v>
       </c>
       <c r="G125" s="23">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:7 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="G126" s="1" t="s">
-        <v>245</v>
-      </c>
+    <row r="126" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="G126" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A18:G18 I18:XFD18 A1:XFD17 A19:XFD1048576">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -3990,9 +4295,11 @@
     <hyperlink ref="F4" r:id="rId7" xr:uid="{549D2C60-3FAA-4224-ACED-785969FDC766}"/>
     <hyperlink ref="F18" r:id="rId8" xr:uid="{40978F48-28F8-4CF3-B12A-B5C45FC8D94F}"/>
     <hyperlink ref="H4" r:id="rId9" xr:uid="{27303CE6-3ACB-4C54-88C1-6F41966A2650}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{550E49DE-E4B8-485D-B980-DA40E2625A41}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{BFE4F1F5-9287-4E5F-8E2B-7EF518F0947F}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FE64B2-2B93-4B06-8CC2-17A643E7CD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7EAD1-496E-45A6-A40C-4FB4C1AEA53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="298">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -968,6 +968,118 @@
   </si>
   <si>
     <t>7, 3, 4, 3, 0, 0, 6, 1, 0, 0, 7, 4</t>
+  </si>
+  <si>
+    <t>ImageJ</t>
+  </si>
+  <si>
+    <t>https://imagej.net</t>
+  </si>
+  <si>
+    <t>An open source image processing program designed for scientific multidimensional images.</t>
+  </si>
+  <si>
+    <t>Laboratory for Optical and Computational Instrumentation
+University of Wisconsin-Madison
+MIT
+Harvard
+Molecular Cell Biology and Genetics.</t>
+  </si>
+  <si>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>https://github.com/imagej/imagej</t>
+  </si>
+  <si>
+    <t>Java, Shell, Perl</t>
+  </si>
+  <si>
+    <t>yes
+mentioned in the GitHub commits</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Downloads.html#Installation</t>
+  </si>
+  <si>
+    <t>58, 32, 29, 8, 11</t>
+  </si>
+  <si>
+    <t>1, 1, 0, 0, 0, 2, 1, 0, 0, 0, 4, 4</t>
+  </si>
+  <si>
+    <t>automated testing
+assertions used in the code
+Javadoc
+other (https://imagej.net/Debugging)</t>
+  </si>
+  <si>
+    <t>no
+https://imagej.net/Getting_Started</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Travis</t>
+  </si>
+  <si>
+    <t>yes
+with a clear message</t>
+  </si>
+  <si>
+    <t>funded
+National Institutes of Health
+National Institute of General Medical Sciences
+Biomedical Informatics/Computing Software for Robustness and Dissemination
+Wellcome Trust Strategic Award
+University of Konstanz
+University of Wisconsin-Madison</t>
+  </si>
+  <si>
+    <t>FAQ, Troubleshooting, user forum, Github issue</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Development.html</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Coding_style</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/TrackMate_Algorithms</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Development_Lifecycle</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/tickets/</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Developing_ImageJ_in_Eclipse</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/ImageJ2_development_releases</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>GNU GPL 3.0</t>
+  </si>
+  <si>
+    <t>53, 36, 27, 21, 27</t>
+  </si>
+  <si>
+    <t>4, 1, 0, 0, 0, 5, 0, 1, 1, 1, 10, 9</t>
   </si>
 </sst>
 </file>
@@ -1471,9 +1583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H127" sqref="H127:H131"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1532,6 +1644,12 @@
       <c r="H3" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="4" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1558,8 +1676,11 @@
       <c r="H4" s="17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:10 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="I4" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1583,6 +1704,9 @@
       </c>
       <c r="H5" s="1" t="s">
         <v>253</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:10 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
@@ -1610,6 +1734,9 @@
       <c r="H6" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="7" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1636,8 +1763,11 @@
       <c r="H7" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="1:10 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10 1025:1025" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1661,6 +1791,9 @@
       </c>
       <c r="H8" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
@@ -1695,11 +1828,11 @@
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" ref="I9:J9" si="0">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; I123</f>
-        <v xml:space="preserve">stars: , forks:, watching: </v>
+        <v>stars: 668, forks:264, watching: 92</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">stars: , forks:, watching: </v>
+        <v>stars: 368, forks:198, watching: 53</v>
       </c>
     </row>
     <row r="10" spans="1:10 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1727,6 +1860,9 @@
       <c r="H10" s="10">
         <v>2014</v>
       </c>
+      <c r="I10" s="10">
+        <v>1997</v>
+      </c>
     </row>
     <row r="11" spans="1:10 1025:1025" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1753,6 +1889,9 @@
       <c r="H11" s="12" t="s">
         <v>255</v>
       </c>
+      <c r="I11" s="13">
+        <v>44059</v>
+      </c>
     </row>
     <row r="12" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1808,6 +1947,12 @@
       <c r="H13" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="14" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1834,6 +1979,9 @@
       <c r="H14" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="15" spans="1:10 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1860,6 +2008,9 @@
       <c r="H15" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="16" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1886,8 +2037,11 @@
       <c r="H16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1912,8 +2066,11 @@
       <c r="H17" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>339000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1938,8 +2095,11 @@
       <c r="H18" s="17" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="19" spans="1:8 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="I18" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1964,8 +2124,11 @@
       <c r="H19" s="19" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="1:8 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="I19" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -1990,14 +2153,17 @@
       <c r="H20" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:8 1025:1025" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9 1025:1025" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:8 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2005,7 +2171,7 @@
       <c r="C22" s="5"/>
       <c r="AMK22"/>
     </row>
-    <row r="23" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2030,8 +2196,11 @@
       <c r="H23" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="24" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2056,8 +2225,11 @@
       <c r="H24" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2082,8 +2254,11 @@
       <c r="H25" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -2108,8 +2283,11 @@
       <c r="H26" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -2134,8 +2312,11 @@
       <c r="H27" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -2160,8 +2341,11 @@
       <c r="H28" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="29" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -2186,8 +2370,11 @@
       <c r="H29" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:8 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -2212,8 +2399,11 @@
       <c r="H30" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:8 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -2238,8 +2428,11 @@
       <c r="H31" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="32" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2264,8 +2457,11 @@
       <c r="H32" s="22" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -2290,8 +2486,11 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2515,11 @@
       <c r="H34" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -2342,8 +2544,11 @@
       <c r="H35" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -2365,8 +2570,14 @@
       <c r="G36" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -2391,14 +2602,17 @@
       <c r="H37" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -2406,7 +2620,7 @@
       <c r="C39" s="5"/>
       <c r="AMK39"/>
     </row>
-    <row r="40" spans="1:8 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -2431,8 +2645,11 @@
       <c r="H40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:8 1025:1025" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9 1025:1025" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -2457,8 +2674,11 @@
       <c r="H41" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2483,8 +2703,11 @@
       <c r="H42" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="43" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2509,8 +2732,11 @@
       <c r="H43" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44" spans="1:8 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2535,8 +2761,11 @@
       <c r="H44" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="45" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -2561,8 +2790,11 @@
       <c r="H45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -2587,8 +2819,11 @@
       <c r="H46" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -2613,8 +2848,11 @@
       <c r="H47" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2639,14 +2877,17 @@
       <c r="H48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:8 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
@@ -2654,7 +2895,7 @@
       <c r="C50" s="5"/>
       <c r="AMK50"/>
     </row>
-    <row r="51" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2679,8 +2920,11 @@
       <c r="H51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -2705,8 +2949,11 @@
       <c r="H52" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -2729,10 +2976,13 @@
         <v>161</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -2757,8 +3007,11 @@
       <c r="H54" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -2783,8 +3036,11 @@
       <c r="H55" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,7 +3048,7 @@
         <v>61</v>
       </c>
       <c r="C56" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -2807,16 +3063,19 @@
         <v>8</v>
       </c>
       <c r="H56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
@@ -2824,7 +3083,7 @@
       <c r="C58" s="5"/>
       <c r="AMK58"/>
     </row>
-    <row r="59" spans="1:8 1025:1025" ht="66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -2849,8 +3108,11 @@
       <c r="H59" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -2875,8 +3137,11 @@
       <c r="H60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2901,14 +3166,17 @@
       <c r="H61" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:8 1025:1025" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9 1025:1025" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
@@ -2916,7 +3184,7 @@
       <c r="C63" s="5"/>
       <c r="AMK63"/>
     </row>
-    <row r="64" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -2939,6 +3207,9 @@
         <v>156</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2967,6 +3238,9 @@
       <c r="H65" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I65" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="66" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2993,6 +3267,9 @@
       <c r="H66" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="I66" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="67" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
@@ -3019,6 +3296,9 @@
       <c r="H67" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="I67" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="68" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3045,6 +3325,9 @@
       <c r="H68" s="1">
         <v>7</v>
       </c>
+      <c r="I68" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="69" spans="1:10 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -3085,6 +3368,9 @@
       <c r="H71">
         <v>1.04</v>
       </c>
+      <c r="I71" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="72" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -3111,6 +3397,9 @@
       <c r="H72" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="I72" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="73" spans="1:10 1025:1025" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -3137,6 +3426,9 @@
       <c r="H73" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="I73" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="74" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -3163,6 +3455,9 @@
       <c r="H74" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="I74" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="75" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3189,6 +3484,12 @@
       <c r="H75" s="20">
         <v>0.28570000000000001</v>
       </c>
+      <c r="I75" s="20">
+        <v>0.52490000000000003</v>
+      </c>
+      <c r="J75" s="20">
+        <v>0.63790000000000002</v>
+      </c>
     </row>
     <row r="76" spans="1:10 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
@@ -3221,13 +3522,13 @@
         <f t="shared" si="1"/>
         <v>0.18920417988596278</v>
       </c>
-      <c r="I76" s="15" t="e">
+      <c r="I76" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J76" s="15" t="e">
+        <v>5.856610800744879E-2</v>
+      </c>
+      <c r="J76" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.11457425167102586</v>
       </c>
     </row>
     <row r="77" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
@@ -3255,6 +3556,9 @@
       <c r="H77" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="I77" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="78" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -3281,6 +3585,9 @@
       <c r="H78" s="1">
         <v>6</v>
       </c>
+      <c r="I78" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -3328,11 +3635,11 @@
       </c>
       <c r="I81" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J81" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
@@ -3360,6 +3667,9 @@
       <c r="H82" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I82" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="83" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -3386,6 +3696,9 @@
       <c r="H83" s="1">
         <v>7</v>
       </c>
+      <c r="I83" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="84" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -3426,6 +3739,9 @@
       <c r="H86" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I86" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="87" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -3452,6 +3768,9 @@
       <c r="H87" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="I87" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="88" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -3478,6 +3797,9 @@
       <c r="H88" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I88" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="89" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -3504,6 +3826,9 @@
       <c r="H89" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="I89" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="90" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -3530,6 +3855,9 @@
       <c r="H90" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I90" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="91" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -3556,6 +3884,9 @@
       <c r="H91" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="I91" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="92" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -3582,6 +3913,9 @@
       <c r="H92" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I92" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -3608,6 +3942,9 @@
       <c r="H93" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I93" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="94" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -3634,6 +3971,9 @@
       <c r="H94" s="1">
         <v>6</v>
       </c>
+      <c r="I94" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -3648,7 +3988,7 @@
       <c r="C96" s="5"/>
       <c r="AMK96"/>
     </row>
-    <row r="97" spans="1:8 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -3673,8 +4013,11 @@
       <c r="H97" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="98" spans="1:8 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -3699,8 +4042,11 @@
       <c r="H98" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:8 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -3725,8 +4071,11 @@
       <c r="H99" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="100" spans="1:8 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -3751,8 +4100,11 @@
       <c r="H100" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="101" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,14 +4129,17 @@
       <c r="H101" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:8 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
@@ -3792,7 +4147,7 @@
       <c r="C105" s="5"/>
       <c r="AMK105"/>
     </row>
-    <row r="106" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -3817,8 +4172,14 @@
       <c r="H106" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="107" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I106" s="1">
+        <v>45</v>
+      </c>
+      <c r="J106" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -3843,8 +4204,14 @@
       <c r="H107" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="108" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I107" s="1">
+        <v>42</v>
+      </c>
+      <c r="J107" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -3869,8 +4236,14 @@
       <c r="H108">
         <v>96698</v>
       </c>
-    </row>
-    <row r="109" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>10925</v>
+      </c>
+      <c r="J108">
+        <v>19168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -3895,8 +4268,14 @@
       <c r="H109">
         <v>107631</v>
       </c>
-    </row>
-    <row r="110" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>2740542</v>
+      </c>
+      <c r="J109">
+        <v>2607708</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -3921,8 +4300,14 @@
       <c r="H110">
         <v>10933</v>
       </c>
-    </row>
-    <row r="111" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>2729538</v>
+      </c>
+      <c r="J110">
+        <v>2597926</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -3947,8 +4332,14 @@
       <c r="H111" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:8 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I111" s="1">
+        <v>8952</v>
+      </c>
+      <c r="J111" s="1">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -3973,8 +4364,14 @@
       <c r="H112" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="113" spans="1:8 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I112" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -3999,8 +4396,14 @@
       <c r="H113" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="114" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
@@ -4008,7 +4411,7 @@
       <c r="C114" s="5"/>
       <c r="AMK114"/>
     </row>
-    <row r="115" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -4033,8 +4436,14 @@
       <c r="H115" s="1">
         <v>275</v>
       </c>
-    </row>
-    <row r="116" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I115" s="1">
+        <v>40</v>
+      </c>
+      <c r="J115">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -4059,8 +4468,14 @@
       <c r="H116" s="1">
         <v>90146</v>
       </c>
-    </row>
-    <row r="117" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I116" s="1">
+        <v>10740</v>
+      </c>
+      <c r="J116">
+        <v>13764</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -4085,8 +4500,14 @@
       <c r="H117">
         <v>62626</v>
       </c>
-    </row>
-    <row r="118" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>9681</v>
+      </c>
+      <c r="J117">
+        <v>10833</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -4111,8 +4532,14 @@
       <c r="H118">
         <v>17056</v>
       </c>
-    </row>
-    <row r="119" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>629</v>
+      </c>
+      <c r="J118">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -4137,8 +4564,14 @@
       <c r="H119">
         <v>10464</v>
       </c>
-    </row>
-    <row r="120" spans="1:8 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>430</v>
+      </c>
+      <c r="J119">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
@@ -4146,7 +4579,7 @@
       <c r="C120" s="5"/>
       <c r="AMK120"/>
     </row>
-    <row r="121" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -4171,8 +4604,14 @@
       <c r="H121">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>668</v>
+      </c>
+      <c r="J121">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -4197,8 +4636,14 @@
       <c r="H122">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>264</v>
+      </c>
+      <c r="J122">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -4223,8 +4668,14 @@
       <c r="H123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>92</v>
+      </c>
+      <c r="J123">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -4249,8 +4700,14 @@
       <c r="H124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -4275,8 +4732,14 @@
       <c r="H125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:8 1025:1025" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>33</v>
+      </c>
+      <c r="J125">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
     </row>
   </sheetData>
@@ -4297,9 +4760,11 @@
     <hyperlink ref="H4" r:id="rId9" xr:uid="{27303CE6-3ACB-4C54-88C1-6F41966A2650}"/>
     <hyperlink ref="H18" r:id="rId10" xr:uid="{550E49DE-E4B8-485D-B980-DA40E2625A41}"/>
     <hyperlink ref="G18" r:id="rId11" xr:uid="{BFE4F1F5-9287-4E5F-8E2B-7EF518F0947F}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{F8445A3C-B16D-49A7-9899-49EC1E0B9C43}"/>
+    <hyperlink ref="I18" r:id="rId13" xr:uid="{94D86D50-43F6-4EE7-A879-9F7FDC1EA080}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7EAD1-496E-45A6-A40C-4FB4C1AEA53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F4837-23DA-4AA1-AEA5-DEA552488CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="326">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1063,23 +1063,141 @@
   </si>
   <si>
     <t>yes
-https://imagej.net/Developing_ImageJ_in_Eclipse</t>
+https://imagej.net/ImageJ2_development_releases</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>GNU GPL 3.0</t>
+  </si>
+  <si>
+    <t>53, 36, 27, 21, 27</t>
+  </si>
+  <si>
+    <t>4, 1, 0, 0, 0, 5, 0, 1, 1, 1, 10, 9</t>
+  </si>
+  <si>
+    <t>https://fiji.sc/</t>
+  </si>
+  <si>
+    <t>An image processing package — a "batteries-included" distribution of ImageJ, bundling many plugins which facilitate scientific image analysis.</t>
+  </si>
+  <si>
+    <t>https://github.com/fiji/fiji</t>
+  </si>
+  <si>
+    <t>funded
+CZI
+Fiji Software Sustainability Grant</t>
+  </si>
+  <si>
+    <t>Shell, Java, Python, Matlab, Ruby, Clojure</t>
   </si>
   <si>
     <t>yes
-https://imagej.net/ImageJ2_development_releases</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>GNU GPL 3.0</t>
-  </si>
-  <si>
-    <t>53, 36, 27, 21, 27</t>
-  </si>
-  <si>
-    <t>4, 1, 0, 0, 0, 5, 0, 1, 1, 1, 10, 9</t>
+https://imagej.net/Fiji/Downloads.html#Installation</t>
+  </si>
+  <si>
+    <t>Javadoc</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>FAQ, user forum, Github issue</t>
+  </si>
+  <si>
+    <t>yes
+Travishttps://imagej.net/Fiji_contribution_requirements.html#Continuous_integration:_Travis_CI</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Fiji_contribution_requirements.html</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+API documentation
+Authors
+Bug tracker
+Build file
+Change request
+Developer's Manual
+Executable files
+FAQ
+Installation Guide
+License
+Makefile
+Project Plan
+README
+Release notes
+Source code
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+marching cube algorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/Developing_Fiji</t>
+  </si>
+  <si>
+    <t>yes
+https://imagej.net/IDEs</t>
+  </si>
+  <si>
+    <t>https://wiki.xnat.org/xnat-tools/dicombrowser</t>
+  </si>
+  <si>
+    <t>DicomBrowser</t>
+  </si>
+  <si>
+    <t>An application for inspecting and modifying DICOM metadata in many files at once.</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/xnatdcm/dicombrowser/src/master/</t>
+  </si>
+  <si>
+    <t>Java, Shell</t>
+  </si>
+  <si>
+    <t>4, Windows</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>1.7.5</t>
+  </si>
+  <si>
+    <t>yes
+Authors
+Change request
+License
+README
+Source code
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>BitBucket</t>
+  </si>
+  <si>
+    <t>3DimViewer</t>
+  </si>
+  <si>
+    <t>https://www.3dim-laboratory.cz/en/software/3dimviewer/</t>
+  </si>
+  <si>
+    <t>0, 1, 3, 2, 1</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1381,14 @@
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1583,9 +1708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1723,7 @@
     <col min="6" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1734,7 @@
       <c r="E1" s="3"/>
       <c r="AMK1" s="1"/>
     </row>
-    <row r="2" spans="1:10 1025:1025" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12 1025:1025" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1744,7 @@
       <c r="C2" s="5"/>
       <c r="AMK2" s="7"/>
     </row>
-    <row r="3" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1648,10 +1773,16 @@
         <v>269</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1679,8 +1810,17 @@
       <c r="I4" s="17" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="1:10 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="J4" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1708,8 +1848,14 @@
       <c r="I5" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" spans="1:10 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1737,8 +1883,14 @@
       <c r="I6" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="7" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1766,8 +1918,17 @@
       <c r="I7" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10 1025:1025" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12 1025:1025" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1795,8 +1956,14 @@
       <c r="I8" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="9" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1827,15 +1994,23 @@
         <v>stars: 16, forks:9, watching: 5</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" ref="I9:J9" si="0">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; I123</f>
+        <f t="shared" ref="I9:L9" si="0">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; I123</f>
         <v>stars: 668, forks:264, watching: 92</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>stars: 368, forks:198, watching: 53</v>
       </c>
-    </row>
-    <row r="10" spans="1:10 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: n/a, forks:n/a, watching: n/a</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: n/a, forks:n/a, watching: n/a</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
@@ -1863,8 +2038,14 @@
       <c r="I10" s="10">
         <v>1997</v>
       </c>
-    </row>
-    <row r="11" spans="1:10 1025:1025" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J10" s="10">
+        <v>2011</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12 1025:1025" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -1892,8 +2073,17 @@
       <c r="I11" s="13">
         <v>44059</v>
       </c>
-    </row>
-    <row r="12" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J11" s="13">
+        <v>44057</v>
+      </c>
+      <c r="K11" s="13">
+        <v>44070</v>
+      </c>
+      <c r="L11" s="13">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1921,8 +2111,14 @@
       <c r="I12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1951,10 +2147,13 @@
         <v>273</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1982,8 +2181,14 @@
       <c r="I14" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:10 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -2011,8 +2216,14 @@
       <c r="I15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2040,8 +2251,14 @@
       <c r="I16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -2069,8 +2286,14 @@
       <c r="I17">
         <v>339000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2098,8 +2321,14 @@
       <c r="I18" s="9" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="19" spans="1:9 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J18" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2127,8 +2356,14 @@
       <c r="I19" s="19" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="20" spans="1:9 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="J19" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -2156,14 +2391,20 @@
       <c r="I20" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="21" spans="1:9 1025:1025" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11 1025:1025" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:9 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2171,7 +2412,7 @@
       <c r="C22" s="5"/>
       <c r="AMK22"/>
     </row>
-    <row r="23" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2199,8 +2440,14 @@
       <c r="I23" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:9 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2228,8 +2475,14 @@
       <c r="I24" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="25" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2257,8 +2510,14 @@
       <c r="I25" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -2286,8 +2545,14 @@
       <c r="I26" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -2315,8 +2580,14 @@
       <c r="I27" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2615,14 @@
       <c r="I28" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -2373,8 +2650,14 @@
       <c r="I29" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:9 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -2402,8 +2685,14 @@
       <c r="I30" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:9 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -2431,8 +2720,14 @@
       <c r="I31" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="32" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2460,8 +2755,14 @@
       <c r="I32" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -2489,8 +2790,14 @@
       <c r="I33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2518,8 +2825,14 @@
       <c r="I34" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -2547,8 +2860,14 @@
       <c r="I35" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="36" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -2576,8 +2895,11 @@
       <c r="I36" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -2605,14 +2927,20 @@
       <c r="I37" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:9 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="1">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -2620,7 +2948,7 @@
       <c r="C39" s="5"/>
       <c r="AMK39"/>
     </row>
-    <row r="40" spans="1:9 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -2648,8 +2976,14 @@
       <c r="I40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:9 1025:1025" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11 1025:1025" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -2677,8 +3011,14 @@
       <c r="I41" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="42" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2706,8 +3046,14 @@
       <c r="I42" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="43" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2735,8 +3081,14 @@
       <c r="I43" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44" spans="1:9 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2764,8 +3116,14 @@
       <c r="I44" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="45" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -2793,8 +3151,14 @@
       <c r="I45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -2822,8 +3186,14 @@
       <c r="I46" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -2851,8 +3221,14 @@
       <c r="I47" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="48" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2880,14 +3256,20 @@
       <c r="I48" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:9 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
@@ -2895,7 +3277,7 @@
       <c r="C50" s="5"/>
       <c r="AMK50"/>
     </row>
-    <row r="51" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2923,8 +3305,14 @@
       <c r="I51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -2952,8 +3340,14 @@
       <c r="I52" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -2981,8 +3375,14 @@
       <c r="I53" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -3010,8 +3410,14 @@
       <c r="I54" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:9 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -3039,8 +3445,14 @@
       <c r="I55" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -3051,16 +3463,16 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56">
         <v>9</v>
@@ -3068,14 +3480,20 @@
       <c r="I56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:9 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
@@ -3083,7 +3501,7 @@
       <c r="C58" s="5"/>
       <c r="AMK58"/>
     </row>
-    <row r="59" spans="1:9 1025:1025" ht="66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -3111,8 +3529,14 @@
       <c r="I59" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="60" spans="1:9 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -3140,8 +3564,14 @@
       <c r="I60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3169,14 +3599,20 @@
       <c r="I61" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:9 1025:1025" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="1">
+        <v>9</v>
+      </c>
+      <c r="K61" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11 1025:1025" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:9 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
@@ -3184,7 +3620,7 @@
       <c r="C63" s="5"/>
       <c r="AMK63"/>
     </row>
-    <row r="64" spans="1:9 1025:1025" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -3212,8 +3648,14 @@
       <c r="I64" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -3241,8 +3683,14 @@
       <c r="I65" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="66" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -3270,8 +3718,14 @@
       <c r="I66" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -3299,8 +3753,14 @@
       <c r="I67" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="68" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3328,14 +3788,20 @@
       <c r="I68" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:10 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="1">
+        <v>8</v>
+      </c>
+      <c r="K68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
@@ -3343,7 +3809,7 @@
       <c r="C70" s="5"/>
       <c r="AMK70"/>
     </row>
-    <row r="71" spans="1:10 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
@@ -3371,8 +3837,14 @@
       <c r="I71" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="72" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J71" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -3400,8 +3872,14 @@
       <c r="I72" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="73" spans="1:10 1025:1025" ht="290.39999999999998" x14ac:dyDescent="0.25">
+      <c r="J72" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11 1025:1025" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -3429,8 +3907,14 @@
       <c r="I73" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="74" spans="1:10 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -3458,8 +3942,14 @@
       <c r="I74" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K74" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -3490,8 +3980,11 @@
       <c r="J75" s="20">
         <v>0.63790000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:10 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>100</v>
       </c>
@@ -3511,7 +4004,7 @@
         <v>0.14357147802540177</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" ref="F76:J76" si="1">F118/F116</f>
+        <f t="shared" ref="F76:K76" si="1">F118/F116</f>
         <v>9.0424206808005059E-2</v>
       </c>
       <c r="G76" s="15">
@@ -3530,8 +4023,12 @@
         <f t="shared" si="1"/>
         <v>0.11457425167102586</v>
       </c>
-    </row>
-    <row r="77" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K76" s="15">
+        <f t="shared" si="1"/>
+        <v>0.11864406779661017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -3559,8 +4056,14 @@
       <c r="I77" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -3588,13 +4091,19 @@
       <c r="I78" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="1">
+        <v>7</v>
+      </c>
+      <c r="K78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
@@ -3602,7 +4111,7 @@
       <c r="C80" s="5"/>
       <c r="AMK80"/>
     </row>
-    <row r="81" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -3630,7 +4139,7 @@
         <v>281</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" ref="H81:J81" si="2">H106</f>
+        <f t="shared" ref="H81:K81" si="2">H106</f>
         <v>292</v>
       </c>
       <c r="I81" s="8">
@@ -3641,8 +4150,12 @@
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="82" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K81" s="8">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -3670,8 +4183,14 @@
       <c r="I82" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -3699,14 +4218,20 @@
       <c r="I83" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="1">
+        <v>8</v>
+      </c>
+      <c r="K83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:10 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
@@ -3714,7 +4239,7 @@
       <c r="C85" s="5"/>
       <c r="AMK85"/>
     </row>
-    <row r="86" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -3742,8 +4267,14 @@
       <c r="I86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -3771,8 +4302,14 @@
       <c r="I87" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="88" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -3800,8 +4337,14 @@
       <c r="I88" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -3829,8 +4372,14 @@
       <c r="I89" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -3858,8 +4407,14 @@
       <c r="I90" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -3887,8 +4442,14 @@
       <c r="I91" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="92" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -3916,8 +4477,14 @@
       <c r="I92" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -3945,8 +4512,14 @@
       <c r="I93" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="J93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -3974,13 +4547,19 @@
       <c r="I94" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="1">
+        <v>8</v>
+      </c>
+      <c r="K94" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
@@ -3988,7 +4567,7 @@
       <c r="C96" s="5"/>
       <c r="AMK96"/>
     </row>
-    <row r="97" spans="1:10 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -4016,8 +4595,14 @@
       <c r="I97" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="98" spans="1:10 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="J97" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -4045,8 +4630,14 @@
       <c r="I98" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="99" spans="1:10 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -4072,10 +4663,16 @@
         <v>157</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10 1025:1025" ht="66" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12 1025:1025" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -4101,10 +4698,16 @@
         <v>258</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -4127,19 +4730,25 @@
         <v>7</v>
       </c>
       <c r="H101" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I101" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:10 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J101" s="1">
+        <v>8</v>
+      </c>
+      <c r="K101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
@@ -4147,7 +4756,7 @@
       <c r="C105" s="5"/>
       <c r="AMK105"/>
     </row>
-    <row r="106" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -4178,8 +4787,14 @@
       <c r="J106" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="107" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K106" s="1">
+        <v>62</v>
+      </c>
+      <c r="L106" s="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -4210,8 +4825,14 @@
       <c r="J107" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="108" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K107" s="1">
+        <v>7</v>
+      </c>
+      <c r="L107" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -4242,8 +4863,14 @@
       <c r="J108">
         <v>19168</v>
       </c>
-    </row>
-    <row r="109" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>8907</v>
+      </c>
+      <c r="L108">
+        <v>249097</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -4274,8 +4901,14 @@
       <c r="J109">
         <v>2607708</v>
       </c>
-    </row>
-    <row r="110" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>24070</v>
+      </c>
+      <c r="L109">
+        <v>388699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -4306,8 +4939,14 @@
       <c r="J110">
         <v>2597926</v>
       </c>
-    </row>
-    <row r="111" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>15163</v>
+      </c>
+      <c r="L110">
+        <v>139609</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -4338,8 +4977,14 @@
       <c r="J111" s="1">
         <v>11512</v>
       </c>
-    </row>
-    <row r="112" spans="1:10 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K111" s="1">
+        <v>88</v>
+      </c>
+      <c r="L111" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -4368,10 +5013,16 @@
         <v>278</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -4400,10 +5051,16 @@
         <v>279</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
@@ -4411,7 +5068,7 @@
       <c r="C114" s="5"/>
       <c r="AMK114"/>
     </row>
-    <row r="115" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -4442,8 +5099,14 @@
       <c r="J115">
         <v>136</v>
       </c>
-    </row>
-    <row r="116" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>54</v>
+      </c>
+      <c r="L115">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -4474,8 +5137,14 @@
       <c r="J116">
         <v>13764</v>
       </c>
-    </row>
-    <row r="117" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>7375</v>
+      </c>
+      <c r="L116">
+        <v>240627</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -4506,8 +5175,14 @@
       <c r="J117">
         <v>10833</v>
       </c>
-    </row>
-    <row r="118" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>5505</v>
+      </c>
+      <c r="L117">
+        <v>178065</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -4538,8 +5213,14 @@
       <c r="J118">
         <v>1577</v>
       </c>
-    </row>
-    <row r="119" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>875</v>
+      </c>
+      <c r="L118">
+        <v>33097</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -4570,8 +5251,14 @@
       <c r="J119">
         <v>1354</v>
       </c>
-    </row>
-    <row r="120" spans="1:10 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>995</v>
+      </c>
+      <c r="L119">
+        <v>29465</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
@@ -4579,7 +5266,7 @@
       <c r="C120" s="5"/>
       <c r="AMK120"/>
     </row>
-    <row r="121" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -4610,8 +5297,14 @@
       <c r="J121">
         <v>368</v>
       </c>
-    </row>
-    <row r="122" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K121" t="s">
+        <v>161</v>
+      </c>
+      <c r="L121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -4642,8 +5335,14 @@
       <c r="J122">
         <v>198</v>
       </c>
-    </row>
-    <row r="123" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K122" t="s">
+        <v>161</v>
+      </c>
+      <c r="L122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -4674,8 +5373,14 @@
       <c r="J123">
         <v>53</v>
       </c>
-    </row>
-    <row r="124" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K123" t="s">
+        <v>161</v>
+      </c>
+      <c r="L123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -4706,8 +5411,14 @@
       <c r="J124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K124" t="s">
+        <v>161</v>
+      </c>
+      <c r="L124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -4738,14 +5449,25 @@
       <c r="J125">
         <v>91</v>
       </c>
-    </row>
-    <row r="126" spans="1:10 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K125" t="s">
+        <v>161</v>
+      </c>
+      <c r="L125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:XFD18 A1:XFD17 A19:XFD1048576">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 L18:XFD18 A5:XFD17 A19:XFD98 A100:XFD1048576">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A1))=0</formula>
+      <formula>LEN(TRIM(I99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4762,9 +5484,14 @@
     <hyperlink ref="G18" r:id="rId11" xr:uid="{BFE4F1F5-9287-4E5F-8E2B-7EF518F0947F}"/>
     <hyperlink ref="I4" r:id="rId12" xr:uid="{F8445A3C-B16D-49A7-9899-49EC1E0B9C43}"/>
     <hyperlink ref="I18" r:id="rId13" xr:uid="{94D86D50-43F6-4EE7-A879-9F7FDC1EA080}"/>
+    <hyperlink ref="J4" r:id="rId14" xr:uid="{02DB173B-C3B6-484D-9D54-3668D2F89E2F}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{6D8B5C99-69D5-4C12-AE9E-07C976B8F42A}"/>
+    <hyperlink ref="K4" r:id="rId16" xr:uid="{5B466F09-1A2B-405C-8114-51B8366A36D3}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{4E643224-2541-4CE7-AE34-A95C56B8C76C}"/>
+    <hyperlink ref="L4" r:id="rId18" xr:uid="{6FEADC7C-5350-49E9-A93D-59BAF5657915}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F4837-23DA-4AA1-AEA5-DEA552488CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A52B315-F661-4652-9C09-F28D6F4A4AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="337">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1198,6 +1198,48 @@
   </si>
   <si>
     <t>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>3Dim Laboratory</t>
+  </si>
+  <si>
+    <t>A lightweight 3D viewer of medical DICOM datasets distributed as open source software.</t>
+  </si>
+  <si>
+    <t>funded
+3Dim Laboratory</t>
+  </si>
+  <si>
+    <t>Windows, OS X</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/3dimlab/3dimviewer/src/master/</t>
+  </si>
+  <si>
+    <t>C++, Cmake</t>
+  </si>
+  <si>
+    <t>7, Windows</t>
+  </si>
+  <si>
+    <t>Contact form</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Build file
+Change request
+License
+Makefile
+README
+Source code
+Version Control</t>
   </si>
 </sst>
 </file>
@@ -1708,22 +1750,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L114" sqref="L114"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L126" sqref="L126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="12" width="25.6640625" customWidth="1"/>
+    <col min="6" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1776,7 @@
       <c r="E1" s="3"/>
       <c r="AMK1" s="1"/>
     </row>
-    <row r="2" spans="1:12 1025:1025" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12 1025:1025" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1786,7 @@
       <c r="C2" s="5"/>
       <c r="AMK2" s="7"/>
     </row>
-    <row r="3" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1782,7 +1824,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:12 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1820,7 +1862,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:12 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1854,8 +1896,11 @@
       <c r="K5" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:12 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1889,8 +1934,11 @@
       <c r="K6" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="7" spans="1:12 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12 1025:1025" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12 1025:1025" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1962,8 +2010,11 @@
       <c r="K8" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2010,7 +2061,7 @@
         <v>stars: n/a, forks:n/a, watching: n/a</v>
       </c>
     </row>
-    <row r="10" spans="1:12 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
@@ -2044,8 +2095,11 @@
       <c r="K10" s="10">
         <v>2012</v>
       </c>
-    </row>
-    <row r="11" spans="1:12 1025:1025" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L10" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12 1025:1025" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2137,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="12" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2117,8 +2171,11 @@
       <c r="K12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:12 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2152,8 +2209,11 @@
       <c r="K13" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -2187,8 +2247,11 @@
       <c r="K14" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:12 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -2222,8 +2285,11 @@
       <c r="K15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2257,8 +2323,11 @@
       <c r="K16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -2292,8 +2361,11 @@
       <c r="K17" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2327,8 +2399,11 @@
       <c r="K18" s="17" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="19" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L18" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2362,8 +2437,11 @@
       <c r="K19" s="19" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="1:11 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="L19" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -2397,14 +2475,17 @@
       <c r="K20" s="19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:11 1025:1025" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12 1025:1025" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:11 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2412,7 +2493,7 @@
       <c r="C22" s="5"/>
       <c r="AMK22"/>
     </row>
-    <row r="23" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2446,8 +2527,11 @@
       <c r="K23" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="24" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2481,8 +2565,11 @@
       <c r="K24" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2516,8 +2603,11 @@
       <c r="K25" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -2551,8 +2641,11 @@
       <c r="K26" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -2586,8 +2679,11 @@
       <c r="K27" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -2621,8 +2717,11 @@
       <c r="K28" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="29" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L28" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -2656,8 +2755,11 @@
       <c r="K29" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -2691,8 +2793,11 @@
       <c r="K30" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:11 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -2726,8 +2831,11 @@
       <c r="K31" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="32" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="K32" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L32" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -2796,8 +2907,11 @@
       <c r="K33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2831,8 +2945,11 @@
       <c r="K34" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -2866,8 +2983,11 @@
       <c r="K35" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -2898,8 +3018,14 @@
       <c r="J36" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="K36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -2933,14 +3059,17 @@
       <c r="K37" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -2948,7 +3077,7 @@
       <c r="C39" s="5"/>
       <c r="AMK39"/>
     </row>
-    <row r="40" spans="1:11 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -2982,8 +3111,11 @@
       <c r="K40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:11 1025:1025" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="L40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12 1025:1025" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -3017,8 +3149,11 @@
       <c r="K41" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="42" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3052,8 +3187,11 @@
       <c r="K42" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="43" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3087,8 +3225,11 @@
       <c r="K43" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L43" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3122,8 +3263,11 @@
       <c r="K44" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -3157,8 +3301,11 @@
       <c r="K45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -3192,8 +3339,11 @@
       <c r="K46" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:11 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -3227,8 +3377,11 @@
       <c r="K47" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -3262,14 +3415,17 @@
       <c r="K48" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:11 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
@@ -3277,7 +3433,7 @@
       <c r="C50" s="5"/>
       <c r="AMK50"/>
     </row>
-    <row r="51" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -3311,8 +3467,11 @@
       <c r="K51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -3346,8 +3505,11 @@
       <c r="K52" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -3381,8 +3543,11 @@
       <c r="K53" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -3416,8 +3581,11 @@
       <c r="K54" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -3451,8 +3619,11 @@
       <c r="K55" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -3486,14 +3657,17 @@
       <c r="K56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
@@ -3501,7 +3675,7 @@
       <c r="C58" s="5"/>
       <c r="AMK58"/>
     </row>
-    <row r="59" spans="1:11 1025:1025" ht="66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -3535,8 +3709,11 @@
       <c r="K59" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L59" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -3570,8 +3747,11 @@
       <c r="K60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3605,14 +3785,17 @@
       <c r="K61" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:11 1025:1025" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12 1025:1025" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
@@ -3620,7 +3803,7 @@
       <c r="C63" s="5"/>
       <c r="AMK63"/>
     </row>
-    <row r="64" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -3654,8 +3837,11 @@
       <c r="K64" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -3689,8 +3875,11 @@
       <c r="K65" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="66" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L65" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -3724,8 +3913,11 @@
       <c r="K66" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -3759,8 +3951,11 @@
       <c r="K67" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="68" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L67" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3794,14 +3989,17 @@
       <c r="K68" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:11 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
@@ -3809,7 +4007,7 @@
       <c r="C70" s="5"/>
       <c r="AMK70"/>
     </row>
-    <row r="71" spans="1:11 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
@@ -3843,8 +4041,11 @@
       <c r="K71" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="72" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L71" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -3878,8 +4079,11 @@
       <c r="K72" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:11 1025:1025" ht="290.39999999999998" x14ac:dyDescent="0.25">
+      <c r="L72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12 1025:1025" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -3913,8 +4117,11 @@
       <c r="K73" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="74" spans="1:11 1025:1025" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L73" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -3948,8 +4155,11 @@
       <c r="K74" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="75" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -3983,8 +4193,11 @@
       <c r="K75" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" spans="1:11 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="20">
+        <v>0.30769999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>100</v>
       </c>
@@ -4004,7 +4217,7 @@
         <v>0.14357147802540177</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" ref="F76:K76" si="1">F118/F116</f>
+        <f t="shared" ref="F76:L76" si="1">F118/F116</f>
         <v>9.0424206808005059E-2</v>
       </c>
       <c r="G76" s="15">
@@ -4027,8 +4240,12 @@
         <f t="shared" si="1"/>
         <v>0.11864406779661017</v>
       </c>
-    </row>
-    <row r="77" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L76" s="15">
+        <f t="shared" si="1"/>
+        <v>0.13754483079621158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -4062,8 +4279,11 @@
       <c r="K77" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="78" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L77" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -4097,13 +4317,16 @@
       <c r="K78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
@@ -4111,7 +4334,7 @@
       <c r="C80" s="5"/>
       <c r="AMK80"/>
     </row>
-    <row r="81" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -4139,7 +4362,7 @@
         <v>281</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" ref="H81:K81" si="2">H106</f>
+        <f t="shared" ref="H81:L81" si="2">H106</f>
         <v>292</v>
       </c>
       <c r="I81" s="8">
@@ -4154,8 +4377,12 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="82" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L81" s="8">
+        <f t="shared" si="2"/>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -4189,8 +4416,11 @@
       <c r="K82" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L82" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -4224,14 +4454,17 @@
       <c r="K83" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:11 1025:1025" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
@@ -4239,7 +4472,7 @@
       <c r="C85" s="5"/>
       <c r="AMK85"/>
     </row>
-    <row r="86" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -4273,8 +4506,11 @@
       <c r="K86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -4308,8 +4544,11 @@
       <c r="K87" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L87" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -4343,8 +4582,11 @@
       <c r="K88" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L88" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -4378,8 +4620,11 @@
       <c r="K89" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:11 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -4413,8 +4658,11 @@
       <c r="K90" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="1:11 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -4448,8 +4696,11 @@
       <c r="K91" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="92" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L91" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -4483,8 +4734,11 @@
       <c r="K92" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L92" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -4518,8 +4772,11 @@
       <c r="K93" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:11 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -4553,13 +4810,16 @@
       <c r="K94" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:11 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L94" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:11 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
@@ -4567,7 +4827,7 @@
       <c r="C96" s="5"/>
       <c r="AMK96"/>
     </row>
-    <row r="97" spans="1:12 1025:1025" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -4601,8 +4861,11 @@
       <c r="K97" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="98" spans="1:12 1025:1025" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="L97" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -4636,8 +4899,11 @@
       <c r="K98" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:12 1025:1025" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="L98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -4671,8 +4937,11 @@
       <c r="K99" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="100" spans="1:12 1025:1025" ht="66" x14ac:dyDescent="0.25">
+      <c r="L99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -4706,8 +4975,11 @@
       <c r="K100" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="101" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+      <c r="L100" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -4741,14 +5013,17 @@
       <c r="K101" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:12 1025:1025" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
@@ -4756,7 +5031,7 @@
       <c r="C105" s="5"/>
       <c r="AMK105"/>
     </row>
-    <row r="106" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -4794,7 +5069,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="107" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -4832,7 +5107,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -4870,7 +5145,7 @@
         <v>249097</v>
       </c>
     </row>
-    <row r="109" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -4908,7 +5183,7 @@
         <v>388699</v>
       </c>
     </row>
-    <row r="110" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -4946,7 +5221,7 @@
         <v>139609</v>
       </c>
     </row>
-    <row r="111" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -4984,7 +5259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:12 1025:1025" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -5022,7 +5297,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:12 1025:1025" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -5060,7 +5335,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
@@ -5068,7 +5343,7 @@
       <c r="C114" s="5"/>
       <c r="AMK114"/>
     </row>
-    <row r="115" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -5106,7 +5381,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="116" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -5144,7 +5419,7 @@
         <v>240627</v>
       </c>
     </row>
-    <row r="117" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -5182,7 +5457,7 @@
         <v>178065</v>
       </c>
     </row>
-    <row r="118" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -5220,7 +5495,7 @@
         <v>33097</v>
       </c>
     </row>
-    <row r="119" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -5258,7 +5533,7 @@
         <v>29465</v>
       </c>
     </row>
-    <row r="120" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
@@ -5266,7 +5541,7 @@
       <c r="C120" s="5"/>
       <c r="AMK120"/>
     </row>
-    <row r="121" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -5304,7 +5579,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -5342,7 +5617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -5380,7 +5655,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -5418,7 +5693,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -5456,11 +5731,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:12 1025:1025" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="G126" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 L18:XFD18 A5:XFD17 A19:XFD98 A100:XFD1048576">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 M18:XFD18 A100:XFD1048576 A5:XFD17 A19:XFD98">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -5489,9 +5764,10 @@
     <hyperlink ref="K4" r:id="rId16" xr:uid="{5B466F09-1A2B-405C-8114-51B8366A36D3}"/>
     <hyperlink ref="K18" r:id="rId17" xr:uid="{4E643224-2541-4CE7-AE34-A95C56B8C76C}"/>
     <hyperlink ref="L4" r:id="rId18" xr:uid="{6FEADC7C-5350-49E9-A93D-59BAF5657915}"/>
+    <hyperlink ref="L18" r:id="rId19" xr:uid="{666374D3-A46C-4637-9918-5E6D48916E69}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A52B315-F661-4652-9C09-F28D6F4A4AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000F233F-9C13-4BB8-944D-8C0A9F7DC53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="379">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1239,6 +1234,182 @@
 Makefile
 README
 Source code
+Version Control</t>
+  </si>
+  <si>
+    <t>https://horosproject.org/</t>
+  </si>
+  <si>
+    <t>Horos</t>
+  </si>
+  <si>
+    <t>A free, open source medical image viewer.</t>
+  </si>
+  <si>
+    <t>Purview
+Radiology Café
+Kanteron
+Innolitics
+iCat Solutions Ltd</t>
+  </si>
+  <si>
+    <t>https://github.com/horosproject/horos</t>
+  </si>
+  <si>
+    <t>154, 79, 267, 25, 26</t>
+  </si>
+  <si>
+    <t>9, 0, 7, 1, 8, 14, 3, 0, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GNU LGPL 3.0</t>
+  </si>
+  <si>
+    <t>OS X</t>
+  </si>
+  <si>
+    <t>C++, Objective-C, C, Objective-C++</t>
+  </si>
+  <si>
+    <t>3.3.6</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Build file
+Change request
+FAQ
+License
+Makefile
+README
+Release notes
+Source code
+Test cases 
+Tutorials
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+MSRG Algorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/horosproject/horos/releases</t>
+  </si>
+  <si>
+    <t>https://www.osirix-viewer.com/</t>
+  </si>
+  <si>
+    <t>OsiriX Lite</t>
+  </si>
+  <si>
+    <t>Pixmeo SARL</t>
+  </si>
+  <si>
+    <t>https://github.com/pixmeo/osirix</t>
+  </si>
+  <si>
+    <t>4, 3, 7, 1, 0</t>
+  </si>
+  <si>
+    <t>0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/pixmeo/osirix/releases</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Change request
+Executable files
+FAQ
+Installation Guide
+README
+Release notes
+Source code
+Test cases 
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>dwv</t>
+  </si>
+  <si>
+    <t>https://ivmartel.github.io/dwv/</t>
+  </si>
+  <si>
+    <t>An open source zero footprint medical image viewer.</t>
+  </si>
+  <si>
+    <t>"With high performance and an intuitive interactive user interface, OsiriX is the most widely used DICOM viewer in the world."</t>
+  </si>
+  <si>
+    <t>https://github.com/ivmartel/dwv</t>
+  </si>
+  <si>
+    <t>323, 331, 282, 102, 135</t>
+  </si>
+  <si>
+    <t>0, 6, 15, 21, 54, 14, 37, 8, 0, 1, 0, 0</t>
+  </si>
+  <si>
+    <t>All platforms with a browser supporting Javascript and HTML5</t>
+  </si>
+  <si>
+    <t>JavaScript, Java, HTML</t>
+  </si>
+  <si>
+    <t>unavail
+no need to uninstall, can just delete the whole folder</t>
+  </si>
+  <si>
+    <t>2, OS X</t>
+  </si>
+  <si>
+    <t>8, OS X</t>
+  </si>
+  <si>
+    <t>automated testing
+api doc</t>
+  </si>
+  <si>
+    <t>yes
+Travis</t>
+  </si>
+  <si>
+    <t>no
+it can open a bronken dcm file and display blank images</t>
+  </si>
+  <si>
+    <t>0.27.0</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/ivmartel/dwv/releases</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/ivmartel/dwv/blob/45373c257873d4bd43463513f0fff75701e3ea00/src/dicom/dictionary.js</t>
+  </si>
+  <si>
+    <t>yes
+API documentation
+Bug tracker
+Build file
+Change request
+Installation Guide
+License
+Makefile
+README
+Release notes
+Source code
+Test cases 
+Tutorials
 Version Control</t>
   </si>
 </sst>
@@ -1423,7 +1594,14 @@
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1750,9 +1928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L126" sqref="L126"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1763,9 +1941,12 @@
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1957,7 @@
       <c r="E1" s="3"/>
       <c r="AMK1" s="1"/>
     </row>
-    <row r="2" spans="1:12 1025:1025" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15 1025:1025" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1786,7 +1967,7 @@
       <c r="C2" s="5"/>
       <c r="AMK2" s="7"/>
     </row>
-    <row r="3" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1823,8 +2004,17 @@
       <c r="L3" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="M3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1861,8 +2051,17 @@
       <c r="L4" s="17" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="5" spans="1:12 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="M4" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1899,8 +2098,17 @@
       <c r="L5" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="6" spans="1:12 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="M5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1937,8 +2145,17 @@
       <c r="L6" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="7" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="M6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1975,8 +2192,17 @@
       <c r="L7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12 1025:1025" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="M7" s="1">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1">
+        <v>9</v>
+      </c>
+      <c r="O7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15 1025:1025" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2013,8 +2239,17 @@
       <c r="L8" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="9" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2033,19 +2268,19 @@
         <v>161</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <f t="shared" ref="F9:O9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
         <v>stars: 255, forks:152, watching: 48</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>"stars: " &amp; G121 &amp; ", forks:" &amp; G122 &amp; ", watching: " &amp; G123</f>
+        <f t="shared" si="0"/>
         <v>stars: 29, forks:1, watching: 8</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; H123</f>
+        <f t="shared" si="0"/>
         <v>stars: 16, forks:9, watching: 5</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" ref="I9:L9" si="0">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; I123</f>
+        <f t="shared" si="0"/>
         <v>stars: 668, forks:264, watching: 92</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -2060,8 +2295,20 @@
         <f t="shared" si="0"/>
         <v>stars: n/a, forks:n/a, watching: n/a</v>
       </c>
-    </row>
-    <row r="10" spans="1:12 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 271, forks:108, watching: 58</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 272, forks:193, watching: 72</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 1100, forks:452, watching: 114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
@@ -2098,8 +2345,17 @@
       <c r="L10" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:12 1025:1025" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2004</v>
+      </c>
+      <c r="O10" s="10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15 1025:1025" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2136,8 +2392,17 @@
       <c r="L11" s="13">
         <v>43893</v>
       </c>
-    </row>
-    <row r="12" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M11" s="13">
+        <v>43924</v>
+      </c>
+      <c r="N11" s="13">
+        <v>43775</v>
+      </c>
+      <c r="O11" s="13">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2174,8 +2439,17 @@
       <c r="L12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="M12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2212,8 +2486,17 @@
       <c r="L13" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="14" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M13" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -2250,8 +2533,17 @@
       <c r="L14" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="15" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="M14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -2288,8 +2580,17 @@
       <c r="L15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2326,8 +2627,17 @@
       <c r="L16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -2364,8 +2674,17 @@
       <c r="L17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N17" s="23">
+        <v>19800</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2402,8 +2721,17 @@
       <c r="L18" s="17" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="19" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="M18" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2440,8 +2768,17 @@
       <c r="L19" s="19" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="20" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="M19" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -2478,14 +2815,23 @@
       <c r="L20" s="19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:12 1025:1025" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15 1025:1025" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:12 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2493,7 +2839,7 @@
       <c r="C22" s="5"/>
       <c r="AMK22"/>
     </row>
-    <row r="23" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2530,8 +2876,17 @@
       <c r="L23" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="24" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2568,8 +2923,17 @@
       <c r="L24" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2606,8 +2970,17 @@
       <c r="L25" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -2644,8 +3017,17 @@
       <c r="L26" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -2682,8 +3064,17 @@
       <c r="L27" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -2720,8 +3111,17 @@
       <c r="L28" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="29" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -2758,8 +3158,17 @@
       <c r="L29" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="M29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -2796,8 +3205,17 @@
       <c r="L30" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:12 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -2834,8 +3252,17 @@
       <c r="L31" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="32" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M31" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2872,8 +3299,17 @@
       <c r="L32" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>346</v>
+      </c>
+      <c r="N32" t="s">
+        <v>346</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -2910,8 +3346,17 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2948,8 +3393,17 @@
       <c r="L34" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -2986,8 +3440,17 @@
       <c r="L35" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,8 +3487,17 @@
       <c r="L36" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -3062,14 +3534,23 @@
       <c r="L37" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="1">
+        <v>7</v>
+      </c>
+      <c r="N37" s="1">
+        <v>7</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -3077,7 +3558,7 @@
       <c r="C39" s="5"/>
       <c r="AMK39"/>
     </row>
-    <row r="40" spans="1:12 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -3114,8 +3595,17 @@
       <c r="L40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:12 1025:1025" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="M40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15 1025:1025" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -3152,8 +3642,17 @@
       <c r="L41" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3190,8 +3689,17 @@
       <c r="L42" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="43" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3228,8 +3736,17 @@
       <c r="L43" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="M43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3266,8 +3783,17 @@
       <c r="L44" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -3304,8 +3830,17 @@
       <c r="L45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -3342,8 +3877,17 @@
       <c r="L46" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="47" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="M46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -3380,8 +3924,17 @@
       <c r="L47" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -3410,7 +3963,7 @@
         <v>7</v>
       </c>
       <c r="J48" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" s="1">
         <v>5</v>
@@ -3418,14 +3971,23 @@
       <c r="L48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="1">
+        <v>5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>6</v>
+      </c>
+      <c r="O48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
@@ -3433,7 +3995,7 @@
       <c r="C50" s="5"/>
       <c r="AMK50"/>
     </row>
-    <row r="51" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -3470,8 +4032,17 @@
       <c r="L51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -3508,8 +4079,17 @@
       <c r="L52" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -3546,8 +4126,17 @@
       <c r="L53" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -3584,8 +4173,17 @@
       <c r="L54" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -3622,8 +4220,17 @@
       <c r="L55" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -3660,14 +4267,23 @@
       <c r="L56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>7</v>
+      </c>
+      <c r="N56">
+        <v>7</v>
+      </c>
+      <c r="O56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
@@ -3675,7 +4291,7 @@
       <c r="C58" s="5"/>
       <c r="AMK58"/>
     </row>
-    <row r="59" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -3712,8 +4328,17 @@
       <c r="L59" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -3750,8 +4375,17 @@
       <c r="L60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3771,7 +4405,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="1">
         <v>9</v>
@@ -3788,14 +4422,23 @@
       <c r="L61" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:12 1025:1025" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M61" s="1">
+        <v>9</v>
+      </c>
+      <c r="N61" s="1">
+        <v>9</v>
+      </c>
+      <c r="O61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15 1025:1025" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
@@ -3803,7 +4446,7 @@
       <c r="C63" s="5"/>
       <c r="AMK63"/>
     </row>
-    <row r="64" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -3840,8 +4483,17 @@
       <c r="L64" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -3878,8 +4530,17 @@
       <c r="L65" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="66" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -3916,8 +4577,17 @@
       <c r="L66" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -3954,8 +4624,17 @@
       <c r="L67" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="68" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M67" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3992,14 +4671,23 @@
       <c r="L68" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:12 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M68" s="1">
+        <v>6</v>
+      </c>
+      <c r="N68" s="1">
+        <v>7</v>
+      </c>
+      <c r="O68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
@@ -4007,7 +4695,7 @@
       <c r="C70" s="5"/>
       <c r="AMK70"/>
     </row>
-    <row r="71" spans="1:12 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
@@ -4044,8 +4732,17 @@
       <c r="L71" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="72" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="M71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N71">
+        <v>5.8</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -4082,8 +4779,17 @@
       <c r="L72" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:12 1025:1025" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="M72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15 1025:1025" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -4120,8 +4826,17 @@
       <c r="L73" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="74" spans="1:12 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="M73" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -4158,8 +4873,17 @@
       <c r="L74" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="75" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -4196,8 +4920,17 @@
       <c r="L75" s="20">
         <v>0.30769999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:12 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="20">
+        <v>0.3296</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O75" s="20">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>100</v>
       </c>
@@ -4217,7 +4950,7 @@
         <v>0.14357147802540177</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" ref="F76:L76" si="1">F118/F116</f>
+        <f t="shared" ref="F76:O76" si="1">F118/F116</f>
         <v>9.0424206808005059E-2</v>
       </c>
       <c r="G76" s="15">
@@ -4244,8 +4977,20 @@
         <f t="shared" si="1"/>
         <v>0.13754483079621158</v>
       </c>
-    </row>
-    <row r="77" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M76" s="15">
+        <f t="shared" si="1"/>
+        <v>0.25902579298977751</v>
+      </c>
+      <c r="N76" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24160018327081126</v>
+      </c>
+      <c r="O76" s="15">
+        <f t="shared" si="1"/>
+        <v>0.26228216993206654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -4282,8 +5027,17 @@
       <c r="L77" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="78" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -4320,13 +5074,22 @@
       <c r="L78" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M78" s="1">
+        <v>6</v>
+      </c>
+      <c r="N78" s="1">
+        <v>5</v>
+      </c>
+      <c r="O78" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
@@ -4334,7 +5097,7 @@
       <c r="C80" s="5"/>
       <c r="AMK80"/>
     </row>
-    <row r="81" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -4362,27 +5125,39 @@
         <v>281</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" ref="H81:L81" si="2">H106</f>
+        <f>H106</f>
         <v>292</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="2"/>
+        <f>I106</f>
         <v>45</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="2"/>
+        <f>J106</f>
         <v>193</v>
       </c>
       <c r="K81" s="8">
-        <f t="shared" si="2"/>
+        <f>K106</f>
         <v>62</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" si="2"/>
+        <f>L106</f>
         <v>757</v>
       </c>
-    </row>
-    <row r="82" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M81" s="8">
+        <f>M106</f>
+        <v>2620</v>
+      </c>
+      <c r="N81" s="8">
+        <f>N106</f>
+        <v>2523</v>
+      </c>
+      <c r="O81" s="8">
+        <f>O106</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -4419,8 +5194,17 @@
       <c r="L82" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G83" s="1">
         <v>5</v>
@@ -4457,14 +5241,23 @@
       <c r="L83" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M83" s="1">
+        <v>6</v>
+      </c>
+      <c r="N83" s="1">
+        <v>6</v>
+      </c>
+      <c r="O83" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:12 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
@@ -4472,7 +5265,7 @@
       <c r="C85" s="5"/>
       <c r="AMK85"/>
     </row>
-    <row r="86" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -4509,8 +5302,17 @@
       <c r="L86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -4547,8 +5349,17 @@
       <c r="L87" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -4585,8 +5396,17 @@
       <c r="L88" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -4623,8 +5443,17 @@
       <c r="L89" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -4661,8 +5490,17 @@
       <c r="L90" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -4699,8 +5537,17 @@
       <c r="L91" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="92" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M91" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -4737,8 +5584,17 @@
       <c r="L92" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -4775,8 +5631,17 @@
       <c r="L93" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -4813,13 +5678,22 @@
       <c r="L94" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="1">
+        <v>8</v>
+      </c>
+      <c r="N94" s="1">
+        <v>8</v>
+      </c>
+      <c r="O94" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
@@ -4827,7 +5701,7 @@
       <c r="C96" s="5"/>
       <c r="AMK96"/>
     </row>
-    <row r="97" spans="1:12 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -4864,8 +5738,17 @@
       <c r="L97" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="98" spans="1:12 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="M97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -4902,8 +5785,17 @@
       <c r="L98" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:12 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="M98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -4940,8 +5832,17 @@
       <c r="L99" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="100" spans="1:12 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="M99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -4978,8 +5879,17 @@
       <c r="L100" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="101" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M100" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -5016,14 +5926,23 @@
       <c r="L101" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:12 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="1">
+        <v>5</v>
+      </c>
+      <c r="N101" s="1">
+        <v>5</v>
+      </c>
+      <c r="O101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
@@ -5031,7 +5950,7 @@
       <c r="C105" s="5"/>
       <c r="AMK105"/>
     </row>
-    <row r="106" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -5068,8 +5987,17 @@
       <c r="L106" s="1">
         <v>757</v>
       </c>
-    </row>
-    <row r="107" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M106" s="1">
+        <v>2620</v>
+      </c>
+      <c r="N106" s="1">
+        <v>2523</v>
+      </c>
+      <c r="O106" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -5106,8 +6034,17 @@
       <c r="L107" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="108" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M107" s="1">
+        <v>360</v>
+      </c>
+      <c r="N107" s="1">
+        <v>406</v>
+      </c>
+      <c r="O107" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -5144,8 +6081,17 @@
       <c r="L108">
         <v>249097</v>
       </c>
-    </row>
-    <row r="109" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <v>1125172</v>
+      </c>
+      <c r="N108">
+        <v>1105644</v>
+      </c>
+      <c r="O108">
+        <v>75128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -5182,8 +6128,17 @@
       <c r="L109">
         <v>388699</v>
       </c>
-    </row>
-    <row r="110" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>5040890</v>
+      </c>
+      <c r="N109">
+        <v>3892029</v>
+      </c>
+      <c r="O109">
+        <v>348223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -5220,8 +6175,17 @@
       <c r="L110">
         <v>139609</v>
       </c>
-    </row>
-    <row r="111" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>3914165</v>
+      </c>
+      <c r="N110">
+        <v>2784741</v>
+      </c>
+      <c r="O110">
+        <v>273273</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -5258,8 +6222,17 @@
       <c r="L111" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="112" spans="1:12 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M111" s="1">
+        <v>11411</v>
+      </c>
+      <c r="N111" s="1">
+        <v>10754</v>
+      </c>
+      <c r="O111" s="1">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -5296,8 +6269,17 @@
       <c r="L112" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="113" spans="1:12 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -5334,8 +6316,17 @@
       <c r="L113" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="114" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
@@ -5343,7 +6334,7 @@
       <c r="C114" s="5"/>
       <c r="AMK114"/>
     </row>
-    <row r="115" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -5380,8 +6371,17 @@
       <c r="L115">
         <v>730</v>
       </c>
-    </row>
-    <row r="116" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <v>2346</v>
+      </c>
+      <c r="N115">
+        <v>2270</v>
+      </c>
+      <c r="O115">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -5418,8 +6418,17 @@
       <c r="L116">
         <v>240627</v>
       </c>
-    </row>
-    <row r="117" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <v>912496</v>
+      </c>
+      <c r="N116">
+        <v>873025</v>
+      </c>
+      <c r="O116">
+        <v>71099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -5456,8 +6465,17 @@
       <c r="L117">
         <v>178065</v>
       </c>
-    </row>
-    <row r="118" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>561617</v>
+      </c>
+      <c r="N117">
+        <v>544304</v>
+      </c>
+      <c r="O117">
+        <v>47815</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -5494,8 +6512,17 @@
       <c r="L118">
         <v>33097</v>
       </c>
-    </row>
-    <row r="119" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>236360</v>
+      </c>
+      <c r="N118">
+        <v>210923</v>
+      </c>
+      <c r="O118">
+        <v>18648</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -5532,8 +6559,17 @@
       <c r="L119">
         <v>29465</v>
       </c>
-    </row>
-    <row r="120" spans="1:12 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>114519</v>
+      </c>
+      <c r="N119">
+        <v>117798</v>
+      </c>
+      <c r="O119">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
@@ -5541,7 +6577,7 @@
       <c r="C120" s="5"/>
       <c r="AMK120"/>
     </row>
-    <row r="121" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -5578,8 +6614,17 @@
       <c r="L121" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="122" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <v>271</v>
+      </c>
+      <c r="N121">
+        <v>272</v>
+      </c>
+      <c r="O121">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -5616,8 +6661,17 @@
       <c r="L122" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="123" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <v>108</v>
+      </c>
+      <c r="N122">
+        <v>193</v>
+      </c>
+      <c r="O122">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -5654,8 +6708,17 @@
       <c r="L123" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="124" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <v>58</v>
+      </c>
+      <c r="N123">
+        <v>72</v>
+      </c>
+      <c r="O123">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -5692,8 +6755,17 @@
       <c r="L124" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="125" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <v>6</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -5730,19 +6802,36 @@
       <c r="L125" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="126" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>128</v>
+      </c>
+      <c r="N125">
+        <v>53</v>
+      </c>
+      <c r="O125">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
       <c r="G126" s="1"/>
+      <c r="M126" t="s">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 M18:XFD18 A100:XFD1048576 A5:XFD17 A19:XFD98">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 M18:XFD18 A100:XFD1048576 A14:L16 A5:XFD13 N14:XFD16 A17:XFD17 A19:XFD98">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(I99))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M16">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(I99))=0</formula>
+      <formula>LEN(TRIM(M14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5765,9 +6854,15 @@
     <hyperlink ref="K18" r:id="rId17" xr:uid="{4E643224-2541-4CE7-AE34-A95C56B8C76C}"/>
     <hyperlink ref="L4" r:id="rId18" xr:uid="{6FEADC7C-5350-49E9-A93D-59BAF5657915}"/>
     <hyperlink ref="L18" r:id="rId19" xr:uid="{666374D3-A46C-4637-9918-5E6D48916E69}"/>
+    <hyperlink ref="M4" r:id="rId20" xr:uid="{CF0E75F1-E91C-4BE1-9A2B-8BFBDABC1A64}"/>
+    <hyperlink ref="M18" r:id="rId21" xr:uid="{10108688-6EFE-4683-B593-B2609B60ABD8}"/>
+    <hyperlink ref="N4" r:id="rId22" xr:uid="{C2AC1C2B-4019-4F65-9535-5F76D171845D}"/>
+    <hyperlink ref="N18" r:id="rId23" xr:uid="{5DD8675E-AD7D-4A84-95FD-E49D4AE49759}"/>
+    <hyperlink ref="O4" r:id="rId24" xr:uid="{CD14D2D3-087E-4BB9-B485-4D0BDAEC9896}"/>
+    <hyperlink ref="O18" r:id="rId25" xr:uid="{4F45E1BA-E2E4-435C-8483-AFCF6C87B379}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000F233F-9C13-4BB8-944D-8C0A9F7DC53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92FAC5D-FFED-4E85-8206-41BF25D3AB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="442">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1411,6 +1411,259 @@
 Test cases 
 Tutorials
 Version Control</t>
+  </si>
+  <si>
+    <t>Use "npm test" locally doesn't work as expected.</t>
+  </si>
+  <si>
+    <t>183, 23, 52, 33, 98</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 11, 10, 9, 34, 23, 8, 3, 0, 0</t>
+  </si>
+  <si>
+    <t>https://github.com/nci/drishti</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>National Computational Infrastructure's VizLab</t>
+  </si>
+  <si>
+    <t>The central idea of Drishti is that scientists can use it to explore and present volumetric datasets without extensive training.</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/nci/drishti/releases</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>C++, Objective-C, C</t>
+  </si>
+  <si>
+    <t>yes
+not during initial tutorial, but during testing the robustness</t>
+  </si>
+  <si>
+    <t>no
+it can detect that the file isn't correct, but the software just quit after the error message</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Build file
+Change request
+License
+Makefile
+README
+Release notes
+Source code
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/nci/drishti/blob/master/tools/import/plugins/tiff/libtiff/tiffconf.h.vc</t>
+  </si>
+  <si>
+    <t>https://bioimagesuiteweb.github.io/webapp/</t>
+  </si>
+  <si>
+    <t>BioImage Suite Web</t>
+  </si>
+  <si>
+    <t>A progressive web application which can download itself into the cache of your Browser for offline use.</t>
+  </si>
+  <si>
+    <t>https://github.com/bioimagesuiteweb/bisweb</t>
+  </si>
+  <si>
+    <t>1630, 1397, 331</t>
+  </si>
+  <si>
+    <t>15, 11, 67, 34, 1, 134, 19, 8, 22, 33, 12, 1</t>
+  </si>
+  <si>
+    <t>from the NIH Brain Initiative under grant R24 MH114805</t>
+  </si>
+  <si>
+    <t>Dept. of Radiology and Biomedical Imaging, Yale School of Medicine
+NIH Brain Initiative</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>JavaScript, C++, Python, MATLAB, CSS, HTML</t>
+  </si>
+  <si>
+    <t>no
+no installation needed, but the web app provide an option to download cache to local for offline usage</t>
+  </si>
+  <si>
+    <t>3, Windows
+for downloading the cache</t>
+  </si>
+  <si>
+    <t>1
+a browser</t>
+  </si>
+  <si>
+    <t>2
+including a browser</t>
+  </si>
+  <si>
+    <t>automated testing
+https://bioimagesuiteweb.github.io/webapp/biswebtest.html</t>
+  </si>
+  <si>
+    <t>Github issue
+Youtube</t>
+  </si>
+  <si>
+    <t>Github issue
+User forum
+Youtube</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+Bug tracker
+Build file
+Change request
+Developer's Manual
+License
+Makefile
+README
+Release notes
+Source code
+Test cases 
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/bioimagesuiteweb/bisweb/blob/master/docs/README.md</t>
+  </si>
+  <si>
+    <t>https://docs.cornerstonejs.org/</t>
+  </si>
+  <si>
+    <t>Cornerstone</t>
+  </si>
+  <si>
+    <t>An open source project with a goal to deliver a complete web based medical imaging platform.</t>
+  </si>
+  <si>
+    <t>10, 125, 111, 11, 2</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0</t>
+  </si>
+  <si>
+    <t>JavaScript, HTML</t>
+  </si>
+  <si>
+    <t>https://github.com/cornerstonejs/cornerstone</t>
+  </si>
+  <si>
+    <t>* this is a toolkit instead of viewer</t>
+  </si>
+  <si>
+    <t>OHIF Viewer</t>
+  </si>
+  <si>
+    <t>https://ohif.org/</t>
+  </si>
+  <si>
+    <t>Open Health Imaging Foundation</t>
+  </si>
+  <si>
+    <t>713, 606, 213, 1497, 281</t>
+  </si>
+  <si>
+    <t>112, 124, 57, 33, 45, 42, 20, 17, 13, 25, 25, 4</t>
+  </si>
+  <si>
+    <t>All platforms with a browser supporting React</t>
+  </si>
+  <si>
+    <t>https://github.com/OHIF/Viewers</t>
+  </si>
+  <si>
+    <t>JavaScript, Stylus, CSS, HTML</t>
+  </si>
+  <si>
+    <t>An open source, web-based, medical imaging viewer.</t>
+  </si>
+  <si>
+    <t>yes
+"yarn run dev"</t>
+  </si>
+  <si>
+    <t>2, Linux</t>
+  </si>
+  <si>
+    <t>Windows, Linux</t>
+  </si>
+  <si>
+    <t>3
+including a browser</t>
+  </si>
+  <si>
+    <t>CircleCI and Netlify</t>
+  </si>
+  <si>
+    <t>n/a
+need further customization to load data</t>
+  </si>
+  <si>
+    <t>Github issue
+User forum
+FAQ</t>
+  </si>
+  <si>
+    <t>2.9.0</t>
+  </si>
+  <si>
+    <t>yes
+https://docs.ohif.org/development/contributing.html</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+API documentation
+Bug tracker
+Build file
+Change request
+Developer's Manual
+FAQ
+Installation Guide
+License
+Makefile
+README
+Release notes
+Source code
+Test cases
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+ROI Generation Algorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/OHIF/Viewers/releases</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1782,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1588,6 +1841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1926,27 +2180,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK126"/>
+  <dimension ref="A1:AMM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.88671875" customWidth="1"/>
+    <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="19" max="19" width="37" customWidth="1"/>
+    <col min="20" max="20" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15 1025:1025" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20 1027:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,9 +2214,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="AMK1" s="1"/>
-    </row>
-    <row r="2" spans="1:15 1025:1025" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="AMM1" s="1"/>
+    </row>
+    <row r="2" spans="1:20 1027:1027" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1965,9 +2224,12 @@
         <v>3</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="AMK2" s="7"/>
-    </row>
-    <row r="3" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="T2" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AMM2" s="7"/>
+    </row>
+    <row r="3" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2013,8 +2275,21 @@
       <c r="O3" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="4" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2060,8 +2335,21 @@
       <c r="O4" s="17" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="5" spans="1:15 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="P4" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20 1027:1027" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2107,8 +2395,21 @@
       <c r="O5" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:15 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="P5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20 1027:1027" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2154,8 +2455,21 @@
       <c r="O6" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="7" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="P6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2201,8 +2515,21 @@
       <c r="O7" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:15 1025:1025" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>13</v>
+      </c>
+      <c r="R7" s="1">
+        <v>76</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20 1027:1027" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2248,8 +2575,21 @@
       <c r="O8" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2268,7 +2608,7 @@
         <v>161</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:O9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <f t="shared" ref="F9:T9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
         <v>stars: 255, forks:152, watching: 48</v>
       </c>
       <c r="G9" s="1" t="str">
@@ -2307,8 +2647,25 @@
         <f t="shared" si="0"/>
         <v>stars: 1100, forks:452, watching: 114</v>
       </c>
-    </row>
-    <row r="10" spans="1:15 1025:1025" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 112, forks:27, watching: 30</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 45, forks:18, watching: 13</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 1300, forks:948, watching: 111</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 1400, forks:456, watching: 155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20 1027:1027" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
@@ -2354,8 +2711,21 @@
       <c r="O10" s="10">
         <v>2012</v>
       </c>
-    </row>
-    <row r="11" spans="1:15 1025:1025" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P10" s="10">
+        <v>2012</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20 1027:1027" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2401,8 +2771,20 @@
       <c r="O11" s="13">
         <v>44075</v>
       </c>
-    </row>
-    <row r="12" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P11" s="13">
+        <v>44048</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>44109</v>
+      </c>
+      <c r="R11" s="13">
+        <v>44111</v>
+      </c>
+      <c r="T11" s="13">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2448,8 +2830,21 @@
       <c r="O12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="P12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2495,8 +2890,21 @@
       <c r="O13" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="14" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -2542,8 +2950,18 @@
       <c r="O14" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="15" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="P14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:20 1027:1027" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -2589,8 +3007,21 @@
       <c r="O15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2636,8 +3067,21 @@
       <c r="O16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -2683,8 +3127,21 @@
       <c r="O17" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2730,8 +3187,21 @@
       <c r="O18" s="17" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="19" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="P18" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="S18" s="17"/>
+      <c r="T18" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2777,8 +3247,21 @@
       <c r="O19" s="19" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="20" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="P19" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20 1027:1027" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -2824,22 +3307,35 @@
       <c r="O20" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:15 1025:1025" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20 1027:1027" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:15 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20 1027:1027" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM22"/>
+    </row>
+    <row r="23" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2885,8 +3381,21 @@
       <c r="O23" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3441,18 @@
       <c r="O24" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2979,8 +3498,18 @@
       <c r="O25" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -3026,8 +3555,18 @@
       <c r="O26" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="27" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -3073,8 +3612,18 @@
       <c r="O27" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3669,18 @@
       <c r="O28" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -3167,8 +3726,18 @@
       <c r="O29" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="P29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -3214,8 +3783,18 @@
       <c r="O30" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:15 1025:1025" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:20 1027:1027" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -3261,8 +3840,18 @@
       <c r="O31" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -3308,8 +3897,18 @@
       <c r="O32" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -3352,11 +3951,21 @@
       <c r="N33" s="1">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="O33" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -3402,8 +4011,18 @@
       <c r="O34" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -3449,8 +4068,18 @@
       <c r="O35" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3496,8 +4125,18 @@
       <c r="O36" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="37" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -3543,22 +4182,32 @@
       <c r="O37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>9</v>
+      </c>
+      <c r="R37" s="1">
+        <v>7</v>
+      </c>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="AMK39"/>
-    </row>
-    <row r="40" spans="1:15 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="AMM39"/>
+    </row>
+    <row r="40" spans="1:19 1027:1027" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -3604,8 +4253,18 @@
       <c r="O40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:15 1025:1025" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="P40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19 1027:1027" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -3651,8 +4310,18 @@
       <c r="O41" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="42" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3698,8 +4367,18 @@
       <c r="O42" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="43" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3745,8 +4424,18 @@
       <c r="O43" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="P43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3792,8 +4481,18 @@
       <c r="O44" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="45" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -3839,8 +4538,18 @@
       <c r="O45" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -3886,8 +4595,18 @@
       <c r="O46" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="P46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19 1027:1027" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -3933,8 +4652,18 @@
       <c r="O47" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="48" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -3980,22 +4709,32 @@
       <c r="O48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:15 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>6</v>
+      </c>
+      <c r="R48" s="1">
+        <v>8</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19 1027:1027" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="AMK50"/>
-    </row>
-    <row r="51" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM50"/>
+    </row>
+    <row r="51" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4041,8 +4780,18 @@
       <c r="O51" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -4088,8 +4837,18 @@
       <c r="O52" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -4135,8 +4894,18 @@
       <c r="O53" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P53" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -4182,8 +4951,18 @@
       <c r="O54" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -4229,8 +5008,18 @@
       <c r="O55" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,22 +5065,31 @@
       <c r="O56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="AMK58"/>
-    </row>
-    <row r="59" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="AMM58"/>
+    </row>
+    <row r="59" spans="1:19 1027:1027" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -4337,8 +5135,18 @@
       <c r="O59" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="60" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +5192,18 @@
       <c r="O60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -4431,22 +5249,35 @@
       <c r="O61" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:15 1025:1025" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>9</v>
+      </c>
+      <c r="R61" s="1">
+        <v>5</v>
+      </c>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19 1027:1027" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="AMK63"/>
-    </row>
-    <row r="64" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM63"/>
+    </row>
+    <row r="64" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -4492,8 +5323,18 @@
       <c r="O64" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -4539,8 +5380,18 @@
       <c r="O65" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="66" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -4586,8 +5437,18 @@
       <c r="O66" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -4633,8 +5494,18 @@
       <c r="O67" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="68" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P67" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4680,22 +5551,32 @@
       <c r="O68" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:15 1025:1025" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P68" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>7</v>
+      </c>
+      <c r="R68" s="1">
+        <v>8</v>
+      </c>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19 1027:1027" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="AMK70"/>
-    </row>
-    <row r="71" spans="1:15 1025:1025" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMM70"/>
+    </row>
+    <row r="71" spans="1:19 1027:1027" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
@@ -4741,8 +5622,18 @@
       <c r="O71" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="72" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>2.7</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -4788,8 +5679,18 @@
       <c r="O72" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:15 1025:1025" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="P72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19 1027:1027" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -4835,8 +5736,18 @@
       <c r="O73" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="74" spans="1:15 1025:1025" ht="51" x14ac:dyDescent="0.2">
+      <c r="P73" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -4882,8 +5793,18 @@
       <c r="O74" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -4929,8 +5850,18 @@
       <c r="O75" s="20">
         <v>0.90600000000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:15 1025:1025" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P75" s="26">
+        <v>0.1915</v>
+      </c>
+      <c r="Q75" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="R75" s="26">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S75" s="26"/>
+    </row>
+    <row r="76" spans="1:19 1027:1027" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>100</v>
       </c>
@@ -4950,7 +5881,7 @@
         <v>0.14357147802540177</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" ref="F76:O76" si="1">F118/F116</f>
+        <f t="shared" ref="F76:P76" si="1">F118/F116</f>
         <v>9.0424206808005059E-2</v>
       </c>
       <c r="G76" s="15">
@@ -4989,8 +5920,21 @@
         <f t="shared" si="1"/>
         <v>0.26228216993206654</v>
       </c>
-    </row>
-    <row r="77" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P76" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3305090882757615E-2</v>
+      </c>
+      <c r="Q76" s="15">
+        <f t="shared" ref="Q76:R76" si="2">Q118/Q116</f>
+        <v>0.14920759530935676</v>
+      </c>
+      <c r="R76" s="15">
+        <f t="shared" si="2"/>
+        <v>8.3088081941000619E-2</v>
+      </c>
+      <c r="S76" s="15"/>
+    </row>
+    <row r="77" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -5036,8 +5980,18 @@
       <c r="O77" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -5083,21 +6037,31 @@
       <c r="O78" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P78" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>7</v>
+      </c>
+      <c r="R78" s="1">
+        <v>8</v>
+      </c>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="AMK80"/>
-    </row>
-    <row r="81" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM80"/>
+    </row>
+    <row r="81" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -5156,8 +6120,21 @@
         <f>O106</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="82" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P81" s="8">
+        <f>P106</f>
+        <v>846</v>
+      </c>
+      <c r="Q81" s="8">
+        <f>Q106</f>
+        <v>1052</v>
+      </c>
+      <c r="R81" s="8">
+        <f>R106</f>
+        <v>1232</v>
+      </c>
+      <c r="S81" s="8"/>
+    </row>
+    <row r="82" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -5203,8 +6180,18 @@
       <c r="O82" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -5250,22 +6237,32 @@
       <c r="O83" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P83" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>7</v>
+      </c>
+      <c r="R83" s="1">
+        <v>8</v>
+      </c>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:15 1025:1025" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19 1027:1027" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="AMK85"/>
-    </row>
-    <row r="86" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM85"/>
+    </row>
+    <row r="86" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -5311,8 +6308,18 @@
       <c r="O86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -5358,8 +6365,18 @@
       <c r="O87" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -5405,8 +6422,18 @@
       <c r="O88" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -5452,8 +6479,18 @@
       <c r="O89" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -5499,8 +6536,18 @@
       <c r="O90" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="P90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19 1027:1027" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -5546,8 +6593,18 @@
       <c r="O91" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="92" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P91" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -5593,8 +6650,18 @@
       <c r="O92" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -5640,8 +6707,18 @@
       <c r="O93" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -5687,21 +6764,31 @@
       <c r="O94" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P94" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>6</v>
+      </c>
+      <c r="R94" s="1">
+        <v>8</v>
+      </c>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="AMK96"/>
-    </row>
-    <row r="97" spans="1:15 1025:1025" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="AMM96"/>
+    </row>
+    <row r="97" spans="1:20 1027:1027" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -5747,8 +6834,18 @@
       <c r="O97" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="98" spans="1:15 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="P97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:20 1027:1027" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -5794,8 +6891,18 @@
       <c r="O98" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:15 1025:1025" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="P98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:20 1027:1027" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -5841,8 +6948,18 @@
       <c r="O99" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="100" spans="1:15 1025:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="P99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:20 1027:1027" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -5888,8 +7005,18 @@
       <c r="O100" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="101" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P100" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -5935,22 +7062,32 @@
       <c r="O101" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:15 1025:1025" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P101" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>5</v>
+      </c>
+      <c r="R101" s="1">
+        <v>6</v>
+      </c>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:20 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="AMK105"/>
-    </row>
-    <row r="106" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM105"/>
+    </row>
+    <row r="106" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -5996,8 +7133,21 @@
       <c r="O106" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="107" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P106" s="1">
+        <v>846</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>1052</v>
+      </c>
+      <c r="R106" s="1">
+        <v>1232</v>
+      </c>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6043,8 +7193,21 @@
       <c r="O107" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="108" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P107" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>415</v>
+      </c>
+      <c r="R107" s="1">
+        <v>170</v>
+      </c>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -6090,8 +7253,20 @@
       <c r="O108">
         <v>75128</v>
       </c>
-    </row>
-    <row r="109" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <v>367744</v>
+      </c>
+      <c r="Q108">
+        <v>251243</v>
+      </c>
+      <c r="R108">
+        <v>113048</v>
+      </c>
+      <c r="T108">
+        <v>38927</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -6137,8 +7312,20 @@
       <c r="O109">
         <v>348223</v>
       </c>
-    </row>
-    <row r="110" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P109">
+        <v>447491</v>
+      </c>
+      <c r="Q109">
+        <v>607381</v>
+      </c>
+      <c r="R109">
+        <v>1138333</v>
+      </c>
+      <c r="T109">
+        <v>134744</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -6184,8 +7371,20 @@
       <c r="O110">
         <v>273273</v>
       </c>
-    </row>
-    <row r="111" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>79754</v>
+      </c>
+      <c r="Q110">
+        <v>363401</v>
+      </c>
+      <c r="R110">
+        <v>1017731</v>
+      </c>
+      <c r="T110">
+        <v>95717</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -6231,8 +7430,21 @@
       <c r="O111" s="1">
         <v>2383</v>
       </c>
-    </row>
-    <row r="112" spans="1:15 1025:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="P111" s="1">
+        <v>699</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>3358</v>
+      </c>
+      <c r="R111" s="1">
+        <v>3524</v>
+      </c>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -6278,8 +7490,21 @@
       <c r="O112" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="113" spans="1:15 1025:1025" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="P112" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -6325,16 +7550,29 @@
       <c r="O113" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="114" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P113" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="AMK114"/>
-    </row>
-    <row r="115" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM114"/>
+    </row>
+    <row r="115" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -6380,8 +7618,20 @@
       <c r="O115">
         <v>188</v>
       </c>
-    </row>
-    <row r="116" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <v>757</v>
+      </c>
+      <c r="Q115">
+        <v>931</v>
+      </c>
+      <c r="R115">
+        <v>1162</v>
+      </c>
+      <c r="T115">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -6427,8 +7677,20 @@
       <c r="O116">
         <v>71099</v>
       </c>
-    </row>
-    <row r="117" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>345225</v>
+      </c>
+      <c r="Q116">
+        <v>203810</v>
+      </c>
+      <c r="R116">
+        <v>86306</v>
+      </c>
+      <c r="T116">
+        <v>30994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -6474,8 +7736,20 @@
       <c r="O117">
         <v>47815</v>
       </c>
-    </row>
-    <row r="118" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P117">
+        <v>268168</v>
+      </c>
+      <c r="Q117">
+        <v>139699</v>
+      </c>
+      <c r="R117">
+        <v>63951</v>
+      </c>
+      <c r="T117">
+        <v>25721</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -6521,8 +7795,20 @@
       <c r="O118">
         <v>18648</v>
       </c>
-    </row>
-    <row r="119" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <v>28759</v>
+      </c>
+      <c r="Q118">
+        <v>30410</v>
+      </c>
+      <c r="R118">
+        <v>7171</v>
+      </c>
+      <c r="T118">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -6568,16 +7854,28 @@
       <c r="O119">
         <v>4636</v>
       </c>
-    </row>
-    <row r="120" spans="1:15 1025:1025" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P119">
+        <v>48298</v>
+      </c>
+      <c r="Q119">
+        <v>33701</v>
+      </c>
+      <c r="R119">
+        <v>15184</v>
+      </c>
+      <c r="T119">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="AMK120"/>
-    </row>
-    <row r="121" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMM120"/>
+    </row>
+    <row r="121" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -6623,8 +7921,20 @@
       <c r="O121">
         <v>1100</v>
       </c>
-    </row>
-    <row r="122" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P121">
+        <v>112</v>
+      </c>
+      <c r="Q121">
+        <v>45</v>
+      </c>
+      <c r="R121">
+        <v>1300</v>
+      </c>
+      <c r="T121">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -6670,8 +7980,20 @@
       <c r="O122">
         <v>452</v>
       </c>
-    </row>
-    <row r="123" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P122">
+        <v>27</v>
+      </c>
+      <c r="Q122">
+        <v>18</v>
+      </c>
+      <c r="R122">
+        <v>948</v>
+      </c>
+      <c r="T122">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -6717,8 +8039,20 @@
       <c r="O123">
         <v>114</v>
       </c>
-    </row>
-    <row r="124" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <v>30</v>
+      </c>
+      <c r="Q123">
+        <v>13</v>
+      </c>
+      <c r="R123">
+        <v>111</v>
+      </c>
+      <c r="T123">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -6764,8 +8098,20 @@
       <c r="O124">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>20</v>
+      </c>
+      <c r="T124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -6811,15 +8157,27 @@
       <c r="O125">
         <v>174</v>
       </c>
-    </row>
-    <row r="126" spans="1:15 1025:1025" x14ac:dyDescent="0.2">
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>110</v>
+      </c>
+      <c r="R125">
+        <v>944</v>
+      </c>
+      <c r="T125">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
       <c r="M126" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 M18:XFD18 A100:XFD1048576 A14:L16 A5:XFD13 N14:XFD16 A17:XFD17 A19:XFD98">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:XFD17 A5:XFD13 N14:XFD16 A19:XFD98">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -6860,9 +8218,15 @@
     <hyperlink ref="N18" r:id="rId23" xr:uid="{5DD8675E-AD7D-4A84-95FD-E49D4AE49759}"/>
     <hyperlink ref="O4" r:id="rId24" xr:uid="{CD14D2D3-087E-4BB9-B485-4D0BDAEC9896}"/>
     <hyperlink ref="O18" r:id="rId25" xr:uid="{4F45E1BA-E2E4-435C-8483-AFCF6C87B379}"/>
+    <hyperlink ref="P4" r:id="rId26" xr:uid="{A93EC3F1-A6C7-4D8A-AE35-5A03973F78CF}"/>
+    <hyperlink ref="P18" r:id="rId27" xr:uid="{DE64FE4F-5191-4D4B-99AA-5E5853B4955B}"/>
+    <hyperlink ref="Q4" r:id="rId28" xr:uid="{D2154319-E769-4F80-BFD5-826CC22A5BC1}"/>
+    <hyperlink ref="Q18" r:id="rId29" xr:uid="{9520AF1F-3BAD-4670-A93C-B66AE904A1DD}"/>
+    <hyperlink ref="T4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
+    <hyperlink ref="T18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92FAC5D-FFED-4E85-8206-41BF25D3AB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA741DA6-473E-4F1E-9853-8F161E895C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="511">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1501,10 +1501,6 @@
     <t>JavaScript, C++, Python, MATLAB, CSS, HTML</t>
   </si>
   <si>
-    <t>no
-no installation needed, but the web app provide an option to download cache to local for offline usage</t>
-  </si>
-  <si>
     <t>3, Windows
 for downloading the cache</t>
   </si>
@@ -1664,6 +1660,308 @@
   <si>
     <t>yes
 https://github.com/OHIF/Viewers/releases</t>
+  </si>
+  <si>
+    <t>https://slicedrop.com/</t>
+  </si>
+  <si>
+    <t>Slice:Drop</t>
+  </si>
+  <si>
+    <t>A web-based, interactive viewer for medical imaging data.
+slicedrop.com</t>
+  </si>
+  <si>
+    <t>Boston Children's Hospital
+University of Massachusetts Boston
+Harvard Medical School</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 4, 1</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>All platforms with a browser supporting WebGL and HTML5 Canvas</t>
+  </si>
+  <si>
+    <t>https://github.com/slicedrop/slicedrop.github.com</t>
+  </si>
+  <si>
+    <t>JavaScript, CSS, HTML</t>
+  </si>
+  <si>
+    <t>yes
+mentioned in the commit messages</t>
+  </si>
+  <si>
+    <t>no
+no installation needed, and there's an online version to use</t>
+  </si>
+  <si>
+    <t>yes
+no installation needed, and there's an online version to use
+but there's an option to build the web app locally</t>
+  </si>
+  <si>
+    <t>no
+no installation needed, and there's an online version to use
+but the web app provide an option to download cache to local for offline usage</t>
+  </si>
+  <si>
+    <t>yes
+listed compatible browers</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+Bug tracker
+Change request
+License
+README
+Source code
+Tutorials
+Version Control</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>http://www.opengatecollaboration.org/</t>
+  </si>
+  <si>
+    <t>http://www.opengatecollaboration.org/Members</t>
+  </si>
+  <si>
+    <t>An advanced opensource software developed by the international OpenGATE collaboration and dedicated to numerical simulations in medical imaging and radiotherapy.</t>
+  </si>
+  <si>
+    <t>387, 337, 288, 342, 157</t>
+  </si>
+  <si>
+    <t>19, 20, 28, 53, 35, 14, 4, 14, 1, 3, 4, 1</t>
+  </si>
+  <si>
+    <t>LGPL-3.0</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenGATE/Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++, C
+</t>
+  </si>
+  <si>
+    <t>Linux, OS X
+but the official VM version vGATE supports all Windows, Linux, OS X</t>
+  </si>
+  <si>
+    <t>yes
+https://opengate.readthedocs.io/en/latest/validating_installation.html</t>
+  </si>
+  <si>
+    <t>Linux, Windows</t>
+  </si>
+  <si>
+    <t>5+ for build from source code
+1 for VM installation</t>
+  </si>
+  <si>
+    <t>Cloudn't go through the build process, because some dependencies cannot be cerrectly installed
+On the other hand, installing it as a VM image worked.</t>
+  </si>
+  <si>
+    <t>It's a good example with many documents but conveying the ideas very poorly</t>
+  </si>
+  <si>
+    <t>3, Windows with VirtualBox</t>
+  </si>
+  <si>
+    <t>yes
+couldn't open macro files
+and lost response for several times</t>
+  </si>
+  <si>
+    <t>n/a
+couldn't test it, it cannot open correct input files anyway</t>
+  </si>
+  <si>
+    <t>Tried 1 hr to figure out how to use it. User docs is poorly organized</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+Authors
+Bug tracker
+Build file
+Change request
+FAQ
+Installation Guide
+License
+Makefile
+README
+Release notes
+Source code
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/OpenGATE/Gate/releases</t>
+  </si>
+  <si>
+    <t>yes
+saito  algorithm</t>
+  </si>
+  <si>
+    <t>Penn Image Computing and Science Laboratory (PICSL) at the University of Pennsylvania
+Scientific Computing and Imaging Institute (SCI) at the University of Utah</t>
+  </si>
+  <si>
+    <t>http://www.itksnap.org/pmwiki/pmwiki.php</t>
+  </si>
+  <si>
+    <t>ITK-SNAP</t>
+  </si>
+  <si>
+    <t>A software application used to segment structures in 3D medical images.</t>
+  </si>
+  <si>
+    <t>102, 91, 77, 24, 9</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 1, 1, 4, 2, 1, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>13
+http://www.itksnap.org/pmwiki/pmwiki.php?n=Main.Credits</t>
+  </si>
+  <si>
+    <t>funded
+NIH grant R01 EB014346</t>
+  </si>
+  <si>
+    <t>GNU GPL V 3</t>
+  </si>
+  <si>
+    <t>https://github.com/pyushkevich/itksnap</t>
+  </si>
+  <si>
+    <t>C++, HTML, Cmake</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/pyushkevich/itksnap/blob/master/ReleaseNotes.md</t>
+  </si>
+  <si>
+    <t>3.8.0</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+Authors
+Bug tracker
+Build file
+Change request
+License
+Makefile
+README
+Release notes
+Source code
+Test cases 
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+Sparse Field Level Set Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.paraview.org/</t>
+  </si>
+  <si>
+    <t>ParaView</t>
+  </si>
+  <si>
+    <t>1516, 2004, 1955, 2137, 1502</t>
+  </si>
+  <si>
+    <t>117, 154, 261, 117, 140, 160, 179, 168, 125, 140, 168, 44</t>
+  </si>
+  <si>
+    <t>An open-source, multi-platform data analysis and visualization application.</t>
+  </si>
+  <si>
+    <t>Kitware Inc.
+Advanced Simulation and Computing (ASC)
+Sandia National Laboratories
+Los Alamos National Lab
+Army Research Laboratory</t>
+  </si>
+  <si>
+    <t>funded
+employees from the above affiliations, and funded by Advanced Simulation and Computing (ASC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++, Python, C, Cmake
+ </t>
+  </si>
+  <si>
+    <t>no
+only explains the basic functions</t>
+  </si>
+  <si>
+    <t>5.8.1</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+Authors
+Bug tracker
+Build file
+Change request
+License
+Makefile
+Project Plan
+README
+Release notes
+Source code
+Test cases 
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>https://gitlab.kitware.com/paraview/paraview
+https://github.com/Kitware/ParaView</t>
+  </si>
+  <si>
+    <t>User forum
+Wiki page
+Gitlab issue
+Github issue</t>
+  </si>
+  <si>
+    <t>Gitlab issue
+Github issue</t>
+  </si>
+  <si>
+    <t>yes
+https://gitlab.kitware.com/paraview/paraview/-/blob/master/CONTRIBUTING.md</t>
+  </si>
+  <si>
+    <t>yes
+vtkUnstructuredGridAlgorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://open.cdash.org/index.php?project=ParaView</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +2080,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1817,9 +2115,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1841,14 +2136,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2180,11 +2492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM126"/>
+  <dimension ref="A1:AMQ126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R125" sqref="R125"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V128" sqref="V128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2201,11 +2513,11 @@
     <col min="16" max="16" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.88671875" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="19" width="37" customWidth="1"/>
-    <col min="20" max="20" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="37" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20 1027:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24 1031:1031" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2214,9 +2526,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="AMM1" s="1"/>
-    </row>
-    <row r="2" spans="1:20 1027:1027" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="AMQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:24 1031:1031" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2224,12 +2536,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="T2" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="AMM2" s="7"/>
-    </row>
-    <row r="3" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+      <c r="T2" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="X2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AMQ2" s="7"/>
+    </row>
+    <row r="3" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2282,14 +2599,25 @@
         <v>394</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="S3" s="1"/>
+        <v>420</v>
+      </c>
+      <c r="S3" t="s">
+        <v>442</v>
+      </c>
       <c r="T3" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2299,57 +2627,69 @@
       <c r="C4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20 1027:1027" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="R4" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24 1031:1031" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2402,14 +2742,26 @@
         <v>400</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20 1027:1027" ht="92.4" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24 1031:1031" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2462,14 +2814,26 @@
         <v>395</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="S6" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="T6" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2524,12 +2888,24 @@
       <c r="R7" s="1">
         <v>76</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
       <c r="T7" s="1">
+        <v>45</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="V7" s="1">
+        <v>100</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:20 1027:1027" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24 1031:1031" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2584,12 +2960,24 @@
       <c r="R8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="T8" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="U8" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2608,7 +2996,7 @@
         <v>161</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:T9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <f t="shared" ref="F9:V9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
         <v>stars: 255, forks:152, watching: 48</v>
       </c>
       <c r="G9" s="1" t="str">
@@ -2659,26 +3047,42 @@
         <f t="shared" si="0"/>
         <v>stars: 1300, forks:948, watching: 111</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 87, forks:46, watching: 19</v>
+      </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>stars: 117, forks:152, watching: 37</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 48, forks:20, watching: 5</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 644, forks:298, watching: 80</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1" t="str">
+        <f>"stars: " &amp; X121 &amp; ", forks:" &amp; X122 &amp; ", watching: " &amp; X123</f>
         <v>stars: 1400, forks:456, watching: 155</v>
       </c>
     </row>
-    <row r="10" spans="1:20 1027:1027" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:24 1031:1031" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="10">
         <v>1998</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>2010</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>2000</v>
       </c>
       <c r="F10" s="10">
@@ -2720,12 +3124,24 @@
       <c r="R10" s="10">
         <v>2015</v>
       </c>
-      <c r="S10" s="10"/>
+      <c r="S10" s="10">
+        <v>2012</v>
+      </c>
       <c r="T10" s="10">
+        <v>2011</v>
+      </c>
+      <c r="U10" s="10">
+        <v>2006</v>
+      </c>
+      <c r="V10" s="10">
+        <v>2002</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10">
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:20 1027:1027" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24 1031:1031" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2780,11 +3196,23 @@
       <c r="R11" s="13">
         <v>44111</v>
       </c>
+      <c r="S11" s="13">
+        <v>43928</v>
+      </c>
       <c r="T11" s="13">
+        <v>44113</v>
+      </c>
+      <c r="U11" s="13">
+        <v>43983</v>
+      </c>
+      <c r="V11" s="13">
+        <v>44116</v>
+      </c>
+      <c r="X11" s="13">
         <v>44104</v>
       </c>
     </row>
-    <row r="12" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2839,12 +3267,24 @@
       <c r="R12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="T12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="U12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2899,12 +3339,24 @@
       <c r="R13" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="T13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -2957,11 +3409,23 @@
         <v>367</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:20 1027:1027" ht="66" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:24 1031:1031" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -3016,12 +3480,24 @@
       <c r="R15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="T15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="U15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3076,12 +3552,24 @@
       <c r="R16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="T16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="U16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -3097,10 +3585,10 @@
       <c r="E17">
         <v>185</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>188</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>484</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -3121,7 +3609,7 @@
       <c r="M17" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="22">
         <v>19800</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -3136,12 +3624,24 @@
       <c r="R17" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="T17" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>7780</v>
+      </c>
+      <c r="V17" s="23">
+        <v>15400</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,57 +3651,69 @@
       <c r="C18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>182</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>215</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>254</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="Q18" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="R18" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="S18" s="17"/>
-      <c r="T18" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="R18" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="W18" s="16"/>
+      <c r="X18" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -3211,57 +3723,69 @@
       <c r="C19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="18" t="s">
         <v>388</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>402</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="S19" s="1"/>
+        <v>427</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="T19" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20 1027:1027" ht="66" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24 1031:1031" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -3274,7 +3798,7 @@
       <c r="D20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>157</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3292,16 +3816,16 @@
       <c r="J20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="N20" s="19" t="s">
+      <c r="K20" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>157</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -3316,26 +3840,38 @@
       <c r="R20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="T20" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:20 1027:1027" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24 1031:1031" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:20 1027:1027" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24 1031:1031" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="AMM22"/>
-    </row>
-    <row r="23" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="AMQ22"/>
+    </row>
+    <row r="23" spans="1:24 1031:1031" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3385,17 +3921,29 @@
         <v>157</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="S23" s="1"/>
+        <v>452</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="T23" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:20 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -3450,9 +3998,21 @@
       <c r="R24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -3507,9 +4067,21 @@
       <c r="R25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="S25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -3564,9 +4136,21 @@
       <c r="R26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -3619,11 +4203,23 @@
         <v>157</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -3678,9 +4274,21 @@
       <c r="R28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -3735,9 +4343,21 @@
       <c r="R29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:20 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="S29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -3790,11 +4410,23 @@
         <v>161</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:20 1027:1027" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:24 1031:1031" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -3844,14 +4476,26 @@
         <v>243</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -3867,13 +4511,13 @@
       <c r="E32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="21" t="s">
         <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -3904,11 +4548,23 @@
         <v>160</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -3952,20 +4608,32 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4020,9 +4688,21 @@
       <c r="R34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -4077,9 +4757,21 @@
       <c r="R35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="S35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -4134,9 +4826,21 @@
       <c r="R36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -4191,23 +4895,40 @@
       <c r="R37" s="1">
         <v>7</v>
       </c>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
+        <v>9</v>
+      </c>
+      <c r="T37" s="1">
+        <v>3</v>
+      </c>
+      <c r="U37" s="1">
+        <v>5</v>
+      </c>
+      <c r="V37" s="1">
+        <v>7</v>
+      </c>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T38" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="AMM39"/>
-    </row>
-    <row r="40" spans="1:19 1027:1027" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="AMQ39"/>
+    </row>
+    <row r="40" spans="1:23 1031:1031" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -4262,9 +4983,21 @@
       <c r="R40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19 1027:1027" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="S40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23 1031:1031" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -4314,14 +5047,26 @@
         <v>162</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -4376,9 +5121,21 @@
       <c r="R42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -4433,9 +5190,21 @@
       <c r="R43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="S43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -4490,9 +5259,21 @@
       <c r="R44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -4547,9 +5328,21 @@
       <c r="R45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -4604,9 +5397,21 @@
       <c r="R46" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19 1027:1027" ht="66" x14ac:dyDescent="0.25">
+      <c r="S46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -4659,11 +5464,23 @@
         <v>157</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -4718,23 +5535,35 @@
       <c r="R48" s="1">
         <v>8</v>
       </c>
-      <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19 1027:1027" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="1">
+        <v>2</v>
+      </c>
+      <c r="T48" s="1">
+        <v>2</v>
+      </c>
+      <c r="U48" s="1">
+        <v>3</v>
+      </c>
+      <c r="V48" s="1">
+        <v>6</v>
+      </c>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23 1031:1031" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="AMM50"/>
-    </row>
-    <row r="51" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="AMQ50"/>
+    </row>
+    <row r="51" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4789,9 +5618,21 @@
       <c r="R51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S51" s="1"/>
-    </row>
-    <row r="52" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -4846,9 +5687,21 @@
       <c r="R52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="S52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -4903,9 +5756,21 @@
       <c r="R53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -4960,9 +5825,21 @@
       <c r="R54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -5017,9 +5894,21 @@
       <c r="R55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S55" s="1"/>
-    </row>
-    <row r="56" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -5074,22 +5963,34 @@
       <c r="R56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>8</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>7</v>
+      </c>
+      <c r="V56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="AMM58"/>
-    </row>
-    <row r="59" spans="1:19 1027:1027" ht="66" x14ac:dyDescent="0.25">
+      <c r="AMQ58"/>
+    </row>
+    <row r="59" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -5142,11 +6043,23 @@
         <v>156</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="S59" s="1"/>
-    </row>
-    <row r="60" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -5201,9 +6114,21 @@
       <c r="R60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,9 +6183,21 @@
       <c r="R61" s="1">
         <v>5</v>
       </c>
-      <c r="S61" s="1"/>
-    </row>
-    <row r="62" spans="1:19 1027:1027" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="1">
+        <v>3</v>
+      </c>
+      <c r="T61" s="1">
+        <v>3</v>
+      </c>
+      <c r="U61" s="1">
+        <v>9</v>
+      </c>
+      <c r="V61" s="1">
+        <v>9</v>
+      </c>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23 1031:1031" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -5269,15 +6206,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="AMM63"/>
-    </row>
-    <row r="64" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="AMQ63"/>
+    </row>
+    <row r="64" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -5332,9 +6269,21 @@
       <c r="R64" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -5389,9 +6338,21 @@
       <c r="R65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -5446,9 +6407,21 @@
       <c r="R66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="S66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -5495,17 +6468,29 @@
         <v>261</v>
       </c>
       <c r="P67" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="R67" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="S67" s="1"/>
-    </row>
-    <row r="68" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5560,80 +6545,109 @@
       <c r="R68" s="1">
         <v>8</v>
       </c>
-      <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19 1027:1027" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S68" s="1">
+        <v>5</v>
+      </c>
+      <c r="T68" s="1">
+        <v>2</v>
+      </c>
+      <c r="U68" s="1">
+        <v>7</v>
+      </c>
+      <c r="V68" s="1">
+        <v>8</v>
+      </c>
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23 1031:1031" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T69" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="AMM70"/>
-    </row>
-    <row r="71" spans="1:19 1027:1027" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="AMQ70"/>
+    </row>
+    <row r="71" spans="1:23 1031:1031" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="27">
         <v>1.04</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="27">
         <v>5.8</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="O71" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="27">
         <v>2.7</v>
       </c>
-      <c r="Q71" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="S71" s="1"/>
-    </row>
-    <row r="72" spans="1:19 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Q71" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="R71" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="S71" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="T71" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="U71" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="V71" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="W71" s="26"/>
+    </row>
+    <row r="72" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -5686,11 +6700,23 @@
         <v>157</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19 1027:1027" ht="290.39999999999998" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23 1031:1031" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -5740,14 +6766,26 @@
         <v>391</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19 1027:1027" ht="52.8" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -5802,139 +6840,178 @@
       <c r="R74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="S74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23 1031:1031" s="29" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="28">
         <v>0.91649999999999998</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="29">
         <v>0.5625</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="29">
         <v>0</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="29">
         <v>0.89300000000000002</v>
       </c>
-      <c r="G75" s="20">
+      <c r="G75" s="29">
         <v>0.95450000000000002</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="29">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I75" s="29">
         <v>0.52490000000000003</v>
       </c>
-      <c r="J75" s="20">
+      <c r="J75" s="29">
         <v>0.63790000000000002</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L75" s="20">
+      <c r="K75" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L75" s="29">
         <v>0.30769999999999997</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="29">
         <v>0.3296</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N75" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="O75" s="20">
+      <c r="O75" s="29">
         <v>0.90600000000000003</v>
       </c>
-      <c r="P75" s="26">
+      <c r="P75" s="29">
         <v>0.1915</v>
       </c>
-      <c r="Q75" s="26">
+      <c r="Q75" s="29">
         <v>0.5</v>
       </c>
-      <c r="R75" s="26">
+      <c r="R75" s="29">
         <v>0.79200000000000004</v>
       </c>
-      <c r="S75" s="26"/>
-    </row>
-    <row r="76" spans="1:19 1027:1027" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="S75" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="T75" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="U75" s="19">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="V75" s="19">
+        <v>0.82520000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23 1031:1031" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="14">
         <f>C118/C116</f>
         <v>0.17447679805060473</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <f>D118/D116</f>
         <v>0.1869731206759559</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="14">
         <f>E118/E116</f>
         <v>0.14357147802540177</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="14">
         <f t="shared" ref="F76:P76" si="1">F118/F116</f>
         <v>9.0424206808005059E-2</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="14">
         <f t="shared" si="1"/>
         <v>0.8249975220537219</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="14">
         <f t="shared" si="1"/>
         <v>0.18920417988596278</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="14">
         <f t="shared" si="1"/>
         <v>5.856610800744879E-2</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="14">
         <f t="shared" si="1"/>
         <v>0.11457425167102586</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="14">
         <f t="shared" si="1"/>
         <v>0.11864406779661017</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="14">
         <f t="shared" si="1"/>
         <v>0.13754483079621158</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="14">
         <f t="shared" si="1"/>
         <v>0.25902579298977751</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N76" s="14">
         <f t="shared" si="1"/>
         <v>0.24160018327081126</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O76" s="14">
         <f t="shared" si="1"/>
         <v>0.26228216993206654</v>
       </c>
-      <c r="P76" s="15">
+      <c r="P76" s="14">
         <f t="shared" si="1"/>
         <v>8.3305090882757615E-2</v>
       </c>
-      <c r="Q76" s="15">
-        <f t="shared" ref="Q76:R76" si="2">Q118/Q116</f>
+      <c r="Q76" s="14">
+        <f t="shared" ref="Q76:S76" si="2">Q118/Q116</f>
         <v>0.14920759530935676</v>
       </c>
-      <c r="R76" s="15">
+      <c r="R76" s="14">
         <f t="shared" si="2"/>
         <v>8.3088081941000619E-2</v>
       </c>
-      <c r="S76" s="15"/>
-    </row>
-    <row r="77" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S76" s="14">
+        <f t="shared" si="2"/>
+        <v>8.1959564541213059E-2</v>
+      </c>
+      <c r="T76" s="14">
+        <f t="shared" ref="T76:U76" si="3">T118/T116</f>
+        <v>0.17526299073156176</v>
+      </c>
+      <c r="U76" s="14">
+        <f t="shared" si="3"/>
+        <v>0.19381612810980842</v>
+      </c>
+      <c r="V76" s="14">
+        <f t="shared" ref="V76" si="4">V118/V116</f>
+        <v>0.19813793648966255</v>
+      </c>
+      <c r="W76" s="14"/>
+    </row>
+    <row r="77" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -5989,9 +7066,21 @@
       <c r="R77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S77" s="1"/>
-    </row>
-    <row r="78" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -6046,22 +7135,34 @@
       <c r="R78" s="1">
         <v>8</v>
       </c>
-      <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S78" s="1">
+        <v>3</v>
+      </c>
+      <c r="T78" s="1">
+        <v>7</v>
+      </c>
+      <c r="U78" s="1">
+        <v>7</v>
+      </c>
+      <c r="V78" s="1">
+        <v>8</v>
+      </c>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="AMM80"/>
-    </row>
-    <row r="81" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="AMQ80"/>
+    </row>
+    <row r="81" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -6069,72 +7170,88 @@
         <v>12</v>
       </c>
       <c r="C81" s="8">
-        <f>C106</f>
+        <f t="shared" ref="C81:V81" si="5">C106</f>
         <v>3901</v>
       </c>
       <c r="D81" s="8">
-        <f>D106</f>
+        <f t="shared" si="5"/>
         <v>1058</v>
       </c>
       <c r="E81" s="8">
-        <f>E106</f>
+        <f t="shared" si="5"/>
         <v>257</v>
       </c>
       <c r="F81" s="8">
-        <f>F106</f>
+        <f t="shared" si="5"/>
         <v>1041</v>
       </c>
       <c r="G81" s="8">
-        <f>G106</f>
+        <f t="shared" si="5"/>
         <v>281</v>
       </c>
       <c r="H81" s="8">
-        <f>H106</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="I81" s="8">
-        <f>I106</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="J81" s="8">
-        <f>J106</f>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="K81" s="8">
-        <f>K106</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="L81" s="8">
-        <f>L106</f>
+        <f t="shared" si="5"/>
         <v>757</v>
       </c>
       <c r="M81" s="8">
-        <f>M106</f>
+        <f t="shared" si="5"/>
         <v>2620</v>
       </c>
       <c r="N81" s="8">
-        <f>N106</f>
+        <f t="shared" si="5"/>
         <v>2523</v>
       </c>
       <c r="O81" s="8">
-        <f>O106</f>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="P81" s="8">
-        <f>P106</f>
+        <f t="shared" si="5"/>
         <v>846</v>
       </c>
       <c r="Q81" s="8">
-        <f>Q106</f>
+        <f t="shared" si="5"/>
         <v>1052</v>
       </c>
       <c r="R81" s="8">
-        <f>R106</f>
+        <f t="shared" si="5"/>
         <v>1232</v>
       </c>
-      <c r="S81" s="8"/>
-    </row>
-    <row r="82" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S81" s="8">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="T81" s="8">
+        <f t="shared" si="5"/>
+        <v>1838</v>
+      </c>
+      <c r="U81" s="8">
+        <f t="shared" si="5"/>
+        <v>774</v>
+      </c>
+      <c r="V81" s="8">
+        <f t="shared" si="5"/>
+        <v>7828</v>
+      </c>
+      <c r="W81" s="8"/>
+    </row>
+    <row r="82" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -6189,9 +7306,21 @@
       <c r="R82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -6246,23 +7375,35 @@
       <c r="R83" s="1">
         <v>8</v>
       </c>
-      <c r="S83" s="1"/>
-    </row>
-    <row r="84" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S83" s="1">
+        <v>5</v>
+      </c>
+      <c r="T83" s="1">
+        <v>7</v>
+      </c>
+      <c r="U83" s="1">
+        <v>6</v>
+      </c>
+      <c r="V83" s="1">
+        <v>7</v>
+      </c>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:19 1027:1027" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23 1031:1031" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="AMM85"/>
-    </row>
-    <row r="86" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="AMQ85"/>
+    </row>
+    <row r="86" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -6317,9 +7458,21 @@
       <c r="R86" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:19 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="S86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -6374,9 +7527,21 @@
       <c r="R87" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -6431,9 +7596,21 @@
       <c r="R88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -6488,9 +7665,21 @@
       <c r="R89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S89" s="1"/>
-    </row>
-    <row r="90" spans="1:19 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="S89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -6545,9 +7734,21 @@
       <c r="R90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S90" s="1"/>
-    </row>
-    <row r="91" spans="1:19 1027:1027" ht="66" x14ac:dyDescent="0.25">
+      <c r="S90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -6600,11 +7801,23 @@
         <v>162</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="S91" s="1"/>
-    </row>
-    <row r="92" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -6659,9 +7872,21 @@
       <c r="R92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -6716,9 +7941,21 @@
       <c r="R93" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="1:19 1027:1027" x14ac:dyDescent="0.25">
+      <c r="S93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -6773,22 +8010,34 @@
       <c r="R94" s="1">
         <v>8</v>
       </c>
-      <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="1:19 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S94" s="1">
+        <v>6</v>
+      </c>
+      <c r="T94" s="1">
+        <v>8</v>
+      </c>
+      <c r="U94" s="1">
+        <v>8</v>
+      </c>
+      <c r="V94" s="1">
+        <v>8</v>
+      </c>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:19 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="AMM96"/>
-    </row>
-    <row r="97" spans="1:20 1027:1027" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="AMQ96"/>
+    </row>
+    <row r="97" spans="1:24 1031:1031" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -6843,9 +8092,21 @@
       <c r="R97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:20 1027:1027" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="S97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="1:24 1031:1031" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -6900,9 +8161,21 @@
       <c r="R98" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:20 1027:1027" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="S98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="1:24 1031:1031" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -6952,14 +8225,26 @@
         <v>157</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="S99" s="1"/>
-    </row>
-    <row r="100" spans="1:20 1027:1027" ht="66" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="1:24 1031:1031" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -7012,11 +8297,23 @@
         <v>157</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="S100" s="1"/>
-    </row>
-    <row r="101" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -7071,23 +8368,35 @@
       <c r="R101" s="1">
         <v>6</v>
       </c>
-      <c r="S101" s="1"/>
-    </row>
-    <row r="102" spans="1:20 1027:1027" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S101" s="1">
+        <v>4</v>
+      </c>
+      <c r="T101" s="1">
+        <v>5</v>
+      </c>
+      <c r="U101" s="1">
+        <v>5</v>
+      </c>
+      <c r="V101" s="1">
+        <v>6</v>
+      </c>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:24 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:20 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="AMM105"/>
-    </row>
-    <row r="106" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+      <c r="AMQ105"/>
+    </row>
+    <row r="106" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -7142,12 +8451,24 @@
       <c r="R106" s="1">
         <v>1232</v>
       </c>
-      <c r="S106" s="1"/>
+      <c r="S106" s="1">
+        <v>79</v>
+      </c>
       <c r="T106" s="1">
+        <v>1838</v>
+      </c>
+      <c r="U106" s="1">
+        <v>774</v>
+      </c>
+      <c r="V106" s="1">
+        <v>7828</v>
+      </c>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -7202,12 +8523,24 @@
       <c r="R107" s="1">
         <v>170</v>
       </c>
-      <c r="S107" s="1"/>
+      <c r="S107" s="1">
+        <v>115</v>
+      </c>
       <c r="T107" s="1">
+        <v>105</v>
+      </c>
+      <c r="U107" s="1">
+        <v>314</v>
+      </c>
+      <c r="V107" s="1">
+        <v>253</v>
+      </c>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -7226,7 +8559,7 @@
       <c r="F108" s="1">
         <v>158642</v>
       </c>
-      <c r="G108" s="24">
+      <c r="G108" s="23">
         <v>77216</v>
       </c>
       <c r="H108">
@@ -7262,11 +8595,23 @@
       <c r="R108">
         <v>113048</v>
       </c>
+      <c r="S108">
+        <v>25722</v>
+      </c>
       <c r="T108">
+        <v>323569</v>
+      </c>
+      <c r="U108">
+        <v>177539</v>
+      </c>
+      <c r="V108">
+        <v>1428531</v>
+      </c>
+      <c r="X108">
         <v>38927</v>
       </c>
     </row>
-    <row r="109" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -7285,7 +8630,7 @@
       <c r="F109" s="1">
         <v>514448</v>
       </c>
-      <c r="G109" s="24">
+      <c r="G109" s="23">
         <v>119012</v>
       </c>
       <c r="H109">
@@ -7321,11 +8666,23 @@
       <c r="R109">
         <v>1138333</v>
       </c>
+      <c r="S109">
+        <v>3253739</v>
+      </c>
       <c r="T109">
+        <v>785779</v>
+      </c>
+      <c r="U109">
+        <v>362828</v>
+      </c>
+      <c r="V109">
+        <v>15575050</v>
+      </c>
+      <c r="X109">
         <v>134744</v>
       </c>
     </row>
-    <row r="110" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -7344,7 +8701,7 @@
       <c r="F110" s="1">
         <v>348317</v>
       </c>
-      <c r="G110" s="24">
+      <c r="G110" s="23">
         <v>41983</v>
       </c>
       <c r="H110">
@@ -7380,11 +8737,23 @@
       <c r="R110">
         <v>1017731</v>
       </c>
+      <c r="S110">
+        <v>3228017</v>
+      </c>
       <c r="T110">
+        <v>454140</v>
+      </c>
+      <c r="U110">
+        <v>185808</v>
+      </c>
+      <c r="V110">
+        <v>14667336</v>
+      </c>
+      <c r="X110">
         <v>95717</v>
       </c>
     </row>
-    <row r="111" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -7439,12 +8808,24 @@
       <c r="R111" s="1">
         <v>3524</v>
       </c>
-      <c r="S111" s="1"/>
+      <c r="S111" s="1">
+        <v>143</v>
+      </c>
       <c r="T111" s="1">
+        <v>3231</v>
+      </c>
+      <c r="U111" s="1">
+        <v>1356</v>
+      </c>
+      <c r="V111" s="1">
+        <v>65884</v>
+      </c>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:20 1027:1027" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -7497,14 +8878,26 @@
         <v>397</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="S112" s="1"/>
+        <v>423</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="T112" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20 1027:1027" ht="26.4" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -7557,22 +8950,34 @@
         <v>398</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="S113" s="1"/>
+        <v>424</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="T113" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="AMM114"/>
-    </row>
-    <row r="115" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+      <c r="AMQ114"/>
+    </row>
+    <row r="115" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -7627,11 +9032,23 @@
       <c r="R115">
         <v>1162</v>
       </c>
+      <c r="S115">
+        <v>77</v>
+      </c>
       <c r="T115">
+        <v>1720</v>
+      </c>
+      <c r="U115">
+        <v>677</v>
+      </c>
+      <c r="V115">
+        <v>5556</v>
+      </c>
+      <c r="X115">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -7686,11 +9103,23 @@
       <c r="R116">
         <v>86306</v>
       </c>
+      <c r="S116">
+        <v>25720</v>
+      </c>
       <c r="T116">
+        <v>311703</v>
+      </c>
+      <c r="U116">
+        <v>139880</v>
+      </c>
+      <c r="V116">
+        <v>1276863</v>
+      </c>
+      <c r="X116">
         <v>30994</v>
       </c>
     </row>
-    <row r="117" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -7709,7 +9138,7 @@
       <c r="F117">
         <v>123272</v>
       </c>
-      <c r="G117" s="23">
+      <c r="G117" s="22">
         <v>8493</v>
       </c>
       <c r="H117">
@@ -7745,11 +9174,23 @@
       <c r="R117">
         <v>63951</v>
       </c>
+      <c r="S117">
+        <v>19020</v>
+      </c>
       <c r="T117">
+        <v>207122</v>
+      </c>
+      <c r="U117">
+        <v>88530</v>
+      </c>
+      <c r="V117">
+        <v>886326</v>
+      </c>
+      <c r="X117">
         <v>25721</v>
       </c>
     </row>
-    <row r="118" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -7768,7 +9209,7 @@
       <c r="F118">
         <v>14156</v>
       </c>
-      <c r="G118" s="23">
+      <c r="G118" s="22">
         <v>41617</v>
       </c>
       <c r="H118">
@@ -7804,11 +9245,23 @@
       <c r="R118">
         <v>7171</v>
       </c>
+      <c r="S118">
+        <v>2108</v>
+      </c>
       <c r="T118">
+        <v>54630</v>
+      </c>
+      <c r="U118">
+        <v>27111</v>
+      </c>
+      <c r="V118">
+        <v>252995</v>
+      </c>
+      <c r="X118">
         <v>2400</v>
       </c>
     </row>
-    <row r="119" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -7827,7 +9280,7 @@
       <c r="F119">
         <v>19123</v>
       </c>
-      <c r="G119" s="23">
+      <c r="G119" s="22">
         <v>335</v>
       </c>
       <c r="H119">
@@ -7863,19 +9316,31 @@
       <c r="R119">
         <v>15184</v>
       </c>
+      <c r="S119">
+        <v>4592</v>
+      </c>
       <c r="T119">
+        <v>49951</v>
+      </c>
+      <c r="U119">
+        <v>24239</v>
+      </c>
+      <c r="V119">
+        <v>137542</v>
+      </c>
+      <c r="X119">
         <v>2873</v>
       </c>
     </row>
-    <row r="120" spans="1:20 1027:1027" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="AMM120"/>
-    </row>
-    <row r="121" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+      <c r="AMQ120"/>
+    </row>
+    <row r="121" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -7894,7 +9359,7 @@
       <c r="F121">
         <v>255</v>
       </c>
-      <c r="G121" s="23">
+      <c r="G121" s="22">
         <v>29</v>
       </c>
       <c r="H121">
@@ -7930,11 +9395,23 @@
       <c r="R121">
         <v>1300</v>
       </c>
+      <c r="S121">
+        <v>87</v>
+      </c>
       <c r="T121">
+        <v>117</v>
+      </c>
+      <c r="U121">
+        <v>48</v>
+      </c>
+      <c r="V121">
+        <v>644</v>
+      </c>
+      <c r="X121">
         <v>1400</v>
       </c>
     </row>
-    <row r="122" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -7953,7 +9430,7 @@
       <c r="F122">
         <v>152</v>
       </c>
-      <c r="G122" s="23">
+      <c r="G122" s="22">
         <v>1</v>
       </c>
       <c r="H122">
@@ -7989,11 +9466,23 @@
       <c r="R122">
         <v>948</v>
       </c>
+      <c r="S122">
+        <v>46</v>
+      </c>
       <c r="T122">
+        <v>152</v>
+      </c>
+      <c r="U122">
+        <v>20</v>
+      </c>
+      <c r="V122">
+        <v>298</v>
+      </c>
+      <c r="X122">
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -8012,7 +9501,7 @@
       <c r="F123">
         <v>48</v>
       </c>
-      <c r="G123" s="23">
+      <c r="G123" s="22">
         <v>8</v>
       </c>
       <c r="H123">
@@ -8048,11 +9537,23 @@
       <c r="R123">
         <v>111</v>
       </c>
+      <c r="S123">
+        <v>19</v>
+      </c>
       <c r="T123">
+        <v>37</v>
+      </c>
+      <c r="U123">
+        <v>5</v>
+      </c>
+      <c r="V123">
+        <v>80</v>
+      </c>
+      <c r="X123">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -8071,7 +9572,7 @@
       <c r="F124">
         <v>1</v>
       </c>
-      <c r="G124" s="23">
+      <c r="G124" s="22">
         <v>0</v>
       </c>
       <c r="H124">
@@ -8107,11 +9608,23 @@
       <c r="R124">
         <v>20</v>
       </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
       <c r="T124">
+        <v>6</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>4</v>
+      </c>
+      <c r="X124">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -8130,7 +9643,7 @@
       <c r="F125">
         <v>32</v>
       </c>
-      <c r="G125" s="23">
+      <c r="G125" s="22">
         <v>0</v>
       </c>
       <c r="H125">
@@ -8166,30 +9679,47 @@
       <c r="R125">
         <v>944</v>
       </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
       <c r="T125">
+        <v>190</v>
+      </c>
+      <c r="U125">
+        <v>6</v>
+      </c>
+      <c r="V125">
+        <v>7</v>
+      </c>
+      <c r="X125">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:20 1027:1027" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
       <c r="M126" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:XFD99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:XFD17 A5:XFD13 N14:XFD16 A19:XFD98">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:XFD17 A97:T98 W97:XFD99 A5:XFD13 N14:XFD16 A19:XFD96">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(I99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(M14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U97:V99">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(M14))=0</formula>
+      <formula>LEN(TRIM(U97))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -8222,11 +9752,19 @@
     <hyperlink ref="P18" r:id="rId27" xr:uid="{DE64FE4F-5191-4D4B-99AA-5E5853B4955B}"/>
     <hyperlink ref="Q4" r:id="rId28" xr:uid="{D2154319-E769-4F80-BFD5-826CC22A5BC1}"/>
     <hyperlink ref="Q18" r:id="rId29" xr:uid="{9520AF1F-3BAD-4670-A93C-B66AE904A1DD}"/>
-    <hyperlink ref="T4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
-    <hyperlink ref="T18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
+    <hyperlink ref="X4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
+    <hyperlink ref="X18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
+    <hyperlink ref="S4" r:id="rId32" xr:uid="{59640F79-3350-4895-9A1B-3D11F819338B}"/>
+    <hyperlink ref="S18" r:id="rId33" xr:uid="{F7C40DBC-F537-4FBC-903C-96A2745DCFAD}"/>
+    <hyperlink ref="T4" r:id="rId34" xr:uid="{F7D9EFEC-A89C-4C3B-A745-E7D85EC8741D}"/>
+    <hyperlink ref="T5" r:id="rId35" xr:uid="{87FC6F07-57E7-4A58-9139-B996B4E64B2D}"/>
+    <hyperlink ref="T18" r:id="rId36" xr:uid="{B3803BF0-F5F9-4936-8A38-F52B13719478}"/>
+    <hyperlink ref="U4" r:id="rId37" xr:uid="{2C6ACBF6-62CB-411D-99A1-F24E14D87379}"/>
+    <hyperlink ref="V4" r:id="rId38" xr:uid="{4E887506-899A-4479-A3C2-731A07854A98}"/>
+    <hyperlink ref="V18" r:id="rId39" display="https://github.com/Kitware/ParaView" xr:uid="{92A0AAFD-23D1-4E58-BDA7-6AC59A3E0CD9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA741DA6-473E-4F1E-9853-8F161E895C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6F70B5-17EB-4911-B84D-B0065EE8E342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="542">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1948,10 +1948,6 @@
 Github issue</t>
   </si>
   <si>
-    <t>Gitlab issue
-Github issue</t>
-  </si>
-  <si>
     <t>yes
 https://gitlab.kitware.com/paraview/paraview/-/blob/master/CONTRIBUTING.md</t>
   </si>
@@ -1962,6 +1958,128 @@
   <si>
     <t>yes
 https://open.cdash.org/index.php?project=ParaView</t>
+  </si>
+  <si>
+    <t>MatrixUser</t>
+  </si>
+  <si>
+    <t>https://leoliuf.github.io/MatrixUser/</t>
+  </si>
+  <si>
+    <t>A lightweight GUI-based program for multi-dimensional data processing and analysis.</t>
+  </si>
+  <si>
+    <t>https://github.com/leoliuf/MatrixUser</t>
+  </si>
+  <si>
+    <t>MATLAB, C, C++</t>
+  </si>
+  <si>
+    <t>2, 2, 0, 0</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>BSD-2-Clause</t>
+  </si>
+  <si>
+    <t>Windows, Linux, OS X
+and Matlab is required</t>
+  </si>
+  <si>
+    <t>Installing Matlab takes a lot of time, and some users may not have liscence to use Matlab.</t>
+  </si>
+  <si>
+    <t>E-mail address
+Gitlab issue</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>yes
+Authors
+Bug tracker
+Change request
+Installation Guide
+License
+README
+Release notes
+Source code
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>Gitlab
+Github</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/leoliuf/MatrixUser/releases</t>
+  </si>
+  <si>
+    <t>DICOM Viewer</t>
+  </si>
+  <si>
+    <t>https://apps.nextcloud.com/apps/dicomviewer</t>
+  </si>
+  <si>
+    <t>Nextcloud</t>
+  </si>
+  <si>
+    <t>It allows to display and manipulate DICOM images with a streamlined sidebar and viewer.</t>
+  </si>
+  <si>
+    <t>87, 87, 20</t>
+  </si>
+  <si>
+    <t>2, 8, 7, 8, 4, 1, 0, 0, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>funded
+https://www.patreon.com/ayselafsar</t>
+  </si>
+  <si>
+    <t>AGPL-3.0</t>
+  </si>
+  <si>
+    <t>Windows, Linux, OS X, iOS, Android
+on Nextcloud platform</t>
+  </si>
+  <si>
+    <t>https://github.com/ayselafsar/dicomviewer</t>
+  </si>
+  <si>
+    <t>The app depends on Nextcloud platform. However, I couldn't find out how to use apps on Nextcloud during one hour of trying. Maybe it need an enterprise account to use.</t>
+  </si>
+  <si>
+    <t>The app depends on Nextcloud platform. However, I couldn't find out how to install apps on Nextcloud during one hour of trying. Maybe it need an enterprise account to use.</t>
+  </si>
+  <si>
+    <t>Gitlab issue</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Change request
+Installation Guide
+License
+README
+Release notes
+Source code
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/ayselafsar/dicomviewer#development</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/ayselafsar/dicomviewer/releases</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2198,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2143,17 +2261,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2492,17 +2616,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMQ126"/>
+  <dimension ref="A1:AMS126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V128" sqref="V128"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A89" sqref="A89:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
@@ -2513,11 +2637,13 @@
     <col min="16" max="16" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.88671875" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="23" width="37" customWidth="1"/>
-    <col min="24" max="24" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="37" customWidth="1"/>
+    <col min="23" max="24" width="35.88671875" customWidth="1"/>
+    <col min="25" max="25" width="37" customWidth="1"/>
+    <col min="26" max="26" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24 1031:1031" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26 1033:1033" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2526,9 +2652,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="AMQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:24 1031:1031" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="AMS1" s="1"/>
+    </row>
+    <row r="2" spans="1:26 1033:1033" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2541,12 +2667,14 @@
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="X2" s="6" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Z2" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="AMQ2" s="7"/>
-    </row>
-    <row r="3" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS2" s="7"/>
+    </row>
+    <row r="3" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2613,11 +2741,17 @@
       <c r="V3" s="1" t="s">
         <v>495</v>
       </c>
+      <c r="W3" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="X3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2684,12 +2818,18 @@
       <c r="V4" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="W4" s="16"/>
+      <c r="W4" s="16" t="s">
+        <v>511</v>
+      </c>
       <c r="X4" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:24 1031:1031" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26 1033:1033" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2756,12 +2896,18 @@
       <c r="V5" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24 1031:1031" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="W5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26 1033:1033" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2828,12 +2974,18 @@
       <c r="V6" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="X6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2900,12 +3052,18 @@
       <c r="V7" s="1">
         <v>100</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
       <c r="X7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:24 1031:1031" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26 1033:1033" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2972,12 +3130,18 @@
       <c r="V8" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="X8" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2996,7 +3160,7 @@
         <v>161</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:V9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <f t="shared" ref="F9:X9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
         <v>stars: 255, forks:152, watching: 48</v>
       </c>
       <c r="G9" s="1" t="str">
@@ -3063,13 +3227,21 @@
         <f t="shared" si="0"/>
         <v>stars: 644, forks:298, watching: 80</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 5, forks:0, watching: 1</v>
+      </c>
       <c r="X9" s="1" t="str">
-        <f>"stars: " &amp; X121 &amp; ", forks:" &amp; X122 &amp; ", watching: " &amp; X123</f>
+        <f t="shared" si="0"/>
+        <v>stars: 121, forks:25, watching: 18</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1" t="str">
+        <f>"stars: " &amp; Z121 &amp; ", forks:" &amp; Z122 &amp; ", watching: " &amp; Z123</f>
         <v>stars: 1400, forks:456, watching: 155</v>
       </c>
     </row>
-    <row r="10" spans="1:24 1031:1031" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26 1033:1033" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
@@ -3136,12 +3308,18 @@
       <c r="V10" s="10">
         <v>2002</v>
       </c>
-      <c r="W10" s="10"/>
+      <c r="W10" s="10">
+        <v>2013</v>
+      </c>
       <c r="X10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10">
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:24 1031:1031" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26 1033:1033" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -3208,11 +3386,17 @@
       <c r="V11" s="13">
         <v>44116</v>
       </c>
+      <c r="W11" s="13">
+        <v>43282</v>
+      </c>
       <c r="X11" s="13">
+        <v>43928</v>
+      </c>
+      <c r="Z11" s="13">
         <v>44104</v>
       </c>
     </row>
-    <row r="12" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -3279,12 +3463,18 @@
       <c r="V12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="X12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3351,12 +3541,18 @@
       <c r="V13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="X13" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -3423,9 +3619,15 @@
       <c r="V14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:24 1031:1031" ht="66" x14ac:dyDescent="0.25">
+      <c r="W14" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:26 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -3492,12 +3694,18 @@
       <c r="V15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="X15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3564,12 +3772,18 @@
       <c r="V16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="X16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -3636,12 +3850,18 @@
       <c r="V17" s="23">
         <v>15400</v>
       </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1" t="s">
+      <c r="W17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3708,12 +3928,18 @@
       <c r="V18" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="W18" s="16"/>
+      <c r="W18" s="9" t="s">
+        <v>513</v>
+      </c>
       <c r="X18" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26 1033:1033" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -3780,12 +4006,18 @@
       <c r="V19" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="X19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:24 1031:1031" ht="66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26 1033:1033" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -3852,26 +4084,32 @@
       <c r="V20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="X20" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:24 1031:1031" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26 1033:1033" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:24 1031:1031" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26 1033:1033" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="AMQ22"/>
-    </row>
-    <row r="23" spans="1:24 1031:1031" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="AMS22"/>
+    </row>
+    <row r="23" spans="1:26 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3938,12 +4176,18 @@
       <c r="V23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="X23" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:24 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -4010,9 +4254,15 @@
       <c r="V24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -4079,9 +4329,15 @@
       <c r="V25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="W25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -4148,9 +4404,15 @@
       <c r="V26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -4217,9 +4479,15 @@
       <c r="V27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="W27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -4286,9 +4554,15 @@
       <c r="V28" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -4355,9 +4629,15 @@
       <c r="V29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:24 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="W29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -4424,9 +4704,15 @@
       <c r="V30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:24 1031:1031" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:26 1033:1033" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -4493,9 +4779,15 @@
       <c r="V31" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4562,9 +4854,15 @@
       <c r="V32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -4631,9 +4929,15 @@
       <c r="V33" s="1">
         <v>0</v>
       </c>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W33" s="1">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4700,9 +5004,15 @@
       <c r="V34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -4769,9 +5079,15 @@
       <c r="V35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="W35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -4838,9 +5154,15 @@
       <c r="V36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -4907,9 +5229,15 @@
       <c r="V37" s="1">
         <v>7</v>
       </c>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
+      <c r="W37" s="1">
+        <v>4</v>
+      </c>
+      <c r="X37" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:25 1033:1033" ht="66" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -4919,16 +5247,22 @@
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="AMQ39"/>
-    </row>
-    <row r="40" spans="1:23 1031:1031" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="AMS39"/>
+    </row>
+    <row r="40" spans="1:25 1033:1033" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -4990,14 +5324,20 @@
         <v>162</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="1:23 1031:1031" ht="109.2" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:25 1033:1033" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -5064,9 +5404,15 @@
       <c r="V41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -5133,9 +5479,15 @@
       <c r="V42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -5202,9 +5554,15 @@
       <c r="V43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="W43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -5271,9 +5629,15 @@
       <c r="V44" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -5340,9 +5704,15 @@
       <c r="V45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -5409,9 +5779,15 @@
       <c r="V46" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
+      <c r="W46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="1:25 1033:1033" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -5478,9 +5854,15 @@
       <c r="V47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -5547,23 +5929,29 @@
       <c r="V48" s="1">
         <v>6</v>
       </c>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="1:23 1031:1031" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="1">
+        <v>2</v>
+      </c>
+      <c r="X48" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="1:25 1033:1033" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="AMQ50"/>
-    </row>
-    <row r="51" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS50"/>
+    </row>
+    <row r="51" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -5630,9 +6018,15 @@
       <c r="V51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -5699,9 +6093,15 @@
       <c r="V52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W52" s="1"/>
-    </row>
-    <row r="53" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="W52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -5768,9 +6168,15 @@
       <c r="V53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -5837,9 +6243,15 @@
       <c r="V54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -5906,9 +6318,15 @@
       <c r="V55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -5975,22 +6393,31 @@
       <c r="V56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>7</v>
+      </c>
+      <c r="X56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X57" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="AMQ58"/>
-    </row>
-    <row r="59" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
+      <c r="AMS58"/>
+    </row>
+    <row r="59" spans="1:25 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -6057,9 +6484,15 @@
       <c r="V59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W59" s="1"/>
-    </row>
-    <row r="60" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="W59" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -6126,9 +6559,15 @@
       <c r="V60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W60" s="1"/>
-    </row>
-    <row r="61" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y60" s="1"/>
+    </row>
+    <row r="61" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -6195,9 +6634,15 @@
       <c r="V61" s="1">
         <v>9</v>
       </c>
-      <c r="W61" s="1"/>
-    </row>
-    <row r="62" spans="1:23 1031:1031" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="1">
+        <v>3</v>
+      </c>
+      <c r="X61" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="1:25 1033:1033" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -6206,15 +6651,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="AMQ63"/>
-    </row>
-    <row r="64" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS63"/>
+    </row>
+    <row r="64" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -6281,9 +6726,15 @@
       <c r="V64" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W64" s="1"/>
-    </row>
-    <row r="65" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -6350,9 +6801,15 @@
       <c r="V65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="66" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y65" s="1"/>
+    </row>
+    <row r="66" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -6419,9 +6876,15 @@
       <c r="V66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W66" s="1"/>
-    </row>
-    <row r="67" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="W66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y66" s="1"/>
+    </row>
+    <row r="67" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -6488,9 +6951,15 @@
       <c r="V67" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="W67" s="1"/>
-    </row>
-    <row r="68" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W67" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -6557,9 +7026,15 @@
       <c r="V68" s="1">
         <v>8</v>
       </c>
-      <c r="W68" s="1"/>
-    </row>
-    <row r="69" spans="1:23 1031:1031" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W68" s="1">
+        <v>5</v>
+      </c>
+      <c r="X68" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y68" s="1"/>
+    </row>
+    <row r="69" spans="1:25 1033:1033" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
@@ -6569,16 +7044,18 @@
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-    </row>
-    <row r="70" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="AMQ70"/>
-    </row>
-    <row r="71" spans="1:23 1031:1031" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AMS70"/>
+    </row>
+    <row r="71" spans="1:25 1033:1033" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
@@ -6645,9 +7122,15 @@
       <c r="V71" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="W71" s="26"/>
-    </row>
-    <row r="72" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="W71" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="X71" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y71" s="26"/>
+    </row>
+    <row r="72" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -6712,11 +7195,17 @@
         <v>157</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W72" s="1"/>
-    </row>
-    <row r="73" spans="1:23 1031:1031" ht="290.39999999999998" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y72" s="1"/>
+    </row>
+    <row r="73" spans="1:25 1033:1033" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -6783,9 +7272,15 @@
       <c r="V73" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="W73" s="1"/>
-    </row>
-    <row r="74" spans="1:23 1031:1031" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="W73" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y73" s="1"/>
+    </row>
+    <row r="74" spans="1:25 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -6850,11 +7345,17 @@
         <v>168</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="W74" s="1"/>
-    </row>
-    <row r="75" spans="1:23 1031:1031" s="29" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y74" s="1"/>
+    </row>
+    <row r="75" spans="1:25 1033:1033" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>98</v>
       </c>
@@ -6864,55 +7365,55 @@
       <c r="C75" s="28">
         <v>0.91649999999999998</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="19">
         <v>0.5625</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="19">
         <v>0</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="19">
         <v>0.89300000000000002</v>
       </c>
-      <c r="G75" s="29">
+      <c r="G75" s="19">
         <v>0.95450000000000002</v>
       </c>
-      <c r="H75" s="29">
+      <c r="H75" s="19">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I75" s="29">
+      <c r="I75" s="19">
         <v>0.52490000000000003</v>
       </c>
-      <c r="J75" s="29">
+      <c r="J75" s="19">
         <v>0.63790000000000002</v>
       </c>
       <c r="K75" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="L75" s="29">
+      <c r="L75" s="19">
         <v>0.30769999999999997</v>
       </c>
-      <c r="M75" s="29">
+      <c r="M75" s="19">
         <v>0.3296</v>
       </c>
       <c r="N75" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="O75" s="29">
+      <c r="O75" s="19">
         <v>0.90600000000000003</v>
       </c>
-      <c r="P75" s="29">
+      <c r="P75" s="19">
         <v>0.1915</v>
       </c>
-      <c r="Q75" s="29">
+      <c r="Q75" s="19">
         <v>0.5</v>
       </c>
-      <c r="R75" s="29">
+      <c r="R75" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="S75" s="29">
+      <c r="S75" s="19">
         <v>0.5</v>
       </c>
-      <c r="T75" s="29">
+      <c r="T75" s="19">
         <v>0.5</v>
       </c>
       <c r="U75" s="19">
@@ -6921,8 +7422,14 @@
       <c r="V75" s="19">
         <v>0.82520000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:23 1031:1031" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W75" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X75" s="19">
+        <v>0.69810000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25 1033:1033" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>100</v>
       </c>
@@ -7006,12 +7513,20 @@
         <v>0.19381612810980842</v>
       </c>
       <c r="V76" s="14">
-        <f t="shared" ref="V76" si="4">V118/V116</f>
+        <f t="shared" ref="V76:W76" si="4">V118/V116</f>
         <v>0.19813793648966255</v>
       </c>
-      <c r="W76" s="14"/>
-    </row>
-    <row r="77" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W76" s="14">
+        <f t="shared" si="4"/>
+        <v>0.18020806739851927</v>
+      </c>
+      <c r="X76" s="14">
+        <f t="shared" ref="X76" si="5">X118/X116</f>
+        <v>5.4724647704677096E-2</v>
+      </c>
+      <c r="Y76" s="14"/>
+    </row>
+    <row r="77" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -7076,11 +7591,17 @@
         <v>168</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="W77" s="1"/>
-    </row>
-    <row r="78" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -7147,22 +7668,28 @@
       <c r="V78" s="1">
         <v>8</v>
       </c>
-      <c r="W78" s="1"/>
-    </row>
-    <row r="79" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W78" s="1">
+        <v>4</v>
+      </c>
+      <c r="X78" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y78" s="1"/>
+    </row>
+    <row r="79" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="AMQ80"/>
-    </row>
-    <row r="81" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS80"/>
+    </row>
+    <row r="81" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -7170,88 +7697,96 @@
         <v>12</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" ref="C81:V81" si="5">C106</f>
+        <f t="shared" ref="C81:W81" si="6">C106</f>
         <v>3901</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1058</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>257</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1041</v>
       </c>
       <c r="G81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>281</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="K81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>757</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2620</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2523</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="P81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>846</v>
       </c>
       <c r="Q81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1052</v>
       </c>
       <c r="R81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1232</v>
       </c>
       <c r="S81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="T81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1838</v>
       </c>
       <c r="U81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>774</v>
       </c>
       <c r="V81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7828</v>
       </c>
-      <c r="W81" s="8"/>
-    </row>
-    <row r="82" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W81" s="8">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="X81" s="8">
+        <f t="shared" ref="X81" si="7">X106</f>
+        <v>309</v>
+      </c>
+      <c r="Y81" s="8"/>
+    </row>
+    <row r="82" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -7318,9 +7853,15 @@
       <c r="V82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W82" s="1"/>
-    </row>
-    <row r="83" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y82" s="1"/>
+    </row>
+    <row r="83" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -7387,23 +7928,29 @@
       <c r="V83" s="1">
         <v>7</v>
       </c>
-      <c r="W83" s="1"/>
-    </row>
-    <row r="84" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W83" s="1">
+        <v>5</v>
+      </c>
+      <c r="X83" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="1"/>
+    </row>
+    <row r="84" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:23 1031:1031" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25 1033:1033" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="AMQ85"/>
-    </row>
-    <row r="86" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS85"/>
+    </row>
+    <row r="86" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -7470,9 +8017,15 @@
       <c r="V86" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W86" s="1"/>
-    </row>
-    <row r="87" spans="1:23 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="W86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y86" s="1"/>
+    </row>
+    <row r="87" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -7539,9 +8092,15 @@
       <c r="V87" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W87" s="1"/>
-    </row>
-    <row r="88" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -7608,9 +8167,15 @@
       <c r="V88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W88" s="1"/>
-    </row>
-    <row r="89" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y88" s="1"/>
+    </row>
+    <row r="89" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -7677,9 +8242,15 @@
       <c r="V89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W89" s="1"/>
-    </row>
-    <row r="90" spans="1:23 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="W89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y89" s="1"/>
+    </row>
+    <row r="90" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -7746,9 +8317,15 @@
       <c r="V90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W90" s="1"/>
-    </row>
-    <row r="91" spans="1:23 1031:1031" ht="66" x14ac:dyDescent="0.25">
+      <c r="W90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="1:25 1033:1033" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -7813,11 +8390,17 @@
         <v>493</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="W91" s="1"/>
-    </row>
-    <row r="92" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y91" s="1"/>
+    </row>
+    <row r="92" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -7884,9 +8467,15 @@
       <c r="V92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W92" s="1"/>
-    </row>
-    <row r="93" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y92" s="1"/>
+    </row>
+    <row r="93" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -7953,9 +8542,15 @@
       <c r="V93" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W93" s="1"/>
-    </row>
-    <row r="94" spans="1:23 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y93" s="1"/>
+    </row>
+    <row r="94" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -8022,22 +8617,28 @@
       <c r="V94" s="1">
         <v>8</v>
       </c>
-      <c r="W94" s="1"/>
-    </row>
-    <row r="95" spans="1:23 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W94" s="1">
+        <v>6</v>
+      </c>
+      <c r="X94" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y94" s="1"/>
+    </row>
+    <row r="95" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:23 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="AMQ96"/>
-    </row>
-    <row r="97" spans="1:24 1031:1031" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="AMS96"/>
+    </row>
+    <row r="97" spans="1:26 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -8104,9 +8705,15 @@
       <c r="V97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W97" s="1"/>
-    </row>
-    <row r="98" spans="1:24 1031:1031" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="W97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="1:26 1033:1033" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8171,11 +8778,17 @@
         <v>157</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="W98" s="1"/>
-    </row>
-    <row r="99" spans="1:24 1031:1031" ht="92.4" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="99" spans="1:26 1033:1033" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -8242,9 +8855,15 @@
       <c r="V99" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W99" s="1"/>
-    </row>
-    <row r="100" spans="1:24 1031:1031" ht="66" x14ac:dyDescent="0.25">
+      <c r="W99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y99" s="1"/>
+    </row>
+    <row r="100" spans="1:26 1033:1033" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -8311,9 +8930,15 @@
       <c r="V100" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W100" s="1"/>
-    </row>
-    <row r="101" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+      <c r="W100" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y100" s="1"/>
+    </row>
+    <row r="101" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -8380,23 +9005,29 @@
       <c r="V101" s="1">
         <v>6</v>
       </c>
-      <c r="W101" s="1"/>
-    </row>
-    <row r="102" spans="1:24 1031:1031" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W101" s="1">
+        <v>5</v>
+      </c>
+      <c r="X101" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y101" s="1"/>
+    </row>
+    <row r="102" spans="1:26 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:24 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="AMQ105"/>
-    </row>
-    <row r="106" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS105"/>
+    </row>
+    <row r="106" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -8463,12 +9094,18 @@
       <c r="V106" s="1">
         <v>7828</v>
       </c>
-      <c r="W106" s="1"/>
+      <c r="W106" s="1">
+        <v>216</v>
+      </c>
       <c r="X106" s="1">
+        <v>309</v>
+      </c>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -8535,12 +9172,18 @@
       <c r="V107" s="1">
         <v>253</v>
       </c>
-      <c r="W107" s="1"/>
+      <c r="W107" s="1">
+        <v>126</v>
+      </c>
       <c r="X107" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -8607,11 +9250,17 @@
       <c r="V108">
         <v>1428531</v>
       </c>
+      <c r="W108">
+        <v>31336</v>
+      </c>
       <c r="X108">
+        <v>36137</v>
+      </c>
+      <c r="Z108">
         <v>38927</v>
       </c>
     </row>
-    <row r="109" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -8678,11 +9327,17 @@
       <c r="V109">
         <v>15575050</v>
       </c>
+      <c r="W109">
+        <v>31406</v>
+      </c>
       <c r="X109">
+        <v>76031</v>
+      </c>
+      <c r="Z109">
         <v>134744</v>
       </c>
     </row>
-    <row r="110" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -8749,11 +9404,17 @@
       <c r="V110">
         <v>14667336</v>
       </c>
+      <c r="W110">
+        <v>70</v>
+      </c>
       <c r="X110">
+        <v>39894</v>
+      </c>
+      <c r="Z110">
         <v>95717</v>
       </c>
     </row>
-    <row r="111" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -8820,12 +9481,18 @@
       <c r="V111" s="1">
         <v>65884</v>
       </c>
-      <c r="W111" s="1"/>
+      <c r="W111" s="1">
+        <v>4</v>
+      </c>
       <c r="X111" s="1">
+        <v>194</v>
+      </c>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:24 1031:1031" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -8892,12 +9559,18 @@
       <c r="V112" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="W112" s="1"/>
+      <c r="W112" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="X112" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="1:24 1031:1031" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -8964,20 +9637,26 @@
       <c r="V113" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="W113" s="1"/>
+      <c r="W113" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="X113" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:24 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="AMQ114"/>
-    </row>
-    <row r="115" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS114"/>
+    </row>
+    <row r="115" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -9044,11 +9723,17 @@
       <c r="V115">
         <v>5556</v>
       </c>
+      <c r="W115">
+        <v>216</v>
+      </c>
       <c r="X115">
+        <v>302</v>
+      </c>
+      <c r="Z115">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -9115,11 +9800,17 @@
       <c r="V116">
         <v>1276863</v>
       </c>
+      <c r="W116">
+        <v>31336</v>
+      </c>
       <c r="X116">
+        <v>34701</v>
+      </c>
+      <c r="Z116">
         <v>30994</v>
       </c>
     </row>
-    <row r="117" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -9186,11 +9877,17 @@
       <c r="V117">
         <v>886326</v>
       </c>
+      <c r="W117">
+        <v>23121</v>
+      </c>
       <c r="X117">
+        <v>30761</v>
+      </c>
+      <c r="Z117">
         <v>25721</v>
       </c>
     </row>
-    <row r="118" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -9257,11 +9954,17 @@
       <c r="V118">
         <v>252995</v>
       </c>
+      <c r="W118">
+        <v>5647</v>
+      </c>
       <c r="X118">
+        <v>1899</v>
+      </c>
+      <c r="Z118">
         <v>2400</v>
       </c>
     </row>
-    <row r="119" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -9328,19 +10031,25 @@
       <c r="V119">
         <v>137542</v>
       </c>
+      <c r="W119">
+        <v>2568</v>
+      </c>
       <c r="X119">
+        <v>2041</v>
+      </c>
+      <c r="Z119">
         <v>2873</v>
       </c>
     </row>
-    <row r="120" spans="1:24 1031:1031" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="AMQ120"/>
-    </row>
-    <row r="121" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+      <c r="AMS120"/>
+    </row>
+    <row r="121" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -9407,11 +10116,17 @@
       <c r="V121">
         <v>644</v>
       </c>
+      <c r="W121">
+        <v>5</v>
+      </c>
       <c r="X121">
+        <v>121</v>
+      </c>
+      <c r="Z121">
         <v>1400</v>
       </c>
     </row>
-    <row r="122" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -9478,11 +10193,17 @@
       <c r="V122">
         <v>298</v>
       </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
       <c r="X122">
+        <v>25</v>
+      </c>
+      <c r="Z122">
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -9549,11 +10270,17 @@
       <c r="V123">
         <v>80</v>
       </c>
+      <c r="W123">
+        <v>1</v>
+      </c>
       <c r="X123">
+        <v>18</v>
+      </c>
+      <c r="Z123">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -9620,11 +10347,17 @@
       <c r="V124">
         <v>4</v>
       </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
       <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -9691,35 +10424,46 @@
       <c r="V125">
         <v>7</v>
       </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
       <c r="X125">
+        <v>24</v>
+      </c>
+      <c r="Z125">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:24 1031:1031" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
       <c r="M126" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:XFD17 A97:T98 W97:XFD99 A5:XFD13 N14:XFD16 A19:XFD96">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:W17 A97:T98 Y97:XFD99 N14:XFD15 A5:XFD13 N16:W16 Y16:XFD17 A19:XFD96">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(I99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(M14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U97:V99">
+  <conditionalFormatting sqref="U97:X99">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(U97))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16:X17">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(U97))=0</formula>
+      <formula>LEN(TRIM(X16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -9752,8 +10496,8 @@
     <hyperlink ref="P18" r:id="rId27" xr:uid="{DE64FE4F-5191-4D4B-99AA-5E5853B4955B}"/>
     <hyperlink ref="Q4" r:id="rId28" xr:uid="{D2154319-E769-4F80-BFD5-826CC22A5BC1}"/>
     <hyperlink ref="Q18" r:id="rId29" xr:uid="{9520AF1F-3BAD-4670-A93C-B66AE904A1DD}"/>
-    <hyperlink ref="X4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
-    <hyperlink ref="X18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
+    <hyperlink ref="Z4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
+    <hyperlink ref="Z18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
     <hyperlink ref="S4" r:id="rId32" xr:uid="{59640F79-3350-4895-9A1B-3D11F819338B}"/>
     <hyperlink ref="S18" r:id="rId33" xr:uid="{F7C40DBC-F537-4FBC-903C-96A2745DCFAD}"/>
     <hyperlink ref="T4" r:id="rId34" xr:uid="{F7D9EFEC-A89C-4C3B-A745-E7D85EC8741D}"/>
@@ -9762,9 +10506,13 @@
     <hyperlink ref="U4" r:id="rId37" xr:uid="{2C6ACBF6-62CB-411D-99A1-F24E14D87379}"/>
     <hyperlink ref="V4" r:id="rId38" xr:uid="{4E887506-899A-4479-A3C2-731A07854A98}"/>
     <hyperlink ref="V18" r:id="rId39" display="https://github.com/Kitware/ParaView" xr:uid="{92A0AAFD-23D1-4E58-BDA7-6AC59A3E0CD9}"/>
+    <hyperlink ref="W4" r:id="rId40" xr:uid="{27766616-4705-40FC-9D30-AFE13CD3894D}"/>
+    <hyperlink ref="W18" r:id="rId41" xr:uid="{6FC697C3-7577-4B2A-BAD6-4C19C2A62E9A}"/>
+    <hyperlink ref="X4" r:id="rId42" xr:uid="{680D114B-FB9E-4B4D-AE51-A563987641B0}"/>
+    <hyperlink ref="X18" r:id="rId43" xr:uid="{3073FDDE-5EDF-4D1F-A2B4-1D07DDF94B8E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6F70B5-17EB-4911-B84D-B0065EE8E342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30D939-261F-43D2-BFD2-F76590EF7DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="557">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -2080,6 +2080,66 @@
   <si>
     <t>yes
 https://github.com/ayselafsar/dicomviewer/releases</t>
+  </si>
+  <si>
+    <t>INVESALIUS 3</t>
+  </si>
+  <si>
+    <t>https://invesalius.github.io/</t>
+  </si>
+  <si>
+    <t>Centro de Tecnologia da Informação Renato Archer (CTI), in Brazil</t>
+  </si>
+  <si>
+    <t>A free software for reconstruction of computed tomography and magnetic ressonance images.</t>
+  </si>
+  <si>
+    <t>115, 156, 35, 62, 61</t>
+  </si>
+  <si>
+    <t>1, 2, 1, 1, 18, 10, 7, 6, 10, 6, 2, 0</t>
+  </si>
+  <si>
+    <t>GPL-2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/invesalius/invesalius3</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>8, Windows</t>
+  </si>
+  <si>
+    <t>The user manual is very detailed and clear.</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>yes
+Authors
+Bug tracker
+Change request
+Executable files
+Installation Guide
+License
+Project Plan
+README
+Release notes
+Source code
+Test cases
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+Watershed algorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/invesalius/invesalius3/blob/master/changelog.md</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2330,28 @@
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2616,11 +2697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMS126"/>
+  <dimension ref="A1:AMT126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A89" sqref="A89:B89"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y106" sqref="Y106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2638,12 +2719,12 @@
     <col min="17" max="17" width="29.88671875" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
     <col min="19" max="22" width="37" customWidth="1"/>
-    <col min="23" max="24" width="35.88671875" customWidth="1"/>
-    <col min="25" max="25" width="37" customWidth="1"/>
-    <col min="26" max="26" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="35.88671875" customWidth="1"/>
+    <col min="26" max="26" width="37" customWidth="1"/>
+    <col min="27" max="27" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26 1033:1033" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27 1034:1034" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2652,9 +2733,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="AMS1" s="1"/>
-    </row>
-    <row r="2" spans="1:26 1033:1033" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="AMT1" s="1"/>
+    </row>
+    <row r="2" spans="1:27 1034:1034" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2669,12 +2750,13 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
-      <c r="Z2" s="6" t="s">
+      <c r="Y2" s="5"/>
+      <c r="AA2" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="AMS2" s="7"/>
-    </row>
-    <row r="3" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+      <c r="AMT2" s="7"/>
+    </row>
+    <row r="3" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2747,11 +2829,14 @@
       <c r="X3" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2824,12 +2909,15 @@
       <c r="X4" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:26 1033:1033" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27 1034:1034" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2902,12 +2990,15 @@
       <c r="X5" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26 1033:1033" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="Y5" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27 1034:1034" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2980,12 +3071,15 @@
       <c r="X6" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -3058,12 +3152,15 @@
       <c r="X7" s="1">
         <v>5</v>
       </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1">
+      <c r="Y7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:26 1033:1033" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27 1034:1034" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3136,12 +3233,15 @@
       <c r="X8" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -3160,7 +3260,7 @@
         <v>161</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:X9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <f t="shared" ref="F9:Y9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
         <v>stars: 255, forks:152, watching: 48</v>
       </c>
       <c r="G9" s="1" t="str">
@@ -3235,13 +3335,17 @@
         <f t="shared" si="0"/>
         <v>stars: 121, forks:25, watching: 18</v>
       </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1" t="str">
-        <f>"stars: " &amp; Z121 &amp; ", forks:" &amp; Z122 &amp; ", watching: " &amp; Z123</f>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 292, forks:131, watching: 36</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1" t="str">
+        <f>"stars: " &amp; AA121 &amp; ", forks:" &amp; AA122 &amp; ", watching: " &amp; AA123</f>
         <v>stars: 1400, forks:456, watching: 155</v>
       </c>
     </row>
-    <row r="10" spans="1:26 1033:1033" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27 1034:1034" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
@@ -3314,12 +3418,15 @@
       <c r="X10" s="10">
         <v>2018</v>
       </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10">
+      <c r="Y10" s="10">
+        <v>2009</v>
+      </c>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10">
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:26 1033:1033" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27 1034:1034" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -3392,11 +3499,14 @@
       <c r="X11" s="13">
         <v>43928</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="Y11" s="13">
+        <v>44080</v>
+      </c>
+      <c r="AA11" s="13">
         <v>44104</v>
       </c>
     </row>
-    <row r="12" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -3469,12 +3579,15 @@
       <c r="X12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3547,12 +3660,15 @@
       <c r="X13" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -3625,9 +3741,12 @@
       <c r="X14" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:26 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="Y14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:27 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -3700,12 +3819,15 @@
       <c r="X15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3778,12 +3900,15 @@
       <c r="X16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -3856,12 +3981,15 @@
       <c r="X17" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1" t="s">
+      <c r="Y17" s="23">
+        <v>2600</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3934,12 +4062,15 @@
       <c r="X18" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="9" t="s">
+      <c r="Y18" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:26 1033:1033" ht="66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27 1034:1034" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -4012,12 +4143,15 @@
       <c r="X19" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:26 1033:1033" ht="66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27 1034:1034" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -4090,26 +4224,29 @@
       <c r="X20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:26 1033:1033" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27 1034:1034" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:26 1033:1033" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27 1034:1034" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="AMS22"/>
-    </row>
-    <row r="23" spans="1:26 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="AMT22"/>
+    </row>
+    <row r="23" spans="1:27 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -4182,12 +4319,15 @@
       <c r="X23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -4260,9 +4400,12 @@
       <c r="X24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -4335,9 +4478,12 @@
       <c r="X25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -4410,9 +4556,12 @@
       <c r="X26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -4485,9 +4634,12 @@
       <c r="X27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -4560,9 +4712,12 @@
       <c r="X28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -4635,9 +4790,12 @@
       <c r="X29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:26 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Y29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -4710,9 +4868,12 @@
       <c r="X30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:26 1033:1033" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:27 1034:1034" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -4785,9 +4946,12 @@
       <c r="X31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y31" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4860,9 +5024,12 @@
       <c r="X32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -4935,9 +5102,12 @@
       <c r="X33" s="1">
         <v>1</v>
       </c>
-      <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -5010,9 +5180,12 @@
       <c r="X34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -5085,9 +5258,12 @@
       <c r="X35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -5160,9 +5336,12 @@
       <c r="X36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -5235,9 +5414,12 @@
       <c r="X37" s="1">
         <v>3</v>
       </c>
-      <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="1:25 1033:1033" ht="66" x14ac:dyDescent="0.25">
+      <c r="Y37" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26 1034:1034" ht="66" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -5253,16 +5435,17 @@
       <c r="X38" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="39" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="AMS39"/>
-    </row>
-    <row r="40" spans="1:25 1033:1033" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="AMT39"/>
+    </row>
+    <row r="40" spans="1:26 1034:1034" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -5335,9 +5518,12 @@
       <c r="X40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25 1033:1033" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="Y40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26 1034:1034" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -5410,9 +5596,12 @@
       <c r="X41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -5485,9 +5674,12 @@
       <c r="X42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -5560,9 +5752,12 @@
       <c r="X43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Y43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -5635,9 +5830,12 @@
       <c r="X44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -5710,9 +5908,12 @@
       <c r="X45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -5785,9 +5986,12 @@
       <c r="X46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="1:25 1033:1033" ht="66" x14ac:dyDescent="0.25">
+      <c r="Y46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26 1034:1034" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -5860,9 +6064,12 @@
       <c r="X47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -5935,23 +6142,26 @@
       <c r="X48" s="1">
         <v>2</v>
       </c>
-      <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="1:25 1033:1033" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="1:26 1034:1034" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="AMS50"/>
-    </row>
-    <row r="51" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="AMT50"/>
+    </row>
+    <row r="51" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -6024,9 +6234,12 @@
       <c r="X51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -6099,9 +6312,12 @@
       <c r="X52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y52" s="1"/>
-    </row>
-    <row r="53" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -6174,9 +6390,12 @@
       <c r="X53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -6249,9 +6468,12 @@
       <c r="X54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z54" s="1"/>
+    </row>
+    <row r="55" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -6324,9 +6546,12 @@
       <c r="X55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -6399,8 +6624,11 @@
       <c r="X56" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y56" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
@@ -6408,16 +6636,17 @@
       <c r="X57" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="58" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="AMS58"/>
-    </row>
-    <row r="59" spans="1:25 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="AMT58"/>
+    </row>
+    <row r="59" spans="1:26 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -6490,9 +6719,12 @@
       <c r="X59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Y59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -6565,9 +6797,12 @@
       <c r="X60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y60" s="1"/>
-    </row>
-    <row r="61" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -6640,9 +6875,12 @@
       <c r="X61" s="1">
         <v>5</v>
       </c>
-      <c r="Y61" s="1"/>
-    </row>
-    <row r="62" spans="1:25 1033:1033" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y61" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="1:26 1034:1034" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -6651,15 +6889,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="AMS63"/>
-    </row>
-    <row r="64" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="AMT63"/>
+    </row>
+    <row r="64" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -6732,9 +6970,12 @@
       <c r="X64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y64" s="1"/>
-    </row>
-    <row r="65" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -6807,9 +7048,12 @@
       <c r="X65" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y65" s="1"/>
-    </row>
-    <row r="66" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z65" s="1"/>
+    </row>
+    <row r="66" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -6882,9 +7126,12 @@
       <c r="X66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y66" s="1"/>
-    </row>
-    <row r="67" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Y66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -6957,9 +7204,12 @@
       <c r="X67" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y67" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -7032,9 +7282,12 @@
       <c r="X68" s="1">
         <v>4</v>
       </c>
-      <c r="Y68" s="1"/>
-    </row>
-    <row r="69" spans="1:25 1033:1033" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y68" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26 1034:1034" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
@@ -7046,16 +7299,19 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-    </row>
-    <row r="70" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="AMS70"/>
-    </row>
-    <row r="71" spans="1:25 1033:1033" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AMT70"/>
+    </row>
+    <row r="71" spans="1:26 1034:1034" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
@@ -7128,9 +7384,12 @@
       <c r="X71" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="Y71" s="26"/>
-    </row>
-    <row r="72" spans="1:25 1033:1033" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="Y71" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z71" s="26"/>
+    </row>
+    <row r="72" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -7203,9 +7462,12 @@
       <c r="X72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y72" s="1"/>
-    </row>
-    <row r="73" spans="1:25 1033:1033" ht="290.39999999999998" x14ac:dyDescent="0.25">
+      <c r="Y72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="1:26 1034:1034" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -7278,9 +7540,12 @@
       <c r="X73" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Y73" s="1"/>
-    </row>
-    <row r="74" spans="1:25 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="Y73" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" spans="1:26 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -7353,9 +7618,12 @@
       <c r="X74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Y74" s="1"/>
-    </row>
-    <row r="75" spans="1:25 1033:1033" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z74" s="1"/>
+    </row>
+    <row r="75" spans="1:26 1034:1034" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>98</v>
       </c>
@@ -7428,8 +7696,11 @@
       <c r="X75" s="19">
         <v>0.69810000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:25 1033:1033" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y75" s="19">
+        <v>0.63570000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26 1034:1034" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>100</v>
       </c>
@@ -7521,12 +7792,16 @@
         <v>0.18020806739851927</v>
       </c>
       <c r="X76" s="14">
-        <f t="shared" ref="X76" si="5">X118/X116</f>
+        <f t="shared" ref="X76:Y76" si="5">X118/X116</f>
         <v>5.4724647704677096E-2</v>
       </c>
-      <c r="Y76" s="14"/>
-    </row>
-    <row r="77" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y76" s="14">
+        <f t="shared" si="5"/>
+        <v>8.3737864077669907E-2</v>
+      </c>
+      <c r="Z76" s="14"/>
+    </row>
+    <row r="77" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -7599,9 +7874,12 @@
       <c r="X77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Y77" s="1"/>
-    </row>
-    <row r="78" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z77" s="1"/>
+    </row>
+    <row r="78" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -7674,22 +7952,25 @@
       <c r="X78" s="1">
         <v>3</v>
       </c>
-      <c r="Y78" s="1"/>
-    </row>
-    <row r="79" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y78" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z78" s="1"/>
+    </row>
+    <row r="79" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="AMS80"/>
-    </row>
-    <row r="81" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="AMT80"/>
+    </row>
+    <row r="81" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -7781,12 +8062,16 @@
         <v>216</v>
       </c>
       <c r="X81" s="8">
-        <f t="shared" ref="X81" si="7">X106</f>
+        <f t="shared" ref="X81:Y81" si="7">X106</f>
         <v>309</v>
       </c>
-      <c r="Y81" s="8"/>
-    </row>
-    <row r="82" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y81" s="8">
+        <f t="shared" si="7"/>
+        <v>243</v>
+      </c>
+      <c r="Z81" s="8"/>
+    </row>
+    <row r="82" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -7859,9 +8144,12 @@
       <c r="X82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y82" s="1"/>
-    </row>
-    <row r="83" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z82" s="1"/>
+    </row>
+    <row r="83" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -7934,23 +8222,26 @@
       <c r="X83" s="1">
         <v>5</v>
       </c>
-      <c r="Y83" s="1"/>
-    </row>
-    <row r="84" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y83" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="1"/>
+    </row>
+    <row r="84" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:25 1033:1033" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26 1034:1034" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="AMS85"/>
-    </row>
-    <row r="86" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="AMT85"/>
+    </row>
+    <row r="86" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -8023,9 +8314,12 @@
       <c r="X86" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y86" s="1"/>
-    </row>
-    <row r="87" spans="1:25 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Y86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z86" s="1"/>
+    </row>
+    <row r="87" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -8098,9 +8392,12 @@
       <c r="X87" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y87" s="1"/>
-    </row>
-    <row r="88" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z87" s="1"/>
+    </row>
+    <row r="88" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -8173,9 +8470,12 @@
       <c r="X88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y88" s="1"/>
-    </row>
-    <row r="89" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z88" s="1"/>
+    </row>
+    <row r="89" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -8248,9 +8548,12 @@
       <c r="X89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y89" s="1"/>
-    </row>
-    <row r="90" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z89" s="1"/>
+    </row>
+    <row r="90" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -8323,9 +8626,12 @@
       <c r="X90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y90" s="1"/>
-    </row>
-    <row r="91" spans="1:25 1033:1033" ht="66" x14ac:dyDescent="0.25">
+      <c r="Y90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z90" s="1"/>
+    </row>
+    <row r="91" spans="1:26 1034:1034" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -8398,9 +8704,12 @@
       <c r="X91" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y91" s="1"/>
-    </row>
-    <row r="92" spans="1:25 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="Y91" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z91" s="1"/>
+    </row>
+    <row r="92" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -8473,9 +8782,12 @@
       <c r="X92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y92" s="1"/>
-    </row>
-    <row r="93" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z92" s="1"/>
+    </row>
+    <row r="93" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -8548,9 +8860,12 @@
       <c r="X93" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y93" s="1"/>
-    </row>
-    <row r="94" spans="1:25 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z93" s="1"/>
+    </row>
+    <row r="94" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -8623,22 +8938,25 @@
       <c r="X94" s="1">
         <v>6</v>
       </c>
-      <c r="Y94" s="1"/>
-    </row>
-    <row r="95" spans="1:25 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y94" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="1"/>
+    </row>
+    <row r="95" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:25 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="AMS96"/>
-    </row>
-    <row r="97" spans="1:26 1033:1033" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="AMT96"/>
+    </row>
+    <row r="97" spans="1:27 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -8711,9 +9029,12 @@
       <c r="X97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="1:26 1033:1033" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="Y97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z97" s="1"/>
+    </row>
+    <row r="98" spans="1:27 1034:1034" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8786,9 +9107,12 @@
       <c r="X98" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y98" s="1"/>
-    </row>
-    <row r="99" spans="1:26 1033:1033" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="Y98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z98" s="1"/>
+    </row>
+    <row r="99" spans="1:27 1034:1034" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -8861,9 +9185,12 @@
       <c r="X99" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="Y99" s="1"/>
-    </row>
-    <row r="100" spans="1:26 1033:1033" ht="66" x14ac:dyDescent="0.25">
+      <c r="Y99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z99" s="1"/>
+    </row>
+    <row r="100" spans="1:27 1034:1034" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -8936,9 +9263,12 @@
       <c r="X100" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="Y100" s="1"/>
-    </row>
-    <row r="101" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+      <c r="Y100" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z100" s="1"/>
+    </row>
+    <row r="101" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -9011,23 +9341,26 @@
       <c r="X101" s="1">
         <v>6</v>
       </c>
-      <c r="Y101" s="1"/>
-    </row>
-    <row r="102" spans="1:26 1033:1033" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y101" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="1"/>
+    </row>
+    <row r="102" spans="1:27 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:26 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="AMS105"/>
-    </row>
-    <row r="106" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+      <c r="AMT105"/>
+    </row>
+    <row r="106" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -9100,12 +9433,15 @@
       <c r="X106" s="1">
         <v>309</v>
       </c>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1">
+      <c r="Y106" s="1">
+        <v>243</v>
+      </c>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -9178,12 +9514,15 @@
       <c r="X107" s="1">
         <v>19</v>
       </c>
-      <c r="Y107" s="1"/>
-      <c r="Z107" s="1">
+      <c r="Y107" s="1">
+        <v>636</v>
+      </c>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -9256,11 +9595,14 @@
       <c r="X108">
         <v>36137</v>
       </c>
-      <c r="Z108">
+      <c r="Y108">
+        <v>145854</v>
+      </c>
+      <c r="AA108">
         <v>38927</v>
       </c>
     </row>
-    <row r="109" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -9333,11 +9675,14 @@
       <c r="X109">
         <v>76031</v>
       </c>
-      <c r="Z109">
+      <c r="Y109">
+        <v>446070</v>
+      </c>
+      <c r="AA109">
         <v>134744</v>
       </c>
     </row>
-    <row r="110" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -9410,11 +9755,14 @@
       <c r="X110">
         <v>39894</v>
       </c>
-      <c r="Z110">
+      <c r="Y110">
+        <v>300216</v>
+      </c>
+      <c r="AA110">
         <v>95717</v>
       </c>
     </row>
-    <row r="111" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -9487,12 +9835,15 @@
       <c r="X111" s="1">
         <v>194</v>
       </c>
-      <c r="Y111" s="1"/>
-      <c r="Z111" s="1">
+      <c r="Y111" s="1">
+        <v>2138</v>
+      </c>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:26 1033:1033" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -9565,12 +9916,15 @@
       <c r="X112" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1" t="s">
+      <c r="Y112" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -9643,20 +9997,23 @@
       <c r="X113" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="1" t="s">
+      <c r="Y113" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:26 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="AMS114"/>
-    </row>
-    <row r="115" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+      <c r="AMT114"/>
+    </row>
+    <row r="115" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -9729,11 +10086,14 @@
       <c r="X115">
         <v>302</v>
       </c>
-      <c r="Z115">
+      <c r="Y115">
+        <v>156</v>
+      </c>
+      <c r="AA115">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -9806,11 +10166,14 @@
       <c r="X116">
         <v>34701</v>
       </c>
-      <c r="Z116">
+      <c r="Y116">
+        <v>59328</v>
+      </c>
+      <c r="AA116">
         <v>30994</v>
       </c>
     </row>
-    <row r="117" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -9883,11 +10246,14 @@
       <c r="X117">
         <v>30761</v>
       </c>
-      <c r="Z117">
+      <c r="Y117">
+        <v>48605</v>
+      </c>
+      <c r="AA117">
         <v>25721</v>
       </c>
     </row>
-    <row r="118" spans="1:26 1033:1033" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -9960,11 +10326,14 @@
       <c r="X118">
         <v>1899</v>
       </c>
-      <c r="Z118">
+      <c r="Y118">
+        <v>4968</v>
+      </c>
+      <c r="AA118">
         <v>2400</v>
       </c>
     </row>
-    <row r="119" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -10037,19 +10406,22 @@
       <c r="X119">
         <v>2041</v>
       </c>
-      <c r="Z119">
+      <c r="Y119">
+        <v>5755</v>
+      </c>
+      <c r="AA119">
         <v>2873</v>
       </c>
     </row>
-    <row r="120" spans="1:26 1033:1033" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="AMS120"/>
-    </row>
-    <row r="121" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+      <c r="AMT120"/>
+    </row>
+    <row r="121" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -10122,11 +10494,14 @@
       <c r="X121">
         <v>121</v>
       </c>
-      <c r="Z121">
+      <c r="Y121">
+        <v>292</v>
+      </c>
+      <c r="AA121">
         <v>1400</v>
       </c>
     </row>
-    <row r="122" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -10199,11 +10574,14 @@
       <c r="X122">
         <v>25</v>
       </c>
-      <c r="Z122">
+      <c r="Y122">
+        <v>131</v>
+      </c>
+      <c r="AA122">
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -10276,11 +10654,14 @@
       <c r="X123">
         <v>18</v>
       </c>
-      <c r="Z123">
+      <c r="Y123">
+        <v>36</v>
+      </c>
+      <c r="AA123">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -10353,11 +10734,14 @@
       <c r="X124">
         <v>0</v>
       </c>
-      <c r="Z124">
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -10430,40 +10814,53 @@
       <c r="X125">
         <v>24</v>
       </c>
-      <c r="Z125">
+      <c r="Y125">
+        <v>105</v>
+      </c>
+      <c r="AA125">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:26 1033:1033" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
       <c r="M126" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:W17 A97:T98 Y97:XFD99 N14:XFD15 A5:XFD13 N16:W16 Y16:XFD17 A19:XFD96">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:W17 A97:T98 Z97:XFD99 N14:XFD14 N16:W16 A5:XFD13 N15:X15 Z15:XFD17 A19:XFD96">
+    <cfRule type="containsBlanks" dxfId="1" priority="7">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="7" priority="6">
       <formula>LEN(TRIM(I99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="6" priority="5">
       <formula>LEN(TRIM(M14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U97:X99">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="U97:Y99">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(U97))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X17">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="X17:Y17 X16">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(X16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(Y15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(Y16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10496,8 +10893,8 @@
     <hyperlink ref="P18" r:id="rId27" xr:uid="{DE64FE4F-5191-4D4B-99AA-5E5853B4955B}"/>
     <hyperlink ref="Q4" r:id="rId28" xr:uid="{D2154319-E769-4F80-BFD5-826CC22A5BC1}"/>
     <hyperlink ref="Q18" r:id="rId29" xr:uid="{9520AF1F-3BAD-4670-A93C-B66AE904A1DD}"/>
-    <hyperlink ref="Z4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
-    <hyperlink ref="Z18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
+    <hyperlink ref="AA4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
+    <hyperlink ref="AA18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
     <hyperlink ref="S4" r:id="rId32" xr:uid="{59640F79-3350-4895-9A1B-3D11F819338B}"/>
     <hyperlink ref="S18" r:id="rId33" xr:uid="{F7C40DBC-F537-4FBC-903C-96A2745DCFAD}"/>
     <hyperlink ref="T4" r:id="rId34" xr:uid="{F7D9EFEC-A89C-4C3B-A745-E7D85EC8741D}"/>
@@ -10510,9 +10907,11 @@
     <hyperlink ref="W18" r:id="rId41" xr:uid="{6FC697C3-7577-4B2A-BAD6-4C19C2A62E9A}"/>
     <hyperlink ref="X4" r:id="rId42" xr:uid="{680D114B-FB9E-4B4D-AE51-A563987641B0}"/>
     <hyperlink ref="X18" r:id="rId43" xr:uid="{3073FDDE-5EDF-4D1F-A2B4-1D07DDF94B8E}"/>
+    <hyperlink ref="Y4" r:id="rId44" xr:uid="{74DB3FB5-E120-4FD9-935D-D0B8C2F870CA}"/>
+    <hyperlink ref="Y18" r:id="rId45" xr:uid="{70CE1A57-9070-4A43-8EB4-DBC6CC7557AE}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30D939-261F-43D2-BFD2-F76590EF7DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F94757-EE04-4592-9CE8-5640BBFC5FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="613">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1501,10 +1501,6 @@
     <t>JavaScript, C++, Python, MATLAB, CSS, HTML</t>
   </si>
   <si>
-    <t>3, Windows
-for downloading the cache</t>
-  </si>
-  <si>
     <t>1
 a browser</t>
   </si>
@@ -1603,12 +1599,6 @@
   <si>
     <t>yes
 "yarn run dev"</t>
-  </si>
-  <si>
-    <t>2, Linux</t>
-  </si>
-  <si>
-    <t>Windows, Linux</t>
   </si>
   <si>
     <t>3
@@ -2140,6 +2130,247 @@
   <si>
     <t>yes
 https://github.com/invesalius/invesalius3/blob/master/changelog.md</t>
+  </si>
+  <si>
+    <t>medInria</t>
+  </si>
+  <si>
+    <t>https://med.inria.fr/</t>
+  </si>
+  <si>
+    <t>A multi-platform medical image processing and visualization software.</t>
+  </si>
+  <si>
+    <t>https://github.com/medInria/medInria-public</t>
+  </si>
+  <si>
+    <t>84, 75, 90, 313, 185</t>
+  </si>
+  <si>
+    <t>25, 18, 20, 19, 25, 26, 27, 7, 7, 19, 16, 1</t>
+  </si>
+  <si>
+    <t>BSD-4-Clause</t>
+  </si>
+  <si>
+    <t>C++, Cmake, C, Objective-C</t>
+  </si>
+  <si>
+    <t>User forum
+E-mail address
+Gitlab issue</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/medInria/medInria-public/wiki</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Build file
+Change request
+Developer's Manual
+Executable files
+Installation Guide
+License
+Makefile
+README
+Release notes
+Source code
+Test cases
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>({yes*, no , unclear})</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/medInria/medInria-public/blob/master/src/app/medInria/QSingleApplication/qtlocalpeer.cpp</t>
+  </si>
+  <si>
+    <t>yes
+vtkPolyDataAlgorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://med.inria.fr/the-app/release-notes</t>
+  </si>
+  <si>
+    <t>dicompyler</t>
+  </si>
+  <si>
+    <t>http://www.dicompyler.com/</t>
+  </si>
+  <si>
+    <t>An extensible open source radiation therapy research platform based on the DICOM standard.</t>
+  </si>
+  <si>
+    <t>0, 14, 2, 1, 1</t>
+  </si>
+  <si>
+    <t>https://github.com/bastula/dicompyler</t>
+  </si>
+  <si>
+    <t>FAQ
+Gitlab issue</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>yes
+Authors
+Bug tracker
+Change request
+Executable files
+FAQ
+License
+README
+Source code
+Test cases 
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/bastula/dicompyler/blob/master/dicompyler/main.py</t>
+  </si>
+  <si>
+    <t>MicroView</t>
+  </si>
+  <si>
+    <t>2020-01-05
+last release 2016-07-08</t>
+  </si>
+  <si>
+    <t>https://microview.parallax-innovations.com/</t>
+  </si>
+  <si>
+    <t>https://github.com/parallaxinnovations/MicroView/</t>
+  </si>
+  <si>
+    <t>Parallax Innovations</t>
+  </si>
+  <si>
+    <t>An advanced 3D image viewer and analysis platform capable of reading and writing a wide variety of 2D and 3D image formats.</t>
+  </si>
+  <si>
+    <t>0, 0, 5, 0, 1</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>https://github.com/parallaxinnovations/MicroView/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>Python, C++</t>
+  </si>
+  <si>
+    <t>FAQ
+Troubleshooting
+Gitlab issue</t>
+  </si>
+  <si>
+    <t>2.6.0</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Change request
+Executable files
+FAQ
+Installation Guide
+License
+README
+Release notes
+Source code
+Troubleshooting guide
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/parallaxinnovations/MicroView/blob/master/src/vtkImagePurify.cxx</t>
+  </si>
+  <si>
+    <t>yes
+vtkThreadedImageAlgorithm</t>
+  </si>
+  <si>
+    <t>yes
+https://microview.parallax-innovations.com/changelog/</t>
+  </si>
+  <si>
+    <t>http://mangoviewer.com/papaya.html</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>University of Texas</t>
+  </si>
+  <si>
+    <t>A pure JavaScript medical research image viewer, supporting DICOM and NIFTI formats, compatible across a range of web browsers.</t>
+  </si>
+  <si>
+    <t>272, 43, 45, 11, 0</t>
+  </si>
+  <si>
+    <t>https://github.com/rii-mango/Papaya/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>Browser Firefox, Chrome, Safari and IE</t>
+  </si>
+  <si>
+    <t>https://github.com/rii-mango/Papaya</t>
+  </si>
+  <si>
+    <t>yes
+browser versions</t>
+  </si>
+  <si>
+    <t>1, Windows + Chrome</t>
+  </si>
+  <si>
+    <t>Windows + Chrome</t>
+  </si>
+  <si>
+    <t>2, Windows + Chrome</t>
+  </si>
+  <si>
+    <t>3, Windows + Chrome
+for downloading the cache</t>
+  </si>
+  <si>
+    <t>Windows, Linux + Chrome</t>
+  </si>
+  <si>
+    <t>2, Linux + Chrome</t>
+  </si>
+  <si>
+    <t>User forum
+Gitlab issue</t>
+  </si>
+  <si>
+    <t>build - 1449</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Build file
+Change request
+Installation Guide
+License
+README
+Source code
+Test cases 
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>yes
+https://github.com/rii-mango/Papaya/blob/master/src/js/viewer/atlas.js</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2561,91 @@
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2697,11 +3012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMT126"/>
+  <dimension ref="A1:AMX126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y106" sqref="Y106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC116" sqref="AC116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2719,12 +3034,12 @@
     <col min="17" max="17" width="29.88671875" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
     <col min="19" max="22" width="37" customWidth="1"/>
-    <col min="23" max="25" width="35.88671875" customWidth="1"/>
-    <col min="26" max="26" width="37" customWidth="1"/>
-    <col min="27" max="27" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="35.88671875" customWidth="1"/>
+    <col min="30" max="30" width="37" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27 1034:1034" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31 1038:1038" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2733,9 +3048,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="AMT1" s="1"/>
+      <c r="AMX1" s="1"/>
     </row>
-    <row r="2" spans="1:27 1034:1034" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31 1038:1038" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2744,19 +3059,23 @@
       </c>
       <c r="C2" s="5"/>
       <c r="T2" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-      <c r="AA2" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AMT2" s="7"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AE2" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AMX2" s="7"/>
     </row>
-    <row r="3" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2809,34 +3128,46 @@
         <v>394</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>413</v>
+        <v>569</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2889,35 +3220,47 @@
         <v>393</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="Z4" s="16"/>
+        <v>540</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>555</v>
+      </c>
       <c r="AA4" s="16" t="s">
-        <v>412</v>
+        <v>570</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:27 1034:1034" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31 1038:1038" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2970,35 +3313,47 @@
         <v>400</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="W5" s="8" t="s">
         <v>161</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:27 1034:1034" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31 1038:1038" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -3051,35 +3406,47 @@
         <v>395</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z6" s="1"/>
+        <v>542</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="AA6" s="1" t="s">
-        <v>414</v>
+        <v>571</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +3508,7 @@
         <v>45</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="V7" s="1">
         <v>100</v>
@@ -3155,12 +3522,24 @@
       <c r="Y7" s="1">
         <v>10</v>
       </c>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="1">
+        <v>21</v>
+      </c>
       <c r="AA7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:27 1034:1034" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31 1038:1038" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3222,26 +3601,38 @@
         <v>162</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>162</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="AA8" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="AB8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="9" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -3260,7 +3651,7 @@
         <v>161</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:Y9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <f t="shared" ref="F9:Z9" si="0">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
         <v>stars: 255, forks:152, watching: 48</v>
       </c>
       <c r="G9" s="1" t="str">
@@ -3339,13 +3730,29 @@
         <f t="shared" si="0"/>
         <v>stars: 292, forks:131, watching: 36</v>
       </c>
-      <c r="Z9" s="1"/>
+      <c r="Z9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>stars: 53, forks:47, watching: 30</v>
+      </c>
       <c r="AA9" s="1" t="str">
-        <f>"stars: " &amp; AA121 &amp; ", forks:" &amp; AA122 &amp; ", watching: " &amp; AA123</f>
+        <f t="shared" ref="AA9:AB9" si="1">"stars: " &amp; AA121 &amp; ", forks:" &amp; AA122 &amp; ", watching: " &amp; AA123</f>
+        <v>stars: 186, forks:80, watching: 27</v>
+      </c>
+      <c r="AB9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>stars: 8, forks:6, watching: 4</v>
+      </c>
+      <c r="AC9" s="1" t="str">
+        <f t="shared" ref="AC9" si="2">"stars: " &amp; AC121 &amp; ", forks:" &amp; AC122 &amp; ", watching: " &amp; AC123</f>
+        <v>stars: 379, forks:152, watching: 46</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1" t="str">
+        <f>"stars: " &amp; AE121 &amp; ", forks:" &amp; AE122 &amp; ", watching: " &amp; AE123</f>
         <v>stars: 1400, forks:456, watching: 155</v>
       </c>
     </row>
-    <row r="10" spans="1:27 1034:1034" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31 1038:1038" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
@@ -3421,12 +3828,24 @@
       <c r="Y10" s="10">
         <v>2009</v>
       </c>
-      <c r="Z10" s="10"/>
+      <c r="Z10" s="10">
+        <v>2009</v>
+      </c>
       <c r="AA10" s="10">
+        <v>2009</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>2012</v>
+      </c>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10">
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:27 1034:1034" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31 1038:1038" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -3502,11 +3921,23 @@
       <c r="Y11" s="13">
         <v>44080</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="Z11" s="13">
+        <v>44139</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>44068</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>43590</v>
+      </c>
+      <c r="AE11" s="13">
         <v>44104</v>
       </c>
     </row>
-    <row r="12" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -3574,7 +4005,7 @@
         <v>148</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>148</v>
@@ -3582,12 +4013,24 @@
       <c r="Y12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Z12" s="1"/>
+      <c r="Z12" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="AA12" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="AB12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="13" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -3646,29 +4089,41 @@
         <v>387</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="Z13" s="1"/>
+        <v>545</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="AA13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -3721,13 +4176,13 @@
         <v>367</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>151</v>
@@ -3736,17 +4191,29 @@
         <v>151</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:27 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -3822,12 +4289,24 @@
       <c r="Y15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="AA15" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="AB15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="16" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3903,12 +4382,24 @@
       <c r="Y16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Z16" s="1"/>
+      <c r="Z16" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="AA16" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="AB16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="17" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -3975,21 +4466,33 @@
       <c r="V17" s="23">
         <v>15400</v>
       </c>
-      <c r="W17" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="X17" s="23" t="s">
-        <v>162</v>
+      <c r="W17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="Y17" s="23">
         <v>2600</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1" t="s">
+      <c r="Z17" s="23">
+        <v>1140</v>
+      </c>
+      <c r="AA17" s="23">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="AC17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="18" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4042,35 +4545,47 @@
         <v>396</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z18" s="16"/>
+        <v>546</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="AA18" s="9" t="s">
-        <v>418</v>
+        <v>573</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC18" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:27 1034:1034" ht="66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31 1038:1038" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -4123,35 +4638,47 @@
         <v>402</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="Z19" s="1"/>
+        <v>547</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="AA19" s="1" t="s">
-        <v>417</v>
+        <v>547</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:27 1034:1034" ht="66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31 1038:1038" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -4207,7 +4734,7 @@
         <v>238</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>238</v>
@@ -4227,26 +4754,38 @@
       <c r="Y20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="AA20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="AC20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="21" spans="1:27 1034:1034" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31 1038:1038" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:27 1034:1034" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31 1038:1038" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="AMT22"/>
+      <c r="AMX22"/>
     </row>
-    <row r="23" spans="1:27 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -4296,13 +4835,13 @@
         <v>157</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>156</v>
@@ -4322,12 +4861,24 @@
       <c r="Y23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z23" s="1"/>
+      <c r="Z23" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="AA23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:27 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -4403,9 +4954,21 @@
       <c r="Y24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -4481,9 +5044,21 @@
       <c r="Y25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -4559,9 +5134,21 @@
       <c r="Y26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -4614,7 +5201,7 @@
         <v>157</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>157</v>
@@ -4637,9 +5224,21 @@
       <c r="Y27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z27" s="1"/>
+      <c r="Z27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -4715,9 +5314,21 @@
       <c r="Y28" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -4793,9 +5404,21 @@
       <c r="Y29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z29" s="1"/>
+      <c r="Z29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:27 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -4848,13 +5471,13 @@
         <v>161</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>161</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>157</v>
@@ -4871,9 +5494,21 @@
       <c r="Y30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z30" s="1"/>
+      <c r="Z30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:27 1034:1034" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31 1038:1038" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -4917,22 +5552,22 @@
         <v>371</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>222</v>
+        <v>605</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>243</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>403</v>
+        <v>606</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>430</v>
+        <v>608</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>161</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>333</v>
@@ -4947,11 +5582,23 @@
         <v>161</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z31" s="1"/>
+        <v>548</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4995,22 +5642,22 @@
         <v>346</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>160</v>
+        <v>604</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>160</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>160</v>
+        <v>604</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>431</v>
+        <v>607</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>160</v>
+        <v>604</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>160</v>
@@ -5027,9 +5674,21 @@
       <c r="Y32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -5073,22 +5732,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5105,9 +5764,21 @@
       <c r="Y33" s="1">
         <v>0</v>
       </c>
-      <c r="Z33" s="1"/>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,9 +5854,21 @@
       <c r="Y34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z34" s="1"/>
+      <c r="Z34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -5261,9 +5944,21 @@
       <c r="Y35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z35" s="1"/>
+      <c r="Z35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -5339,9 +6034,21 @@
       <c r="Y36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z36" s="1"/>
+      <c r="Z36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -5417,35 +6124,51 @@
       <c r="Y37" s="1">
         <v>9</v>
       </c>
-      <c r="Z37" s="1"/>
+      <c r="Z37" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:26 1034:1034" ht="66" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30 1038:1038" ht="66" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
       <c r="T38" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="AMT39"/>
+      <c r="AMX39"/>
     </row>
-    <row r="40" spans="1:26 1034:1034" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30 1038:1038" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -5521,9 +6244,21 @@
       <c r="Y40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z40" s="1"/>
+      <c r="Z40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:26 1034:1034" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30 1038:1038" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -5573,7 +6308,7 @@
         <v>162</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>188</v>
@@ -5599,9 +6334,21 @@
       <c r="Y41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z41" s="1"/>
+      <c r="Z41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -5677,9 +6424,21 @@
       <c r="Y42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z42" s="1"/>
+      <c r="Z42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -5755,9 +6514,21 @@
       <c r="Y43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z43" s="1"/>
+      <c r="Z43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -5822,7 +6593,7 @@
         <v>161</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>161</v>
@@ -5833,9 +6604,21 @@
       <c r="Y44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z44" s="1"/>
+      <c r="Z44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -5911,9 +6694,21 @@
       <c r="Y45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z45" s="1"/>
+      <c r="Z45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -5989,9 +6784,21 @@
       <c r="Y46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z46" s="1"/>
+      <c r="Z46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:26 1034:1034" ht="66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30 1038:1038" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -6044,7 +6851,7 @@
         <v>157</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>162</v>
@@ -6067,9 +6874,21 @@
       <c r="Y47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z47" s="1"/>
+      <c r="Z47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -6145,23 +6964,35 @@
       <c r="Y48" s="1">
         <v>3</v>
       </c>
-      <c r="Z48" s="1"/>
+      <c r="Z48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:26 1034:1034" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30 1038:1038" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="AMT50"/>
+      <c r="AMX50"/>
     </row>
-    <row r="51" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -6237,9 +7068,21 @@
       <c r="Y51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z51" s="1"/>
+      <c r="Z51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -6315,9 +7158,21 @@
       <c r="Y52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z52" s="1"/>
+      <c r="Z52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -6376,7 +7231,7 @@
         <v>161</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>161</v>
@@ -6393,9 +7248,21 @@
       <c r="Y53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z53" s="1"/>
+      <c r="Z53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -6471,9 +7338,21 @@
       <c r="Y54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z54" s="1"/>
+      <c r="Z54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -6549,9 +7428,21 @@
       <c r="Y55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z55" s="1"/>
+      <c r="Z55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -6627,26 +7518,42 @@
       <c r="Y56" s="1">
         <v>7</v>
       </c>
+      <c r="Z56" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="57" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
       <c r="X57" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="AMT58"/>
+      <c r="AMX58"/>
     </row>
-    <row r="59" spans="1:26 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -6699,13 +7606,13 @@
         <v>156</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>374</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>156</v>
@@ -6722,9 +7629,21 @@
       <c r="Y59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z59" s="1"/>
+      <c r="Z59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -6800,9 +7719,21 @@
       <c r="Y60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Z60" s="1"/>
+      <c r="Z60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -6878,9 +7809,21 @@
       <c r="Y61" s="1">
         <v>9</v>
       </c>
-      <c r="Z61" s="1"/>
+      <c r="Z61" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:26 1034:1034" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30 1038:1038" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -6889,15 +7832,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="AMT63"/>
+      <c r="AMX63"/>
     </row>
-    <row r="64" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -6973,9 +7916,21 @@
       <c r="Y64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z64" s="1"/>
+      <c r="Z64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -7051,9 +8006,21 @@
       <c r="Y65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z65" s="1"/>
+      <c r="Z65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -7129,9 +8096,21 @@
       <c r="Y66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z66" s="1"/>
+      <c r="Z66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -7178,13 +8157,13 @@
         <v>261</v>
       </c>
       <c r="P67" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="R67" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>261</v>
@@ -7196,20 +8175,32 @@
         <v>261</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z67" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -7285,33 +8276,49 @@
       <c r="Y68" s="1">
         <v>8</v>
       </c>
-      <c r="Z68" s="1"/>
+      <c r="Z68" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="1:26 1034:1034" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30 1038:1038" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
       <c r="T69" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1" t="s">
-        <v>552</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="AMT70"/>
+      <c r="AMX70"/>
     </row>
-    <row r="71" spans="1:26 1034:1034" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30 1038:1038" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
@@ -7361,35 +8368,47 @@
         <v>2.7</v>
       </c>
       <c r="Q71" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R71" s="26" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="S71" s="26" t="s">
         <v>162</v>
       </c>
       <c r="T71" s="26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="U71" s="26" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="V71" s="26" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="W71" s="26" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="X71" s="26" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Y71" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z71" s="26"/>
+        <v>550</v>
+      </c>
+      <c r="Z71" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA71" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB71" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC71" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD71" s="26"/>
     </row>
-    <row r="72" spans="1:26 1034:1034" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -7442,7 +8461,7 @@
         <v>157</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>157</v>
@@ -7454,7 +8473,7 @@
         <v>157</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="W72" s="1" t="s">
         <v>157</v>
@@ -7465,9 +8484,21 @@
       <c r="Y72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z72" s="1"/>
+      <c r="Z72" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:26 1034:1034" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30 1038:1038" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -7517,35 +8548,47 @@
         <v>391</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z73" s="1"/>
+        <v>551</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="1:26 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -7610,7 +8653,7 @@
         <v>168</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>168</v>
@@ -7621,9 +8664,21 @@
       <c r="Y74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z74" s="1"/>
+      <c r="Z74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="1:26 1034:1034" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30 1038:1038" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>98</v>
       </c>
@@ -7699,8 +8754,20 @@
       <c r="Y75" s="19">
         <v>0.63570000000000004</v>
       </c>
+      <c r="Z75" s="19">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="AA75" s="19">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="AB75" s="19">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AC75" s="19">
+        <v>0.76700000000000002</v>
+      </c>
     </row>
-    <row r="76" spans="1:26 1034:1034" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30 1038:1038" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>100</v>
       </c>
@@ -7720,88 +8787,104 @@
         <v>0.14357147802540177</v>
       </c>
       <c r="F76" s="14">
-        <f t="shared" ref="F76:P76" si="1">F118/F116</f>
+        <f t="shared" ref="F76:P76" si="3">F118/F116</f>
         <v>9.0424206808005059E-2</v>
       </c>
       <c r="G76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.8249975220537219</v>
       </c>
       <c r="H76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18920417988596278</v>
       </c>
       <c r="I76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.856610800744879E-2</v>
       </c>
       <c r="J76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11457425167102586</v>
       </c>
       <c r="K76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11864406779661017</v>
       </c>
       <c r="L76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13754483079621158</v>
       </c>
       <c r="M76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25902579298977751</v>
       </c>
       <c r="N76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.24160018327081126</v>
       </c>
       <c r="O76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26228216993206654</v>
       </c>
       <c r="P76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.3305090882757615E-2</v>
       </c>
       <c r="Q76" s="14">
-        <f t="shared" ref="Q76:S76" si="2">Q118/Q116</f>
+        <f t="shared" ref="Q76:S76" si="4">Q118/Q116</f>
         <v>0.14920759530935676</v>
       </c>
       <c r="R76" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.3088081941000619E-2</v>
       </c>
       <c r="S76" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1959564541213059E-2</v>
       </c>
       <c r="T76" s="14">
-        <f t="shared" ref="T76:U76" si="3">T118/T116</f>
+        <f t="shared" ref="T76:U76" si="5">T118/T116</f>
         <v>0.17526299073156176</v>
       </c>
       <c r="U76" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19381612810980842</v>
       </c>
       <c r="V76" s="14">
-        <f t="shared" ref="V76:W76" si="4">V118/V116</f>
+        <f t="shared" ref="V76:W76" si="6">V118/V116</f>
         <v>0.19813793648966255</v>
       </c>
       <c r="W76" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18020806739851927</v>
       </c>
       <c r="X76" s="14">
-        <f t="shared" ref="X76:Y76" si="5">X118/X116</f>
+        <f t="shared" ref="X76:Y76" si="7">X118/X116</f>
         <v>5.4724647704677096E-2</v>
       </c>
       <c r="Y76" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3737864077669907E-2</v>
       </c>
-      <c r="Z76" s="14"/>
+      <c r="Z76" s="14">
+        <f t="shared" ref="Z76:AA76" si="8">Z118/Z116</f>
+        <v>0.14663081819325557</v>
+      </c>
+      <c r="AA76" s="14">
+        <f t="shared" si="8"/>
+        <v>6.2809228686005941E-2</v>
+      </c>
+      <c r="AB76" s="14">
+        <f t="shared" ref="AB76:AC76" si="9">AB118/AB116</f>
+        <v>0.10397257623089044</v>
+      </c>
+      <c r="AC76" s="14">
+        <f t="shared" si="9"/>
+        <v>0.12046781178735066</v>
+      </c>
+      <c r="AD76" s="14"/>
     </row>
-    <row r="77" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -7866,7 +8949,7 @@
         <v>168</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="W77" s="1" t="s">
         <v>168</v>
@@ -7877,9 +8960,21 @@
       <c r="Y77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z77" s="1"/>
+      <c r="Z77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -7955,22 +9050,34 @@
       <c r="Y78" s="1">
         <v>7</v>
       </c>
-      <c r="Z78" s="1"/>
+      <c r="Z78" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="AMT80"/>
+      <c r="AMX80"/>
     </row>
-    <row r="81" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -7978,100 +9085,116 @@
         <v>12</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" ref="C81:W81" si="6">C106</f>
+        <f t="shared" ref="C81:W81" si="10">C106</f>
         <v>3901</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1058</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1041</v>
       </c>
       <c r="G81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>281</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
       <c r="K81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>757</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2620</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2523</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="P81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>846</v>
       </c>
       <c r="Q81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1052</v>
       </c>
       <c r="R81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1232</v>
       </c>
       <c r="S81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="T81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1838</v>
       </c>
       <c r="U81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>774</v>
       </c>
       <c r="V81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7828</v>
       </c>
       <c r="W81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="X81" s="8">
-        <f t="shared" ref="X81:Y81" si="7">X106</f>
+        <f t="shared" ref="X81:Y81" si="11">X106</f>
         <v>309</v>
       </c>
       <c r="Y81" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>243</v>
       </c>
-      <c r="Z81" s="8"/>
+      <c r="Z81" s="8">
+        <f t="shared" ref="Z81:AA81" si="12">Z106</f>
+        <v>1728</v>
+      </c>
+      <c r="AA81" s="8">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="AB81" s="8">
+        <f t="shared" ref="AB81:AC81" si="13">AB106</f>
+        <v>143</v>
+      </c>
+      <c r="AC81" s="8">
+        <f t="shared" ref="AC81" si="14">AC106</f>
+        <v>113</v>
+      </c>
+      <c r="AD81" s="8"/>
     </row>
-    <row r="82" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -8147,9 +9270,21 @@
       <c r="Y82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z82" s="1"/>
+      <c r="Z82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD82" s="1"/>
     </row>
-    <row r="83" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -8225,23 +9360,35 @@
       <c r="Y83" s="1">
         <v>5</v>
       </c>
-      <c r="Z83" s="1"/>
+      <c r="Z83" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="1"/>
     </row>
-    <row r="84" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:26 1034:1034" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30 1038:1038" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="AMT85"/>
+      <c r="AMX85"/>
     </row>
-    <row r="86" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -8317,9 +9464,21 @@
       <c r="Y86" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z86" s="1"/>
+      <c r="Z86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:26 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -8395,9 +9554,21 @@
       <c r="Y87" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z87" s="1"/>
+      <c r="Z87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD87" s="1"/>
     </row>
-    <row r="88" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -8473,14 +9644,26 @@
       <c r="Y88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z88" s="1"/>
+      <c r="Z88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD88" s="1"/>
     </row>
-    <row r="89" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>210</v>
+        <v>565</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>157</v>
@@ -8551,9 +9734,21 @@
       <c r="Y89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z89" s="1"/>
+      <c r="Z89" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -8629,9 +9824,21 @@
       <c r="Y90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z90" s="1"/>
+      <c r="Z90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:26 1034:1034" ht="66" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30 1038:1038" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -8684,19 +9891,19 @@
         <v>162</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>157</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="W91" s="1" t="s">
         <v>157</v>
@@ -8705,11 +9912,23 @@
         <v>157</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z91" s="1"/>
+        <v>552</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD91" s="1"/>
     </row>
-    <row r="92" spans="1:26 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -8785,9 +10004,21 @@
       <c r="Y92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z92" s="1"/>
+      <c r="Z92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -8863,9 +10094,21 @@
       <c r="Y93" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z93" s="1"/>
+      <c r="Z93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD93" s="1"/>
     </row>
-    <row r="94" spans="1:26 1034:1034" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -8941,22 +10184,34 @@
       <c r="Y94" s="1">
         <v>8</v>
       </c>
-      <c r="Z94" s="1"/>
+      <c r="Z94" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD94" s="1"/>
     </row>
-    <row r="95" spans="1:26 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:26 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="AMT96"/>
+      <c r="AMX96"/>
     </row>
-    <row r="97" spans="1:27 1034:1034" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -9032,9 +10287,21 @@
       <c r="Y97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z97" s="1"/>
+      <c r="Z97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD97" s="1"/>
     </row>
-    <row r="98" spans="1:27 1034:1034" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31 1038:1038" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -9099,7 +10366,7 @@
         <v>157</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="W98" s="1" t="s">
         <v>157</v>
@@ -9110,9 +10377,21 @@
       <c r="Y98" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z98" s="1"/>
+      <c r="Z98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="1:27 1034:1034" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31 1038:1038" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -9162,10 +10441,10 @@
         <v>157</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>157</v>
@@ -9183,14 +10462,26 @@
         <v>157</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Y99" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z99" s="1"/>
+      <c r="Z99" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD99" s="1"/>
     </row>
-    <row r="100" spans="1:27 1034:1034" ht="66" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31 1038:1038" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -9243,32 +10534,44 @@
         <v>157</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>157</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="V100" s="1" t="s">
         <v>157</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="Z100" s="1"/>
+        <v>553</v>
+      </c>
+      <c r="Z100" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD100" s="1"/>
     </row>
-    <row r="101" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -9344,23 +10647,35 @@
       <c r="Y101" s="1">
         <v>5</v>
       </c>
-      <c r="Z101" s="1"/>
+      <c r="Z101" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD101" s="1"/>
     </row>
-    <row r="102" spans="1:27 1034:1034" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:27 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="AMT105"/>
+      <c r="AMX105"/>
     </row>
-    <row r="106" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -9436,12 +10751,24 @@
       <c r="Y106" s="1">
         <v>243</v>
       </c>
-      <c r="Z106" s="1"/>
+      <c r="Z106" s="1">
+        <v>1728</v>
+      </c>
       <c r="AA106" s="1">
+        <v>36</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>143</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>113</v>
+      </c>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -9517,12 +10844,24 @@
       <c r="Y107" s="1">
         <v>636</v>
       </c>
-      <c r="Z107" s="1"/>
+      <c r="Z107" s="1">
+        <v>198</v>
+      </c>
       <c r="AA107" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>103</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>46</v>
+      </c>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -9598,11 +10937,23 @@
       <c r="Y108">
         <v>145854</v>
       </c>
+      <c r="Z108">
+        <v>219467</v>
+      </c>
       <c r="AA108">
+        <v>9291</v>
+      </c>
+      <c r="AB108">
+        <v>41240</v>
+      </c>
+      <c r="AC108">
+        <v>544920</v>
+      </c>
+      <c r="AE108">
         <v>38927</v>
       </c>
     </row>
-    <row r="109" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -9678,11 +11029,23 @@
       <c r="Y109">
         <v>446070</v>
       </c>
+      <c r="Z109">
+        <v>2125248</v>
+      </c>
       <c r="AA109">
+        <v>50600</v>
+      </c>
+      <c r="AB109">
+        <v>41335</v>
+      </c>
+      <c r="AC109">
+        <v>967974</v>
+      </c>
+      <c r="AE109">
         <v>134744</v>
       </c>
     </row>
-    <row r="110" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -9758,11 +11121,23 @@
       <c r="Y110">
         <v>300216</v>
       </c>
+      <c r="Z110">
+        <v>1882679</v>
+      </c>
       <c r="AA110">
+        <v>16426</v>
+      </c>
+      <c r="AB110">
+        <v>95</v>
+      </c>
+      <c r="AC110">
+        <v>423079</v>
+      </c>
+      <c r="AE110">
         <v>95717</v>
       </c>
     </row>
-    <row r="111" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -9838,12 +11213,24 @@
       <c r="Y111" s="1">
         <v>2138</v>
       </c>
-      <c r="Z111" s="1"/>
+      <c r="Z111" s="1">
+        <v>6646</v>
+      </c>
       <c r="AA111" s="1">
+        <v>207</v>
+      </c>
+      <c r="AB111" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC111" s="1">
+        <v>1060</v>
+      </c>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:27 1034:1034" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -9896,35 +11283,47 @@
         <v>397</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="Z112" s="1"/>
+        <v>543</v>
+      </c>
+      <c r="Z112" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="AA112" s="1" t="s">
-        <v>415</v>
+        <v>572</v>
+      </c>
+      <c r="AB112" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC112" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
-    <row r="113" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -9977,43 +11376,55 @@
         <v>398</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="W113" s="1" t="s">
         <v>265</v>
       </c>
       <c r="X113" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="Z113" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="AA113" s="1" t="s">
-        <v>416</v>
+        <v>357</v>
+      </c>
+      <c r="AB113" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC113" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="114" spans="1:27 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="AMT114"/>
+      <c r="AMX114"/>
     </row>
-    <row r="115" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -10089,11 +11500,23 @@
       <c r="Y115">
         <v>156</v>
       </c>
+      <c r="Z115">
+        <v>1678</v>
+      </c>
       <c r="AA115">
+        <v>48</v>
+      </c>
+      <c r="AB115">
+        <v>137</v>
+      </c>
+      <c r="AC115">
+        <v>110</v>
+      </c>
+      <c r="AE115">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -10169,11 +11592,23 @@
       <c r="Y116">
         <v>59328</v>
       </c>
+      <c r="Z116">
+        <v>214607</v>
+      </c>
       <c r="AA116">
+        <v>19201</v>
+      </c>
+      <c r="AB116">
+        <v>36173</v>
+      </c>
+      <c r="AC116">
+        <v>95594</v>
+      </c>
+      <c r="AE116">
         <v>30994</v>
       </c>
     </row>
-    <row r="117" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -10249,11 +11684,23 @@
       <c r="Y117">
         <v>48605</v>
       </c>
+      <c r="Z117">
+        <v>148924</v>
+      </c>
       <c r="AA117">
+        <v>15941</v>
+      </c>
+      <c r="AB117">
+        <v>27470</v>
+      </c>
+      <c r="AC117">
+        <v>71831</v>
+      </c>
+      <c r="AE117">
         <v>25721</v>
       </c>
     </row>
-    <row r="118" spans="1:27 1034:1034" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -10329,11 +11776,23 @@
       <c r="Y118">
         <v>4968</v>
       </c>
+      <c r="Z118">
+        <v>31468</v>
+      </c>
       <c r="AA118">
+        <v>1206</v>
+      </c>
+      <c r="AB118">
+        <v>3761</v>
+      </c>
+      <c r="AC118">
+        <v>11516</v>
+      </c>
+      <c r="AE118">
         <v>2400</v>
       </c>
     </row>
-    <row r="119" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -10409,19 +11868,31 @@
       <c r="Y119">
         <v>5755</v>
       </c>
+      <c r="Z119">
+        <v>34215</v>
+      </c>
       <c r="AA119">
+        <v>2054</v>
+      </c>
+      <c r="AB119">
+        <v>4942</v>
+      </c>
+      <c r="AC119">
+        <v>12247</v>
+      </c>
+      <c r="AE119">
         <v>2873</v>
       </c>
     </row>
-    <row r="120" spans="1:27 1034:1034" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="AMT120"/>
+      <c r="AMX120"/>
     </row>
-    <row r="121" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -10497,11 +11968,23 @@
       <c r="Y121">
         <v>292</v>
       </c>
+      <c r="Z121">
+        <v>53</v>
+      </c>
       <c r="AA121">
+        <v>186</v>
+      </c>
+      <c r="AB121">
+        <v>8</v>
+      </c>
+      <c r="AC121">
+        <v>379</v>
+      </c>
+      <c r="AE121">
         <v>1400</v>
       </c>
     </row>
-    <row r="122" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -10577,11 +12060,23 @@
       <c r="Y122">
         <v>131</v>
       </c>
+      <c r="Z122">
+        <v>47</v>
+      </c>
       <c r="AA122">
+        <v>80</v>
+      </c>
+      <c r="AB122">
+        <v>6</v>
+      </c>
+      <c r="AC122">
+        <v>152</v>
+      </c>
+      <c r="AE122">
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -10657,11 +12152,23 @@
       <c r="Y123">
         <v>36</v>
       </c>
+      <c r="Z123">
+        <v>30</v>
+      </c>
       <c r="AA123">
+        <v>27</v>
+      </c>
+      <c r="AB123">
+        <v>4</v>
+      </c>
+      <c r="AC123">
+        <v>46</v>
+      </c>
+      <c r="AE123">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -10737,11 +12244,23 @@
       <c r="Y124">
         <v>0</v>
       </c>
+      <c r="Z124">
+        <v>31</v>
+      </c>
       <c r="AA124">
+        <v>2</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -10817,50 +12336,127 @@
       <c r="Y125">
         <v>105</v>
       </c>
+      <c r="Z125">
+        <v>591</v>
+      </c>
       <c r="AA125">
+        <v>12</v>
+      </c>
+      <c r="AB125">
+        <v>1</v>
+      </c>
+      <c r="AC125">
+        <v>19</v>
+      </c>
+      <c r="AE125">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:27 1034:1034" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
       <c r="M126" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A100:XFD1048576 A14:L16 M18:XFD18 A17:W17 A97:T98 Z97:XFD99 N14:XFD14 N16:W16 A5:XFD13 N15:X15 Z15:XFD17 A19:XFD96">
-    <cfRule type="containsBlanks" dxfId="1" priority="7">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A14:L16 M18:AA18 A97:T98 AD97:XFD99 N16:W16 N15:X15 N14:Z14 A12:Z13 A5:XFD8 A17:W17 A100:XFD1048576 A9:AB11 AD9:XFD18 A19:XFD96">
+    <cfRule type="containsBlanks" dxfId="19" priority="22">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="containsBlanks" dxfId="7" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="21">
       <formula>LEN(TRIM(I99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="containsBlanks" dxfId="6" priority="5">
+    <cfRule type="containsBlanks" dxfId="17" priority="20">
       <formula>LEN(TRIM(M14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U97:Y99">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+  <conditionalFormatting sqref="U97:AC99">
+    <cfRule type="containsBlanks" dxfId="16" priority="19">
       <formula>LEN(TRIM(U97))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:Y17 X16">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
+  <conditionalFormatting sqref="Y17:AA17 X16">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
       <formula>LEN(TRIM(X16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+  <conditionalFormatting sqref="Y15:Z15">
+    <cfRule type="containsBlanks" dxfId="14" priority="17">
       <formula>LEN(TRIM(Y15))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+  <conditionalFormatting sqref="Y16:Z16">
+    <cfRule type="containsBlanks" dxfId="13" priority="16">
       <formula>LEN(TRIM(Y16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AA14">
+    <cfRule type="containsBlanks" dxfId="12" priority="15">
+      <formula>LEN(TRIM(AA12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15">
+    <cfRule type="containsBlanks" dxfId="11" priority="14">
+      <formula>LEN(TRIM(AA15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA16">
+    <cfRule type="containsBlanks" dxfId="10" priority="13">
+      <formula>LEN(TRIM(AA16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13 AB12">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
+      <formula>LEN(TRIM(AB12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB15">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
+      <formula>LEN(TRIM(AB15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB16">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
+      <formula>LEN(TRIM(AB16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
+      <formula>LEN(TRIM(X17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17:AC17">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
+      <formula>LEN(TRIM(AB17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14:AC14">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(AB14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AC11">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(AC9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(AC12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(AC15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(AC16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10893,8 +12489,8 @@
     <hyperlink ref="P18" r:id="rId27" xr:uid="{DE64FE4F-5191-4D4B-99AA-5E5853B4955B}"/>
     <hyperlink ref="Q4" r:id="rId28" xr:uid="{D2154319-E769-4F80-BFD5-826CC22A5BC1}"/>
     <hyperlink ref="Q18" r:id="rId29" xr:uid="{9520AF1F-3BAD-4670-A93C-B66AE904A1DD}"/>
-    <hyperlink ref="AA4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
-    <hyperlink ref="AA18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
+    <hyperlink ref="AE4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
+    <hyperlink ref="AE18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
     <hyperlink ref="S4" r:id="rId32" xr:uid="{59640F79-3350-4895-9A1B-3D11F819338B}"/>
     <hyperlink ref="S18" r:id="rId33" xr:uid="{F7C40DBC-F537-4FBC-903C-96A2745DCFAD}"/>
     <hyperlink ref="T4" r:id="rId34" xr:uid="{F7D9EFEC-A89C-4C3B-A745-E7D85EC8741D}"/>
@@ -10909,9 +12505,18 @@
     <hyperlink ref="X18" r:id="rId43" xr:uid="{3073FDDE-5EDF-4D1F-A2B4-1D07DDF94B8E}"/>
     <hyperlink ref="Y4" r:id="rId44" xr:uid="{74DB3FB5-E120-4FD9-935D-D0B8C2F870CA}"/>
     <hyperlink ref="Y18" r:id="rId45" xr:uid="{70CE1A57-9070-4A43-8EB4-DBC6CC7557AE}"/>
+    <hyperlink ref="Z4" r:id="rId46" xr:uid="{46F27E80-4347-406E-A42F-B1B598AD95DA}"/>
+    <hyperlink ref="Z18" r:id="rId47" xr:uid="{1DB27F4A-0F4F-4DA2-93C8-DA2BBCD2EFEF}"/>
+    <hyperlink ref="AA4" r:id="rId48" xr:uid="{69456D80-D395-407F-BFE1-975E70B0CEAF}"/>
+    <hyperlink ref="AA18" r:id="rId49" xr:uid="{F56837CD-542E-4A59-A1E9-BD721916B66D}"/>
+    <hyperlink ref="AB4" r:id="rId50" xr:uid="{35994949-AE9D-42D9-9937-4C6D040B3C11}"/>
+    <hyperlink ref="AB18" r:id="rId51" xr:uid="{EBB9B660-E45E-4C3C-9FE2-C1F47B96A48E}"/>
+    <hyperlink ref="AB13" r:id="rId52" xr:uid="{B50D29D4-02C0-4F08-AA95-E173F180D1D9}"/>
+    <hyperlink ref="AC4" r:id="rId53" xr:uid="{9D3CAAA3-13F0-42C7-8BD1-EA16B78E665C}"/>
+    <hyperlink ref="AC13" r:id="rId54" xr:uid="{FE8CA055-4C39-4739-AA94-9F7F1B6836DD}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\Ao-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F94757-EE04-4592-9CE8-5640BBFC5FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A3159-A6D1-4BF8-8D8C-3FA7D784848F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="639">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -1981,10 +1981,6 @@
     <t>Installing Matlab takes a lot of time, and some users may not have liscence to use Matlab.</t>
   </si>
   <si>
-    <t>E-mail address
-Gitlab issue</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -2045,9 +2041,6 @@
   </si>
   <si>
     <t>The app depends on Nextcloud platform. However, I couldn't find out how to install apps on Nextcloud during one hour of trying. Maybe it need an enterprise account to use.</t>
-  </si>
-  <si>
-    <t>Gitlab issue</t>
   </si>
   <si>
     <t>1.2.2</t>
@@ -2154,11 +2147,6 @@
   </si>
   <si>
     <t>C++, Cmake, C, Objective-C</t>
-  </si>
-  <si>
-    <t>User forum
-E-mail address
-Gitlab issue</t>
   </si>
   <si>
     <t>yes
@@ -2212,10 +2200,6 @@
     <t>https://github.com/bastula/dicompyler</t>
   </si>
   <si>
-    <t>FAQ
-Gitlab issue</t>
-  </si>
-  <si>
     <t>0.42</t>
   </si>
   <si>
@@ -2265,11 +2249,6 @@
   </si>
   <si>
     <t>Python, C++</t>
-  </si>
-  <si>
-    <t>FAQ
-Troubleshooting
-Gitlab issue</t>
   </si>
   <si>
     <t>2.6.0</t>
@@ -2349,10 +2328,6 @@
     <t>2, Linux + Chrome</t>
   </si>
   <si>
-    <t>User forum
-Gitlab issue</t>
-  </si>
-  <si>
     <t>build - 1449</t>
   </si>
   <si>
@@ -2371,6 +2346,145 @@
   <si>
     <t>yes
 https://github.com/rii-mango/Papaya/blob/master/src/js/viewer/atlas.js</t>
+  </si>
+  <si>
+    <t>AMIDE</t>
+  </si>
+  <si>
+    <t>http://amide.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/p/amide/code/ci/default/tree/amide-current/</t>
+  </si>
+  <si>
+    <t>A competely free tool for viewing, analyzing, and registering volumetric medical imaging data sets.</t>
+  </si>
+  <si>
+    <t>GLP 2.0</t>
+  </si>
+  <si>
+    <t>C, Shell, Makefile, C++, Perl</t>
+  </si>
+  <si>
+    <t>1.0.5</t>
+  </si>
+  <si>
+    <t>yes
+Bug tracker
+Change request
+Executable files
+License
+README
+Release notes
+Source code
+Test cases
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>Mercurial</t>
+  </si>
+  <si>
+    <t>yes
+Minimization Algorithm</t>
+  </si>
+  <si>
+    <t>Gwyddion</t>
+  </si>
+  <si>
+    <t>http://gwyddion.net/</t>
+  </si>
+  <si>
+    <t>Department of Nanometrology, Czech Metrology Institute</t>
+  </si>
+  <si>
+    <t>A modular program for SPM (scanning probe microscopy) data visualization and analysis.</t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/p/gwyddion/code/HEAD/tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C, Python, C++</t>
+  </si>
+  <si>
+    <t>GNU GPL</t>
+  </si>
+  <si>
+    <t>38
+http://gwyddion.net/contact.php</t>
+  </si>
+  <si>
+    <t>E-mail address
+Github issue</t>
+  </si>
+  <si>
+    <t>User forum
+E-mail address
+Github issue</t>
+  </si>
+  <si>
+    <t>FAQ
+Github issue</t>
+  </si>
+  <si>
+    <t>FAQ
+Troubleshooting
+Github issue</t>
+  </si>
+  <si>
+    <t>User forum
+Github issue</t>
+  </si>
+  <si>
+    <t>E-mail address</t>
+  </si>
+  <si>
+    <t>E-mail address
+Mailing list
+SourceForge Discuss</t>
+  </si>
+  <si>
+    <t>2.5.6</t>
+  </si>
+  <si>
+    <t>yes
+http://gwyddion.net/contribute.php</t>
+  </si>
+  <si>
+    <t>yes
+Acknowledgements
+API documentation
+Authors
+Bug tracker
+Build file
+Change request
+Developer's Manual
+Executable files
+Installation Guide
+License
+Makefile
+README
+Release notes
+Source code
+Tutorials
+User Manual
+Version Control</t>
+  </si>
+  <si>
+    <t>API doc
+http://gwyddion.net/documentation/index.php#devel</t>
+  </si>
+  <si>
+    <t>Subversion</t>
+  </si>
+  <si>
+    <t>yes
+blind tip estimation algorithm</t>
+  </si>
+  <si>
+    <t>yes
+http://gwyddion.net/project-news.php</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2675,56 @@
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3012,11 +3175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMX126"/>
+  <dimension ref="A1:AMZ126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC116" sqref="AC116"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE102" sqref="AE102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3034,12 +3197,12 @@
     <col min="17" max="17" width="29.88671875" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
     <col min="19" max="22" width="37" customWidth="1"/>
-    <col min="23" max="29" width="35.88671875" customWidth="1"/>
-    <col min="30" max="30" width="37" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="35.88671875" customWidth="1"/>
+    <col min="32" max="32" width="37" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31 1038:1038" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33 1040:1040" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3048,9 +3211,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="AMX1" s="1"/>
+      <c r="AMZ1" s="1"/>
     </row>
-    <row r="2" spans="1:31 1038:1038" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33 1040:1040" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3070,12 +3233,14 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AE2" s="6" t="s">
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AG2" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="AMX2" s="7"/>
+      <c r="AMZ2" s="7"/>
     </row>
-    <row r="3" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3146,28 +3311,34 @@
         <v>507</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="AE3" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -3238,29 +3409,35 @@
         <v>508</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AB4" s="16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="AD4" s="16"/>
+        <v>589</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>608</v>
+      </c>
       <c r="AE4" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:31 1038:1038" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33 1040:1040" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -3331,10 +3508,10 @@
         <v>161</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>161</v>
@@ -3343,17 +3520,23 @@
         <v>161</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:31 1038:1038" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33 1040:1040" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -3424,29 +3607,35 @@
         <v>509</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AD6" s="1"/>
+        <v>592</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="AE6" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -3534,12 +3723,18 @@
       <c r="AC7" s="1">
         <v>9</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1">
+      <c r="AD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:31 1038:1038" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33 1040:1040" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3610,7 +3805,7 @@
         <v>162</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>162</v>
@@ -3627,12 +3822,18 @@
       <c r="AC8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="AE8" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="9" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -3746,17 +3947,23 @@
         <f t="shared" ref="AC9" si="2">"stars: " &amp; AC121 &amp; ", forks:" &amp; AC122 &amp; ", watching: " &amp; AC123</f>
         <v>stars: 379, forks:152, watching: 46</v>
       </c>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1" t="str">
-        <f>"stars: " &amp; AE121 &amp; ", forks:" &amp; AE122 &amp; ", watching: " &amp; AE123</f>
+      <c r="AD9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1" t="str">
+        <f>"stars: " &amp; AG121 &amp; ", forks:" &amp; AG122 &amp; ", watching: " &amp; AG123</f>
         <v>stars: 1400, forks:456, watching: 155</v>
       </c>
     </row>
-    <row r="10" spans="1:31 1038:1038" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33 1040:1040" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="10">
@@ -3840,16 +4047,22 @@
       <c r="AC10" s="10">
         <v>2012</v>
       </c>
-      <c r="AD10" s="10"/>
+      <c r="AD10" s="10">
+        <v>2006</v>
+      </c>
       <c r="AE10" s="10">
+        <v>2004</v>
+      </c>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10">
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:31 1038:1038" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33 1040:1040" s="13" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="12">
@@ -3925,7 +4138,7 @@
         <v>44139</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AB11" s="13">
         <v>44068</v>
@@ -3933,11 +4146,17 @@
       <c r="AC11" s="13">
         <v>43590</v>
       </c>
+      <c r="AD11" s="13">
+        <v>42759</v>
+      </c>
       <c r="AE11" s="13">
+        <v>44160</v>
+      </c>
+      <c r="AG11" s="13">
         <v>44104</v>
       </c>
     </row>
-    <row r="12" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -4025,12 +4244,18 @@
       <c r="AC12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="AE12" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="13" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -4101,29 +4326,35 @@
         <v>514</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="AD13" s="1"/>
+        <v>594</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="AE13" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -4194,7 +4425,7 @@
         <v>515</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>151</v>
@@ -4209,11 +4440,17 @@
         <v>151</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="AD14" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:31 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33 1040:1040" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -4301,12 +4538,18 @@
       <c r="AC15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="AE15" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="16" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -4394,12 +4637,18 @@
       <c r="AC16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AD16" s="1"/>
+      <c r="AD16" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="AE16" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="17" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -4487,12 +4736,18 @@
       <c r="AC17" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="AE17" s="1">
+        <v>11700</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="18" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4563,29 +4818,35 @@
         <v>510</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AC18" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:31 1038:1038" ht="66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33 1040:1040" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -4659,26 +4920,32 @@
         <v>446</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AD19" s="1"/>
+      <c r="AD19" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="AE19" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:31 1038:1038" ht="66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33 1040:1040" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -4766,26 +5033,32 @@
       <c r="AC20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AD20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="AE20" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="21" spans="1:31 1038:1038" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33 1040:1040" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:31 1038:1038" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33 1040:1040" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="AMX22"/>
+      <c r="AMZ22"/>
     </row>
-    <row r="23" spans="1:31 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33 1040:1040" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -4873,12 +5146,18 @@
       <c r="AC23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD23" s="1"/>
+      <c r="AD23" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="AE23" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="24" spans="1:31 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33 1040:1040" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -4966,9 +5245,15 @@
       <c r="AC24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD24" s="1"/>
+      <c r="AD24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -5056,9 +5341,15 @@
       <c r="AC25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD25" s="1"/>
+      <c r="AD25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -5146,9 +5437,15 @@
       <c r="AC26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD26" s="1"/>
+      <c r="AD26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -5234,11 +5531,17 @@
         <v>156</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AD27" s="1"/>
+        <v>597</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -5326,9 +5629,15 @@
       <c r="AC28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD28" s="1"/>
+      <c r="AD28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -5416,9 +5725,15 @@
       <c r="AC29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD29" s="1"/>
+      <c r="AD29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF29" s="1"/>
     </row>
-    <row r="30" spans="1:31 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -5506,9 +5821,15 @@
       <c r="AC30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD30" s="1"/>
+      <c r="AD30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF30" s="1"/>
     </row>
-    <row r="31" spans="1:31 1038:1038" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33 1040:1040" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -5552,16 +5873,16 @@
         <v>371</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>243</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>161</v>
@@ -5582,7 +5903,7 @@
         <v>161</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>333</v>
@@ -5594,11 +5915,17 @@
         <v>333</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD31" s="1"/>
+        <v>598</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -5642,19 +5969,19 @@
         <v>346</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>160</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>464</v>
@@ -5684,11 +6011,17 @@
         <v>160</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AD32" s="1"/>
+        <v>599</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -5776,9 +6109,15 @@
       <c r="AC33" s="1">
         <v>0</v>
       </c>
-      <c r="AD33" s="1"/>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1"/>
     </row>
-    <row r="34" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -5866,9 +6205,15 @@
       <c r="AC34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD34" s="1"/>
+      <c r="AD34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>57</v>
       </c>
@@ -5956,9 +6301,15 @@
       <c r="AC35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD35" s="1"/>
+      <c r="AD35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -6046,9 +6397,15 @@
       <c r="AC36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD36" s="1"/>
+      <c r="AD36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF36" s="1"/>
     </row>
-    <row r="37" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -6136,9 +6493,15 @@
       <c r="AC37" s="1">
         <v>7</v>
       </c>
-      <c r="AD37" s="1"/>
+      <c r="AD37" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF37" s="1"/>
     </row>
-    <row r="38" spans="1:30 1038:1038" ht="66" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32 1040:1040" ht="66" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -6152,23 +6515,25 @@
         <v>516</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="AMX39"/>
+      <c r="AMZ39"/>
     </row>
-    <row r="40" spans="1:30 1038:1038" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32 1040:1040" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -6256,9 +6621,15 @@
       <c r="AC40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD40" s="1"/>
+      <c r="AD40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF40" s="1"/>
     </row>
-    <row r="41" spans="1:30 1038:1038" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32 1040:1040" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
@@ -6346,9 +6717,15 @@
       <c r="AC41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AD41" s="1"/>
+      <c r="AD41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF41" s="1"/>
     </row>
-    <row r="42" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6436,9 +6813,15 @@
       <c r="AC42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD42" s="1"/>
+      <c r="AD42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF42" s="1"/>
     </row>
-    <row r="43" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6526,9 +6909,15 @@
       <c r="AC43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD43" s="1"/>
+      <c r="AD43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF43" s="1"/>
     </row>
-    <row r="44" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -6616,9 +7005,15 @@
       <c r="AC44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD44" s="1"/>
+      <c r="AD44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF44" s="1"/>
     </row>
-    <row r="45" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -6706,9 +7101,15 @@
       <c r="AC45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD45" s="1"/>
+      <c r="AD45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF45" s="1"/>
     </row>
-    <row r="46" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -6796,9 +7197,15 @@
       <c r="AC46" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD46" s="1"/>
+      <c r="AD46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF46" s="1"/>
     </row>
-    <row r="47" spans="1:30 1038:1038" ht="66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32 1040:1040" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -6886,9 +7293,15 @@
       <c r="AC47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD47" s="1"/>
+      <c r="AD47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF47" s="1"/>
     </row>
-    <row r="48" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -6976,23 +7389,29 @@
       <c r="AC48" s="1">
         <v>6</v>
       </c>
-      <c r="AD48" s="1"/>
+      <c r="AD48" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF48" s="1"/>
     </row>
-    <row r="49" spans="1:30 1038:1038" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32 1040:1040" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="AMX50"/>
+      <c r="AMZ50"/>
     </row>
-    <row r="51" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -7080,9 +7499,15 @@
       <c r="AC51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD51" s="1"/>
+      <c r="AD51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF51" s="1"/>
     </row>
-    <row r="52" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>76</v>
       </c>
@@ -7170,9 +7595,15 @@
       <c r="AC52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD52" s="1"/>
+      <c r="AD52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF52" s="1"/>
     </row>
-    <row r="53" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
@@ -7260,9 +7691,15 @@
       <c r="AC53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD53" s="1"/>
+      <c r="AD53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF53" s="1"/>
     </row>
-    <row r="54" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -7350,9 +7787,15 @@
       <c r="AC54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD54" s="1"/>
+      <c r="AD54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF54" s="1"/>
     </row>
-    <row r="55" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -7440,9 +7883,15 @@
       <c r="AC55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD55" s="1"/>
+      <c r="AD55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF55" s="1"/>
     </row>
-    <row r="56" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -7530,30 +7979,38 @@
       <c r="AC56" s="1">
         <v>7</v>
       </c>
+      <c r="AD56" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="57" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32 1040:1040" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
       <c r="X57" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="AMX58"/>
+      <c r="AMZ58"/>
     </row>
-    <row r="59" spans="1:30 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32 1040:1040" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -7641,9 +8098,15 @@
       <c r="AC59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD59" s="1"/>
+      <c r="AD59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF59" s="1"/>
     </row>
-    <row r="60" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -7731,9 +8194,15 @@
       <c r="AC60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD60" s="1"/>
+      <c r="AD60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF60" s="1"/>
     </row>
-    <row r="61" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -7821,9 +8290,15 @@
       <c r="AC61" s="1">
         <v>9</v>
       </c>
-      <c r="AD61" s="1"/>
+      <c r="AD61" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF61" s="1"/>
     </row>
-    <row r="62" spans="1:30 1038:1038" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32 1040:1040" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -7832,15 +8307,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="AMX63"/>
+      <c r="AMZ63"/>
     </row>
-    <row r="64" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -7928,9 +8403,14 @@
       <c r="AC64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD64" s="1"/>
+      <c r="AD64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE64" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="65" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -8018,9 +8498,14 @@
       <c r="AC65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD65" s="1"/>
+      <c r="AD65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE65" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="66" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -8108,9 +8593,14 @@
       <c r="AC66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD66" s="1"/>
+      <c r="AD66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE66" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="67" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>90</v>
       </c>
@@ -8178,29 +8668,34 @@
         <v>503</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>517</v>
+        <v>625</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>534</v>
+        <v>261</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>517</v>
+        <v>625</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="AD67" s="1"/>
+        <v>629</v>
+      </c>
+      <c r="AD67" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE67" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
-    <row r="68" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -8288,9 +8783,14 @@
       <c r="AC68" s="1">
         <v>6</v>
       </c>
-      <c r="AD68" s="1"/>
+      <c r="AD68" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="69" spans="1:30 1038:1038" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32 1040:1040" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
@@ -8303,22 +8803,24 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="AMX70"/>
+      <c r="AMZ70"/>
     </row>
-    <row r="71" spans="1:30 1038:1038" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32 1040:1040" s="27" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
@@ -8386,29 +8888,35 @@
         <v>500</v>
       </c>
       <c r="W71" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="X71" s="26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Y71" s="26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Z71" s="26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AA71" s="26" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AB71" s="26" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AC71" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="AD71" s="26"/>
+        <v>604</v>
+      </c>
+      <c r="AD71" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE71" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="AF71" s="26"/>
     </row>
-    <row r="72" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -8485,7 +8993,7 @@
         <v>157</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AA72" s="1" t="s">
         <v>157</v>
@@ -8496,9 +9004,15 @@
       <c r="AC72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD72" s="1"/>
+      <c r="AD72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE72" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AF72" s="1"/>
     </row>
-    <row r="73" spans="1:30 1038:1038" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32 1040:1040" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -8566,29 +9080,35 @@
         <v>501</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD73" s="1"/>
+        <v>605</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE73" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AF73" s="1"/>
     </row>
-    <row r="74" spans="1:30 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32 1040:1040" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -8653,7 +9173,7 @@
         <v>168</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>168</v>
@@ -8676,9 +9196,15 @@
       <c r="AC74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AD74" s="1"/>
+      <c r="AD74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF74" s="1"/>
     </row>
-    <row r="75" spans="1:30 1038:1038" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32 1040:1040" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>98</v>
       </c>
@@ -8766,8 +9292,14 @@
       <c r="AC75" s="19">
         <v>0.76700000000000002</v>
       </c>
+      <c r="AD75" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE75" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="76" spans="1:30 1038:1038" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32 1040:1040" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>100</v>
       </c>
@@ -8882,9 +9414,17 @@
         <f t="shared" si="9"/>
         <v>0.12046781178735066</v>
       </c>
-      <c r="AD76" s="14"/>
+      <c r="AD76" s="14">
+        <f t="shared" ref="AD76:AE76" si="10">AD118/AD116</f>
+        <v>0.10706153603803577</v>
+      </c>
+      <c r="AE76" s="14">
+        <f t="shared" si="10"/>
+        <v>9.4674135686057523E-2</v>
+      </c>
+      <c r="AF76" s="14"/>
     </row>
-    <row r="77" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
@@ -8949,7 +9489,7 @@
         <v>168</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W77" s="1" t="s">
         <v>168</v>
@@ -8972,9 +9512,15 @@
       <c r="AC77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AD77" s="1"/>
+      <c r="AD77" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE77" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF77" s="1"/>
     </row>
-    <row r="78" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -9062,22 +9608,26 @@
       <c r="AC78" s="1">
         <v>6</v>
       </c>
-      <c r="AD78" s="1"/>
+      <c r="AD78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
     </row>
-    <row r="79" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32 1040:1040" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="AMX80"/>
+      <c r="AMZ80"/>
     </row>
-    <row r="81" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>104</v>
       </c>
@@ -9085,116 +9635,122 @@
         <v>12</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" ref="C81:W81" si="10">C106</f>
+        <f t="shared" ref="C81:W81" si="11">C106</f>
         <v>3901</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1058</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>257</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1041</v>
       </c>
       <c r="G81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>281</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>292</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>193</v>
       </c>
       <c r="K81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>757</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2620</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2523</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>195</v>
       </c>
       <c r="P81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>846</v>
       </c>
       <c r="Q81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1052</v>
       </c>
       <c r="R81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1232</v>
       </c>
       <c r="S81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="T81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1838</v>
       </c>
       <c r="U81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>774</v>
       </c>
       <c r="V81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7828</v>
       </c>
       <c r="W81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>216</v>
       </c>
       <c r="X81" s="8">
-        <f t="shared" ref="X81:Y81" si="11">X106</f>
+        <f t="shared" ref="X81:Y81" si="12">X106</f>
         <v>309</v>
       </c>
       <c r="Y81" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
       <c r="Z81" s="8">
-        <f t="shared" ref="Z81:AA81" si="12">Z106</f>
+        <f t="shared" ref="Z81:AA81" si="13">Z106</f>
         <v>1728</v>
       </c>
       <c r="AA81" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="AB81" s="8">
-        <f t="shared" ref="AB81:AC81" si="13">AB106</f>
+        <f t="shared" ref="AB81" si="14">AB106</f>
         <v>143</v>
       </c>
       <c r="AC81" s="8">
-        <f t="shared" ref="AC81" si="14">AC106</f>
+        <f t="shared" ref="AC81:AE81" si="15">AC106</f>
         <v>113</v>
       </c>
-      <c r="AD81" s="8"/>
+      <c r="AD81" s="8">
+        <v>183</v>
+      </c>
+      <c r="AE81" s="8">
+        <v>2060</v>
+      </c>
+      <c r="AF81" s="8"/>
     </row>
-    <row r="82" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
@@ -9282,9 +9838,15 @@
       <c r="AC82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD82" s="1"/>
+      <c r="AD82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF82" s="1"/>
     </row>
-    <row r="83" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -9372,23 +9934,29 @@
       <c r="AC83" s="1">
         <v>5</v>
       </c>
-      <c r="AD83" s="1"/>
+      <c r="AD83" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF83" s="1"/>
     </row>
-    <row r="84" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32 1040:1040" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:30 1038:1038" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32 1040:1040" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="AMX85"/>
+      <c r="AMZ85"/>
     </row>
-    <row r="86" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -9476,9 +10044,15 @@
       <c r="AC86" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD86" s="1"/>
+      <c r="AD86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF86" s="1"/>
     </row>
-    <row r="87" spans="1:30 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -9566,9 +10140,15 @@
       <c r="AC87" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD87" s="1"/>
+      <c r="AD87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF87" s="1"/>
     </row>
-    <row r="88" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -9656,14 +10236,20 @@
       <c r="AC88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD88" s="1"/>
+      <c r="AD88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF88" s="1"/>
     </row>
-    <row r="89" spans="1:30 1038:1038" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32 1040:1040" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>157</v>
@@ -9735,20 +10321,26 @@
         <v>157</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AD89" s="1"/>
+        <v>606</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF89" s="1"/>
     </row>
-    <row r="90" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -9836,9 +10428,15 @@
       <c r="AC90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD90" s="1"/>
+      <c r="AD90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF90" s="1"/>
     </row>
-    <row r="91" spans="1:30 1038:1038" ht="66" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32 1040:1040" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -9912,23 +10510,29 @@
         <v>157</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AA91" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AC91" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD91" s="1"/>
+      <c r="AD91" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE91" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF91" s="1"/>
     </row>
-    <row r="92" spans="1:30 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -10016,9 +10620,15 @@
       <c r="AC92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD92" s="1"/>
+      <c r="AD92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF92" s="1"/>
     </row>
-    <row r="93" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -10106,9 +10716,15 @@
       <c r="AC93" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD93" s="1"/>
+      <c r="AD93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF93" s="1"/>
     </row>
-    <row r="94" spans="1:30 1038:1038" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32 1040:1040" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>60</v>
       </c>
@@ -10196,22 +10812,28 @@
       <c r="AC94" s="1">
         <v>6</v>
       </c>
-      <c r="AD94" s="1"/>
+      <c r="AD94" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF94" s="1"/>
     </row>
-    <row r="95" spans="1:30 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32 1040:1040" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:30 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="AMX96"/>
+      <c r="AMZ96"/>
     </row>
-    <row r="97" spans="1:31 1038:1038" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33 1040:1040" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -10299,9 +10921,15 @@
       <c r="AC97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD97" s="1"/>
+      <c r="AD97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF97" s="1"/>
     </row>
-    <row r="98" spans="1:31 1038:1038" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33 1040:1040" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -10389,9 +11017,15 @@
       <c r="AC98" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD98" s="1"/>
+      <c r="AD98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF98" s="1"/>
     </row>
-    <row r="99" spans="1:31 1038:1038" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33 1040:1040" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -10462,13 +11096,13 @@
         <v>157</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Y99" s="1" t="s">
         <v>157</v>
       </c>
       <c r="Z99" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AA99" s="1" t="s">
         <v>157</v>
@@ -10479,9 +11113,15 @@
       <c r="AC99" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD99" s="1"/>
+      <c r="AD99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF99" s="1"/>
     </row>
-    <row r="100" spans="1:31 1038:1038" ht="66" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33 1040:1040" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -10549,29 +11189,35 @@
         <v>157</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AA100" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AC100" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD100" s="1"/>
+      <c r="AD100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE100" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AF100" s="1"/>
     </row>
-    <row r="101" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
@@ -10659,23 +11305,29 @@
       <c r="AC101" s="1">
         <v>4</v>
       </c>
-      <c r="AD101" s="1"/>
+      <c r="AD101" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF101" s="1"/>
     </row>
-    <row r="102" spans="1:31 1038:1038" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33 1040:1040" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:31 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="AMX105"/>
+      <c r="AMZ105"/>
     </row>
-    <row r="106" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -10763,12 +11415,18 @@
       <c r="AC106" s="1">
         <v>113</v>
       </c>
-      <c r="AD106" s="1"/>
-      <c r="AE106" s="1">
+      <c r="AD106" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -10856,12 +11514,18 @@
       <c r="AC107" s="1">
         <v>46</v>
       </c>
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="1">
+      <c r="AD107" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -10949,11 +11613,17 @@
       <c r="AC108">
         <v>544920</v>
       </c>
-      <c r="AE108">
+      <c r="AD108" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG108">
         <v>38927</v>
       </c>
     </row>
-    <row r="109" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -11041,11 +11711,17 @@
       <c r="AC109">
         <v>967974</v>
       </c>
-      <c r="AE109">
+      <c r="AD109" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG109">
         <v>134744</v>
       </c>
     </row>
-    <row r="110" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -11133,11 +11809,17 @@
       <c r="AC110">
         <v>423079</v>
       </c>
-      <c r="AE110">
+      <c r="AD110" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG110">
         <v>95717</v>
       </c>
     </row>
-    <row r="111" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -11225,12 +11907,18 @@
       <c r="AC111" s="1">
         <v>1060</v>
       </c>
-      <c r="AD111" s="1"/>
-      <c r="AE111" s="1">
+      <c r="AD111" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:31 1038:1038" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33 1040:1040" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -11301,29 +11989,35 @@
         <v>512</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AB112" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="AD112" s="1"/>
-      <c r="AE112" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="113" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -11394,37 +12088,43 @@
         <v>265</v>
       </c>
       <c r="X113" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AA113" s="1" t="s">
         <v>357</v>
       </c>
       <c r="AB113" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AC113" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AD113" s="1"/>
-      <c r="AE113" s="1" t="s">
+      <c r="AD113" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="114" spans="1:31 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="AMX114"/>
+      <c r="AMZ114"/>
     </row>
-    <row r="115" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -11512,11 +12212,17 @@
       <c r="AC115">
         <v>110</v>
       </c>
+      <c r="AD115">
+        <v>183</v>
+      </c>
       <c r="AE115">
+        <v>2060</v>
+      </c>
+      <c r="AG115">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -11604,11 +12310,17 @@
       <c r="AC116">
         <v>95594</v>
       </c>
+      <c r="AD116">
+        <v>139658</v>
+      </c>
       <c r="AE116">
+        <v>787966</v>
+      </c>
+      <c r="AG116">
         <v>30994</v>
       </c>
     </row>
-    <row r="117" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -11696,11 +12408,17 @@
       <c r="AC117">
         <v>71831</v>
       </c>
+      <c r="AD117">
+        <v>102827</v>
+      </c>
       <c r="AE117">
+        <v>643427</v>
+      </c>
+      <c r="AG117">
         <v>25721</v>
       </c>
     </row>
-    <row r="118" spans="1:31 1038:1038" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33 1040:1040" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -11788,11 +12506,17 @@
       <c r="AC118">
         <v>11516</v>
       </c>
+      <c r="AD118">
+        <v>14952</v>
+      </c>
       <c r="AE118">
+        <v>74600</v>
+      </c>
+      <c r="AG118">
         <v>2400</v>
       </c>
     </row>
-    <row r="119" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -11880,19 +12604,25 @@
       <c r="AC119">
         <v>12247</v>
       </c>
+      <c r="AD119">
+        <v>21879</v>
+      </c>
       <c r="AE119">
+        <v>69894</v>
+      </c>
+      <c r="AG119">
         <v>2873</v>
       </c>
     </row>
-    <row r="120" spans="1:31 1038:1038" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33 1040:1040" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="AMX120"/>
+      <c r="AMZ120"/>
     </row>
-    <row r="121" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -11980,11 +12710,17 @@
       <c r="AC121">
         <v>379</v>
       </c>
-      <c r="AE121">
+      <c r="AD121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG121">
         <v>1400</v>
       </c>
     </row>
-    <row r="122" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -12072,11 +12808,17 @@
       <c r="AC122">
         <v>152</v>
       </c>
-      <c r="AE122">
+      <c r="AD122" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG122">
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -12164,11 +12906,17 @@
       <c r="AC123">
         <v>46</v>
       </c>
-      <c r="AE123">
+      <c r="AD123" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG123">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -12256,11 +13004,17 @@
       <c r="AC124">
         <v>0</v>
       </c>
-      <c r="AE124">
+      <c r="AD124" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG124">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -12348,115 +13102,156 @@
       <c r="AC125">
         <v>19</v>
       </c>
-      <c r="AE125">
+      <c r="AD125" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG125">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:31 1038:1038" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33 1040:1040" x14ac:dyDescent="0.25">
       <c r="G126" s="1"/>
       <c r="M126" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A14:L16 M18:AA18 A97:T98 AD97:XFD99 N16:W16 N15:X15 N14:Z14 A12:Z13 A5:XFD8 A17:W17 A100:XFD1048576 A9:AB11 AD9:XFD18 A19:XFD96">
-    <cfRule type="containsBlanks" dxfId="19" priority="22">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:XFD3 A99:H99 J99:T99 A4:J4 M4:XFD4 A14:L16 M18:AA18 A97:T98 AF97:XFD99 N16:W16 N15:X15 N14:Z14 A12:Z13 A5:XFD8 A17:W17 A9:AB9 AF9:XFD18 A10:A11 C10:AB11 A100:XFD1048576 AG64:XFD68 A64:AE68 A19:XFD63 A69:XFD96">
+    <cfRule type="containsBlanks" dxfId="0" priority="29">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="containsBlanks" dxfId="18" priority="21">
+    <cfRule type="containsBlanks" dxfId="26" priority="28">
       <formula>LEN(TRIM(I99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="containsBlanks" dxfId="17" priority="20">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(M14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U97:AC99">
-    <cfRule type="containsBlanks" dxfId="16" priority="19">
+  <conditionalFormatting sqref="U97:AE99">
+    <cfRule type="containsBlanks" dxfId="24" priority="26">
       <formula>LEN(TRIM(U97))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:AA17 X16">
-    <cfRule type="containsBlanks" dxfId="15" priority="18">
+    <cfRule type="containsBlanks" dxfId="23" priority="25">
       <formula>LEN(TRIM(X16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Z15">
-    <cfRule type="containsBlanks" dxfId="14" priority="17">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(Y15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Z16">
-    <cfRule type="containsBlanks" dxfId="13" priority="16">
+    <cfRule type="containsBlanks" dxfId="21" priority="23">
       <formula>LEN(TRIM(Y16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA14">
-    <cfRule type="containsBlanks" dxfId="12" priority="15">
+    <cfRule type="containsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(AA12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="containsBlanks" dxfId="11" priority="14">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(AA15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16">
-    <cfRule type="containsBlanks" dxfId="10" priority="13">
+    <cfRule type="containsBlanks" dxfId="18" priority="20">
       <formula>LEN(TRIM(AA16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC13 AB12">
-    <cfRule type="containsBlanks" dxfId="9" priority="11">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(AB12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="16" priority="17">
       <formula>LEN(TRIM(AB15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="15" priority="16">
       <formula>LEN(TRIM(AB16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(X17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB17:AC17">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+  <conditionalFormatting sqref="AB17:AE17">
+    <cfRule type="containsBlanks" dxfId="13" priority="14">
       <formula>LEN(TRIM(AB17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AC14">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="AB14:AE14">
+    <cfRule type="containsBlanks" dxfId="12" priority="12">
       <formula>LEN(TRIM(AB14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AC11">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="AC9:AE11">
+    <cfRule type="containsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(AC9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="AC12:AE12">
+    <cfRule type="containsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(AC12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(AC15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="8">
       <formula>LEN(TRIM(AC16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
+      <formula>LEN(TRIM(B10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD13:AE13">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(AD13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD15">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(AD15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(AD16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(AE15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(AE16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF64:AF68">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(AF64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -12489,8 +13284,8 @@
     <hyperlink ref="P18" r:id="rId27" xr:uid="{DE64FE4F-5191-4D4B-99AA-5E5853B4955B}"/>
     <hyperlink ref="Q4" r:id="rId28" xr:uid="{D2154319-E769-4F80-BFD5-826CC22A5BC1}"/>
     <hyperlink ref="Q18" r:id="rId29" xr:uid="{9520AF1F-3BAD-4670-A93C-B66AE904A1DD}"/>
-    <hyperlink ref="AE4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
-    <hyperlink ref="AE18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
+    <hyperlink ref="AG4" r:id="rId30" xr:uid="{F41EDD68-3A98-45F5-987A-A936C9AD5B47}"/>
+    <hyperlink ref="AG18" r:id="rId31" xr:uid="{C693335F-CB80-4DCB-BCD9-7A35545136C8}"/>
     <hyperlink ref="S4" r:id="rId32" xr:uid="{59640F79-3350-4895-9A1B-3D11F819338B}"/>
     <hyperlink ref="S18" r:id="rId33" xr:uid="{F7C40DBC-F537-4FBC-903C-96A2745DCFAD}"/>
     <hyperlink ref="T4" r:id="rId34" xr:uid="{F7D9EFEC-A89C-4C3B-A745-E7D85EC8741D}"/>
@@ -12514,9 +13309,13 @@
     <hyperlink ref="AB13" r:id="rId52" xr:uid="{B50D29D4-02C0-4F08-AA95-E173F180D1D9}"/>
     <hyperlink ref="AC4" r:id="rId53" xr:uid="{9D3CAAA3-13F0-42C7-8BD1-EA16B78E665C}"/>
     <hyperlink ref="AC13" r:id="rId54" xr:uid="{FE8CA055-4C39-4739-AA94-9F7F1B6836DD}"/>
+    <hyperlink ref="AD4" r:id="rId55" xr:uid="{581289C6-30CF-460C-B68B-15B11E314853}"/>
+    <hyperlink ref="AD18" r:id="rId56" xr:uid="{B2206F7B-4751-4BED-966D-928494B19783}"/>
+    <hyperlink ref="AE4" r:id="rId57" xr:uid="{60AADB3C-3108-46D5-8965-425BF591A5EF}"/>
+    <hyperlink ref="AE41" r:id="rId58" location="devel" display="http://gwyddion.net/documentation/index.php#devel" xr:uid="{0677AFF2-749C-4086-8324-50A96355C351}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -2629,7 +2629,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2670,24 +2670,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3017,13 +3001,13 @@
   </sheetPr>
   <dimension ref="A1:AG126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="T46" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
-      <selection pane="topRight" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="I76" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+      <selection pane="topRight" activeCell="J78" activeCellId="0" sqref="J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.67"/>
@@ -3036,7 +3020,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="23" style="0" width="35.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="36.99"/>
@@ -3196,7 +3180,7 @@
       <c r="F4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3782,14 +3766,14 @@
         <f aca="false">"stars: " &amp; AB121 &amp; ", forks:" &amp; AB122 &amp; ", watching: " &amp; AB123</f>
         <v>stars: 8, forks:6, watching: 4</v>
       </c>
-      <c r="AC9" s="11" t="str">
+      <c r="AC9" s="10" t="str">
         <f aca="false">"stars: " &amp; AC121 &amp; ", forks:" &amp; AC122 &amp; ", watching: " &amp; AC123</f>
         <v>stars: 379, forks:152, watching: 46</v>
       </c>
-      <c r="AD9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AD9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="10" t="s">
         <v>74</v>
       </c>
       <c r="AF9" s="1"/>
@@ -3798,200 +3782,200 @@
         <v>stars: 1400, forks:456, watching: 155</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="G10" s="13" t="n">
+      <c r="G10" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N10" s="13" t="n">
+      <c r="N10" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="O10" s="13" t="n">
+      <c r="O10" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="Q10" s="13" t="n">
+      <c r="Q10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="R10" s="13" t="n">
+      <c r="R10" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="T10" s="13" t="n">
+      <c r="T10" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="U10" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="W10" s="13" t="n">
+      <c r="W10" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="X10" s="13" t="n">
+      <c r="X10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="Y10" s="13" t="n">
+      <c r="Y10" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="Z10" s="13" t="n">
+      <c r="Z10" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AA10" s="13" t="n">
+      <c r="AA10" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AB10" s="13" t="n">
+      <c r="AB10" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AC10" s="13" t="n">
+      <c r="AC10" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="AD10" s="13" t="n">
+      <c r="AD10" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AE10" s="13" t="n">
+      <c r="AE10" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13" t="n">
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1" t="n">
         <v>2014</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+    <row r="11" s="13" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="12" t="n">
         <v>44045</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="13" t="n">
         <v>43606</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="13" t="n">
         <v>44046</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="13" t="n">
         <v>44049</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="13" t="n">
         <v>44047</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="13" t="n">
         <v>44059</v>
       </c>
-      <c r="J11" s="17" t="n">
+      <c r="J11" s="13" t="n">
         <v>44057</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="13" t="n">
         <v>44070</v>
       </c>
-      <c r="L11" s="17" t="n">
+      <c r="L11" s="13" t="n">
         <v>43893</v>
       </c>
-      <c r="M11" s="17" t="n">
+      <c r="M11" s="13" t="n">
         <v>43924</v>
       </c>
-      <c r="N11" s="17" t="n">
+      <c r="N11" s="13" t="n">
         <v>43775</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="13" t="n">
         <v>44075</v>
       </c>
-      <c r="P11" s="17" t="n">
+      <c r="P11" s="13" t="n">
         <v>44048</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="13" t="n">
         <v>44109</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="13" t="n">
         <v>44111</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="13" t="n">
         <v>43928</v>
       </c>
-      <c r="T11" s="17" t="n">
+      <c r="T11" s="13" t="n">
         <v>44113</v>
       </c>
-      <c r="U11" s="17" t="n">
+      <c r="U11" s="13" t="n">
         <v>43983</v>
       </c>
-      <c r="V11" s="17" t="n">
+      <c r="V11" s="13" t="n">
         <v>44116</v>
       </c>
-      <c r="W11" s="17" t="n">
+      <c r="W11" s="13" t="n">
         <v>43282</v>
       </c>
-      <c r="X11" s="17" t="n">
+      <c r="X11" s="13" t="n">
         <v>43928</v>
       </c>
-      <c r="Y11" s="17" t="n">
+      <c r="Y11" s="13" t="n">
         <v>44080</v>
       </c>
-      <c r="Z11" s="17" t="n">
+      <c r="Z11" s="13" t="n">
         <v>44139</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AA11" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="AB11" s="17" t="n">
+      <c r="AB11" s="13" t="n">
         <v>44068</v>
       </c>
-      <c r="AC11" s="17" t="n">
+      <c r="AC11" s="13" t="n">
         <v>43590</v>
       </c>
-      <c r="AD11" s="17" t="n">
+      <c r="AD11" s="13" t="n">
         <v>42759</v>
       </c>
-      <c r="AE11" s="17" t="n">
+      <c r="AE11" s="13" t="n">
         <v>44160</v>
       </c>
-      <c r="AG11" s="17" t="n">
+      <c r="AG11" s="13" t="n">
         <v>44104</v>
       </c>
     </row>
@@ -4503,10 +4487,10 @@
       <c r="E17" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="14" t="n">
         <v>188</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="14" t="n">
         <v>484</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -4527,7 +4511,7 @@
       <c r="M17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="N17" s="19" t="n">
+      <c r="N17" s="15" t="n">
         <v>19800</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -4551,7 +4535,7 @@
       <c r="U17" s="1" t="n">
         <v>7780</v>
       </c>
-      <c r="V17" s="20" t="n">
+      <c r="V17" s="16" t="n">
         <v>15400</v>
       </c>
       <c r="W17" s="1" t="s">
@@ -4560,13 +4544,13 @@
       <c r="X17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="Y17" s="20" t="n">
+      <c r="Y17" s="16" t="n">
         <v>2600</v>
       </c>
-      <c r="Z17" s="20" t="n">
+      <c r="Z17" s="16" t="n">
         <v>1140</v>
       </c>
-      <c r="AA17" s="20" t="n">
+      <c r="AA17" s="16" t="n">
         <v>45</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -4695,43 +4679,43 @@
       <c r="C19" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="17" t="s">
         <v>241</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -4797,7 +4781,7 @@
       <c r="D20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="17" t="s">
         <v>259</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -4815,16 +4799,16 @@
       <c r="J20" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="N20" s="21" t="s">
+      <c r="K20" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20" s="17" t="s">
         <v>259</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -5779,13 +5763,13 @@
       <c r="E32" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="14" t="s">
         <v>311</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -6557,7 +6541,7 @@
       <c r="AD41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AE41" s="22" t="s">
+      <c r="AE41" s="18" t="s">
         <v>343</v>
       </c>
       <c r="AF41" s="1"/>
@@ -8653,101 +8637,101 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" s="24" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="23" t="s">
+    <row r="71" s="20" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="H71" s="24" t="n">
+      <c r="H71" s="20" t="n">
         <v>1.04</v>
       </c>
-      <c r="I71" s="23" t="s">
+      <c r="I71" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="J71" s="23" t="s">
+      <c r="J71" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="L71" s="23" t="s">
+      <c r="L71" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="M71" s="23" t="s">
+      <c r="M71" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="N71" s="24" t="n">
+      <c r="N71" s="20" t="n">
         <v>5.8</v>
       </c>
-      <c r="O71" s="23" t="s">
+      <c r="O71" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="P71" s="24" t="n">
+      <c r="P71" s="20" t="n">
         <v>2.7</v>
       </c>
-      <c r="Q71" s="23" t="s">
+      <c r="Q71" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="R71" s="23" t="s">
+      <c r="R71" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="S71" s="23" t="s">
+      <c r="S71" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="T71" s="23" t="s">
+      <c r="T71" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="U71" s="23" t="s">
+      <c r="U71" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="V71" s="23" t="s">
+      <c r="V71" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="W71" s="23" t="s">
+      <c r="W71" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="X71" s="23" t="s">
+      <c r="X71" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="Y71" s="23" t="s">
+      <c r="Y71" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="Z71" s="23" t="s">
+      <c r="Z71" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="AA71" s="23" t="s">
+      <c r="AA71" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="AB71" s="23" t="s">
+      <c r="AB71" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="AC71" s="23" t="s">
+      <c r="AC71" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="AD71" s="23" t="s">
+      <c r="AD71" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="AE71" s="23" t="s">
+      <c r="AE71" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="AF71" s="23"/>
+      <c r="AF71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -9037,225 +9021,225 @@
       </c>
       <c r="AF74" s="1"/>
     </row>
-    <row r="75" s="26" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="25" t="s">
+    <row r="75" s="22" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="21" t="n">
         <v>0.9165</v>
       </c>
-      <c r="D75" s="26" t="n">
+      <c r="D75" s="22" t="n">
         <v>0.5625</v>
       </c>
-      <c r="E75" s="26" t="n">
+      <c r="E75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F75" s="26" t="n">
+      <c r="F75" s="22" t="n">
         <v>0.893</v>
       </c>
-      <c r="G75" s="26" t="n">
+      <c r="G75" s="22" t="n">
         <v>0.9545</v>
       </c>
-      <c r="H75" s="26" t="n">
+      <c r="H75" s="22" t="n">
         <v>0.2857</v>
       </c>
-      <c r="I75" s="26" t="n">
+      <c r="I75" s="22" t="n">
         <v>0.5249</v>
       </c>
-      <c r="J75" s="26" t="n">
+      <c r="J75" s="22" t="n">
         <v>0.6379</v>
       </c>
-      <c r="K75" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="L75" s="26" t="n">
+      <c r="K75" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" s="22" t="n">
         <v>0.3077</v>
       </c>
-      <c r="M75" s="26" t="n">
+      <c r="M75" s="22" t="n">
         <v>0.3296</v>
       </c>
-      <c r="N75" s="25" t="s">
+      <c r="N75" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="O75" s="26" t="n">
+      <c r="O75" s="22" t="n">
         <v>0.906</v>
       </c>
-      <c r="P75" s="26" t="n">
+      <c r="P75" s="22" t="n">
         <v>0.1915</v>
       </c>
-      <c r="Q75" s="26" t="n">
+      <c r="Q75" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="R75" s="26" t="n">
+      <c r="R75" s="22" t="n">
         <v>0.792</v>
       </c>
-      <c r="S75" s="26" t="n">
+      <c r="S75" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="T75" s="26" t="n">
+      <c r="T75" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="U75" s="26" t="n">
+      <c r="U75" s="22" t="n">
         <v>0.1538</v>
       </c>
-      <c r="V75" s="26" t="n">
+      <c r="V75" s="22" t="n">
         <v>0.8252</v>
       </c>
-      <c r="W75" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="X75" s="26" t="n">
+      <c r="W75" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X75" s="22" t="n">
         <v>0.6981</v>
       </c>
-      <c r="Y75" s="26" t="n">
+      <c r="Y75" s="22" t="n">
         <v>0.6357</v>
       </c>
-      <c r="Z75" s="26" t="n">
+      <c r="Z75" s="22" t="n">
         <v>0.6742</v>
       </c>
-      <c r="AA75" s="26" t="n">
+      <c r="AA75" s="22" t="n">
         <v>0.5083</v>
       </c>
-      <c r="AB75" s="26" t="n">
+      <c r="AB75" s="22" t="n">
         <v>0.617</v>
       </c>
-      <c r="AC75" s="26" t="n">
+      <c r="AC75" s="22" t="n">
         <v>0.767</v>
       </c>
-      <c r="AD75" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE75" s="26" t="s">
+      <c r="AD75" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE75" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" s="28" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="27" t="s">
+    <row r="76" s="24" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="C76" s="27" t="n">
+      <c r="C76" s="23" t="n">
         <f aca="false">C118/C116</f>
         <v>0.174476798050605</v>
       </c>
-      <c r="D76" s="27" t="n">
+      <c r="D76" s="23" t="n">
         <f aca="false">D118/D116</f>
         <v>0.186973120675956</v>
       </c>
-      <c r="E76" s="27" t="n">
+      <c r="E76" s="23" t="n">
         <f aca="false">E118/E116</f>
         <v>0.143571478025402</v>
       </c>
-      <c r="F76" s="27" t="n">
+      <c r="F76" s="23" t="n">
         <f aca="false">F118/F116</f>
         <v>0.0904242068080051</v>
       </c>
-      <c r="G76" s="27" t="n">
+      <c r="G76" s="23" t="n">
         <f aca="false">G118/G116</f>
         <v>0.824997522053722</v>
       </c>
-      <c r="H76" s="27" t="n">
+      <c r="H76" s="23" t="n">
         <f aca="false">H118/H116</f>
         <v>0.189204179885963</v>
       </c>
-      <c r="I76" s="27" t="n">
+      <c r="I76" s="23" t="n">
         <f aca="false">I118/I116</f>
         <v>0.0585661080074488</v>
       </c>
-      <c r="J76" s="27" t="n">
+      <c r="J76" s="23" t="n">
         <f aca="false">J118/J116</f>
         <v>0.114574251671026</v>
       </c>
-      <c r="K76" s="27" t="n">
+      <c r="K76" s="23" t="n">
         <f aca="false">K118/K116</f>
         <v>0.11864406779661</v>
       </c>
-      <c r="L76" s="27" t="n">
+      <c r="L76" s="23" t="n">
         <f aca="false">L118/L116</f>
         <v>0.137544830796212</v>
       </c>
-      <c r="M76" s="27" t="n">
+      <c r="M76" s="23" t="n">
         <f aca="false">M118/M116</f>
         <v>0.259025792989777</v>
       </c>
-      <c r="N76" s="27" t="n">
+      <c r="N76" s="23" t="n">
         <f aca="false">N118/N116</f>
         <v>0.241600183270811</v>
       </c>
-      <c r="O76" s="27" t="n">
+      <c r="O76" s="23" t="n">
         <f aca="false">O118/O116</f>
         <v>0.262282169932067</v>
       </c>
-      <c r="P76" s="27" t="n">
+      <c r="P76" s="23" t="n">
         <f aca="false">P118/P116</f>
         <v>0.0833050908827576</v>
       </c>
-      <c r="Q76" s="27" t="n">
+      <c r="Q76" s="23" t="n">
         <f aca="false">Q118/Q116</f>
         <v>0.149207595309357</v>
       </c>
-      <c r="R76" s="27" t="n">
+      <c r="R76" s="23" t="n">
         <f aca="false">R118/R116</f>
         <v>0.0830880819410006</v>
       </c>
-      <c r="S76" s="27" t="n">
+      <c r="S76" s="23" t="n">
         <f aca="false">S118/S116</f>
         <v>0.0819595645412131</v>
       </c>
-      <c r="T76" s="27" t="n">
+      <c r="T76" s="23" t="n">
         <f aca="false">T118/T116</f>
         <v>0.175262990731562</v>
       </c>
-      <c r="U76" s="27" t="n">
+      <c r="U76" s="23" t="n">
         <f aca="false">U118/U116</f>
         <v>0.193816128109808</v>
       </c>
-      <c r="V76" s="27" t="n">
+      <c r="V76" s="23" t="n">
         <f aca="false">V118/V116</f>
         <v>0.198137936489663</v>
       </c>
-      <c r="W76" s="27" t="n">
+      <c r="W76" s="23" t="n">
         <f aca="false">W118/W116</f>
         <v>0.180208067398519</v>
       </c>
-      <c r="X76" s="27" t="n">
+      <c r="X76" s="23" t="n">
         <f aca="false">X118/X116</f>
         <v>0.0547246477046771</v>
       </c>
-      <c r="Y76" s="27" t="n">
+      <c r="Y76" s="23" t="n">
         <f aca="false">Y118/Y116</f>
         <v>0.0837378640776699</v>
       </c>
-      <c r="Z76" s="27" t="n">
+      <c r="Z76" s="23" t="n">
         <f aca="false">Z118/Z116</f>
         <v>0.146630818193256</v>
       </c>
-      <c r="AA76" s="27" t="n">
+      <c r="AA76" s="23" t="n">
         <f aca="false">AA118/AA116</f>
         <v>0.0628092286860059</v>
       </c>
-      <c r="AB76" s="27" t="n">
+      <c r="AB76" s="23" t="n">
         <f aca="false">AB118/AB116</f>
         <v>0.10397257623089</v>
       </c>
-      <c r="AC76" s="27" t="n">
+      <c r="AC76" s="23" t="n">
         <f aca="false">AC118/AC116</f>
         <v>0.120467811787351</v>
       </c>
-      <c r="AD76" s="27" t="n">
+      <c r="AD76" s="23" t="n">
         <f aca="false">AD118/AD116</f>
         <v>0.107061536038036</v>
       </c>
-      <c r="AE76" s="27" t="n">
+      <c r="AE76" s="23" t="n">
         <f aca="false">AE118/AE116</f>
         <v>0.0946741356860575</v>
       </c>
-      <c r="AF76" s="27"/>
+      <c r="AF76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
@@ -9353,7 +9337,7 @@
       </c>
       <c r="AF77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>325</v>
       </c>
@@ -9382,7 +9366,7 @@
         <v>8</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>4</v>
@@ -9444,7 +9428,9 @@
       <c r="AD78" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AE78" s="1"/>
+      <c r="AE78" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="AF78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11373,7 +11359,7 @@
       <c r="F108" s="1" t="n">
         <v>158642</v>
       </c>
-      <c r="G108" s="20" t="n">
+      <c r="G108" s="16" t="n">
         <v>77216</v>
       </c>
       <c r="H108" s="0" t="n">
@@ -11471,7 +11457,7 @@
       <c r="F109" s="1" t="n">
         <v>514448</v>
       </c>
-      <c r="G109" s="20" t="n">
+      <c r="G109" s="16" t="n">
         <v>119012</v>
       </c>
       <c r="H109" s="0" t="n">
@@ -11569,7 +11555,7 @@
       <c r="F110" s="1" t="n">
         <v>348317</v>
       </c>
-      <c r="G110" s="20" t="n">
+      <c r="G110" s="16" t="n">
         <v>41983</v>
       </c>
       <c r="H110" s="0" t="n">
@@ -12167,7 +12153,7 @@
       <c r="F117" s="0" t="n">
         <v>123272</v>
       </c>
-      <c r="G117" s="19" t="n">
+      <c r="G117" s="15" t="n">
         <v>8493</v>
       </c>
       <c r="H117" s="0" t="n">
@@ -12265,7 +12251,7 @@
       <c r="F118" s="0" t="n">
         <v>14156</v>
       </c>
-      <c r="G118" s="19" t="n">
+      <c r="G118" s="15" t="n">
         <v>41617</v>
       </c>
       <c r="H118" s="0" t="n">
@@ -12363,7 +12349,7 @@
       <c r="F119" s="0" t="n">
         <v>19123</v>
       </c>
-      <c r="G119" s="19" t="n">
+      <c r="G119" s="15" t="n">
         <v>335</v>
       </c>
       <c r="H119" s="0" t="n">
@@ -12468,7 +12454,7 @@
       <c r="F121" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="G121" s="19" t="n">
+      <c r="G121" s="15" t="n">
         <v>29</v>
       </c>
       <c r="H121" s="0" t="n">
@@ -12566,7 +12552,7 @@
       <c r="F122" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="G122" s="19" t="n">
+      <c r="G122" s="15" t="n">
         <v>1</v>
       </c>
       <c r="H122" s="0" t="n">
@@ -12664,7 +12650,7 @@
       <c r="F123" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="G123" s="19" t="n">
+      <c r="G123" s="15" t="n">
         <v>8</v>
       </c>
       <c r="H123" s="0" t="n">
@@ -12762,7 +12748,7 @@
       <c r="F124" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G124" s="19" t="n">
+      <c r="G124" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H124" s="0" t="n">
@@ -12860,7 +12846,7 @@
       <c r="F125" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G125" s="19" t="n">
+      <c r="G125" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H125" s="0" t="n">

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="642">
   <si>
     <t xml:space="preserve">Metrics &amp; Description</t>
   </si>
@@ -1055,6 +1055,10 @@
   <si>
     <t xml:space="preserve">5+ for build from source code
 1 for VM installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+A browser</t>
   </si>
   <si>
     <t xml:space="preserve">Are required package versions listed?</t>
@@ -1193,6 +1197,10 @@
   </si>
   <si>
     <t xml:space="preserve">({yes*, no, unclear})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircleCI
+https://github.com/Slicer/Slicer/blob/2da03dcc5ac9383d825598cfc58d24c1aa2158cd/CONTRIBUTING.md</t>
   </si>
   <si>
     <t xml:space="preserve">yes
@@ -3002,12 +3010,12 @@
   <dimension ref="A1:AG126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="I76" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="AE76" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
-      <selection pane="topRight" activeCell="J78" activeCellId="0" sqref="J78"/>
+      <selection pane="topRight" activeCell="AF83" activeCellId="0" sqref="AF83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.67"/>
@@ -5843,7 +5851,7 @@
       </c>
       <c r="AF32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>315</v>
       </c>
@@ -5907,8 +5915,8 @@
       <c r="U33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V33" s="1" t="n">
-        <v>0</v>
+      <c r="V33" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>1</v>
@@ -5941,7 +5949,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>273</v>
@@ -6037,7 +6045,7 @@
     </row>
     <row r="35" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>273</v>
@@ -6133,10 +6141,10 @@
     </row>
     <row r="36" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>259</v>
@@ -6175,7 +6183,7 @@
         <v>259</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>259</v>
@@ -6229,10 +6237,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>10</v>
@@ -6329,15 +6337,15 @@
       </c>
       <c r="B38" s="7"/>
       <c r="T38" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -6349,20 +6357,20 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>133</v>
@@ -6452,22 +6460,22 @@
     </row>
     <row r="41" customFormat="false" ht="110.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>133</v>
@@ -6476,34 +6484,34 @@
         <v>133</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>133</v>
@@ -6512,10 +6520,10 @@
         <v>133</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>133</v>
@@ -6527,7 +6535,7 @@
         <v>133</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>133</v>
@@ -6536,19 +6544,19 @@
         <v>133</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AD41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="AE41" s="18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>267</v>
@@ -6644,7 +6652,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>273</v>
@@ -6740,13 +6748,13 @@
     </row>
     <row r="44" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>74</v>
@@ -6761,13 +6769,13 @@
         <v>74</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>74</v>
@@ -6803,7 +6811,7 @@
         <v>74</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>74</v>
@@ -6836,7 +6844,7 @@
     </row>
     <row r="45" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>273</v>
@@ -6932,7 +6940,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>279</v>
@@ -7026,15 +7034,15 @@
       </c>
       <c r="AF46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>259</v>
+        <v>356</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>259</v>
@@ -7052,10 +7060,10 @@
         <v>259</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>259</v>
@@ -7070,7 +7078,7 @@
         <v>259</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>133</v>
@@ -7079,7 +7087,7 @@
         <v>259</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>133</v>
@@ -7124,10 +7132,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>7</v>
@@ -7226,14 +7234,14 @@
     </row>
     <row r="50" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>284</v>
@@ -7275,7 +7283,7 @@
         <v>259</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>259</v>
@@ -7290,7 +7298,7 @@
         <v>74</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>259</v>
@@ -7329,7 +7337,7 @@
     </row>
     <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>273</v>
@@ -7425,10 +7433,10 @@
     </row>
     <row r="53" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>259</v>
@@ -7470,7 +7478,7 @@
         <v>74</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>74</v>
@@ -7482,7 +7490,7 @@
         <v>74</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>74</v>
@@ -7521,7 +7529,7 @@
     </row>
     <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>273</v>
@@ -7617,7 +7625,7 @@
     </row>
     <row r="55" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>273</v>
@@ -7713,10 +7721,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>9</v>
@@ -7812,7 +7820,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="X57" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
@@ -7824,17 +7832,17 @@
     </row>
     <row r="58" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="79.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>268</v>
@@ -7849,16 +7857,16 @@
         <v>268</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>268</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>268</v>
@@ -7873,22 +7881,22 @@
         <v>268</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R59" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="T59" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>268</v>
@@ -7897,7 +7905,7 @@
         <v>268</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>74</v>
@@ -7927,10 +7935,10 @@
     </row>
     <row r="60" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>74</v>
@@ -8023,10 +8031,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>9</v>
@@ -8123,19 +8131,19 @@
       </c>
       <c r="B62" s="2"/>
       <c r="O62" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>267</v>
@@ -8230,7 +8238,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>267</v>
@@ -8325,7 +8333,7 @@
     </row>
     <row r="66" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>267</v>
@@ -8420,105 +8428,105 @@
     </row>
     <row r="67" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M67" s="1" t="s">
+      <c r="P67" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="T67" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>8</v>
@@ -8614,14 +8622,14 @@
       </c>
       <c r="B69" s="2"/>
       <c r="T69" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -8632,116 +8640,116 @@
     </row>
     <row r="70" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" s="20" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="19" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H71" s="20" t="n">
         <v>1.04</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N71" s="20" t="n">
         <v>5.8</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P71" s="20" t="n">
         <v>2.7</v>
       </c>
       <c r="Q71" s="19" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="R71" s="19" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S71" s="19" t="s">
         <v>133</v>
       </c>
       <c r="T71" s="19" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="U71" s="19" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="V71" s="19" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="W71" s="19" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="X71" s="19" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Y71" s="19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Z71" s="19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA71" s="19" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AB71" s="19" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AC71" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AD71" s="19" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AE71" s="19" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>259</v>
@@ -8750,7 +8758,7 @@
         <v>259</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>259</v>
@@ -8759,10 +8767,10 @@
         <v>259</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>259</v>
@@ -8786,7 +8794,7 @@
         <v>259</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>259</v>
@@ -8798,7 +8806,7 @@
         <v>259</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="W72" s="1" t="s">
         <v>259</v>
@@ -8810,7 +8818,7 @@
         <v>259</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AA72" s="1" t="s">
         <v>259</v>
@@ -8825,208 +8833,208 @@
         <v>259</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="290.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="J73" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="79.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K74" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="L74" s="0" t="s">
+      <c r="N74" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="O74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="V74" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD74" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="W74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD74" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="AE74" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AF74" s="1"/>
     </row>
     <row r="75" s="22" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C75" s="21" t="n">
         <v>0.9165</v>
@@ -9118,10 +9126,10 @@
     </row>
     <row r="76" s="24" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C76" s="23" t="n">
         <f aca="false">C118/C116</f>
@@ -9243,106 +9251,106 @@
     </row>
     <row r="77" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>9</v>
@@ -9440,14 +9448,14 @@
     </row>
     <row r="80" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>126</v>
@@ -9568,9 +9576,9 @@
       </c>
       <c r="AF81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>273</v>
@@ -9621,7 +9629,7 @@
         <v>259</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>259</v>
@@ -9660,103 +9668,103 @@
         <v>259</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AF82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C83" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="E83" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>7</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L83" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M83" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N83" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P83" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Q83" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R83" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" s="1" t="n">
         <v>8</v>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T83" s="1" t="n">
-        <v>7</v>
       </c>
       <c r="U83" s="1" t="n">
         <v>6</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X83" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z83" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA83" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE83" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF83" s="1"/>
     </row>
@@ -9768,14 +9776,14 @@
     </row>
     <row r="85" s="6" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>279</v>
@@ -9871,13 +9879,13 @@
     </row>
     <row r="87" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>259</v>
@@ -9886,7 +9894,7 @@
         <v>259</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>259</v>
@@ -9895,7 +9903,7 @@
         <v>259</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>259</v>
@@ -9967,10 +9975,10 @@
     </row>
     <row r="88" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>268</v>
@@ -10063,10 +10071,10 @@
     </row>
     <row r="89" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>259</v>
@@ -10138,16 +10146,16 @@
         <v>259</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AD89" s="1" t="s">
         <v>259</v>
@@ -10159,10 +10167,10 @@
     </row>
     <row r="90" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>268</v>
@@ -10255,10 +10263,10 @@
     </row>
     <row r="91" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>268</v>
@@ -10270,19 +10278,19 @@
         <v>133</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>133</v>
@@ -10291,34 +10299,34 @@
         <v>133</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>133</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>259</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="W91" s="1" t="s">
         <v>259</v>
@@ -10327,34 +10335,34 @@
         <v>259</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AA91" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AC91" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AF91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>268</v>
@@ -10447,10 +10455,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>268</v>
@@ -10543,10 +10551,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>9</v>
@@ -10644,20 +10652,20 @@
     </row>
     <row r="96" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="79.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>259</v>
@@ -10675,10 +10683,10 @@
         <v>259</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>259</v>
@@ -10747,13 +10755,13 @@
     </row>
     <row r="98" customFormat="false" ht="118.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>259</v>
@@ -10771,10 +10779,10 @@
         <v>259</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>259</v>
@@ -10810,7 +10818,7 @@
         <v>259</v>
       </c>
       <c r="V98" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="W98" s="7" t="s">
         <v>259</v>
@@ -10843,13 +10851,13 @@
     </row>
     <row r="99" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>259</v>
@@ -10858,7 +10866,7 @@
         <v>259</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>259</v>
@@ -10867,10 +10875,10 @@
         <v>259</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>259</v>
@@ -10891,10 +10899,10 @@
         <v>259</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>259</v>
@@ -10912,13 +10920,13 @@
         <v>259</v>
       </c>
       <c r="X99" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Y99" s="7" t="s">
         <v>259</v>
       </c>
       <c r="Z99" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AA99" s="7" t="s">
         <v>259</v>
@@ -10939,13 +10947,13 @@
     </row>
     <row r="100" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>259</v>
@@ -10954,16 +10962,16 @@
         <v>259</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>259</v>
@@ -10975,52 +10983,52 @@
         <v>259</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q100" s="1" t="s">
         <v>259</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>259</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="V100" s="1" t="s">
         <v>259</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AA100" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AC100" s="1" t="s">
         <v>259</v>
@@ -11029,16 +11037,16 @@
         <v>259</v>
       </c>
       <c r="AE100" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AF100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>9</v>
@@ -11137,14 +11145,14 @@
     </row>
     <row r="105" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>126</v>
@@ -11243,7 +11251,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>126</v>
@@ -11342,7 +11350,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>126</v>
@@ -11440,7 +11448,7 @@
     </row>
     <row r="109" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>126</v>
@@ -11538,7 +11546,7 @@
     </row>
     <row r="110" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>126</v>
@@ -11636,7 +11644,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>126</v>
@@ -11735,91 +11743,91 @@
     </row>
     <row r="112" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AB112" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AD112" s="0" t="s">
         <v>74</v>
@@ -11829,96 +11837,96 @@
       </c>
       <c r="AF112" s="1"/>
       <c r="AG112" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="J113" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="W113" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="P113" s="1" t="s">
+      <c r="X113" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y113" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA113" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="Q113" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="T113" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="U113" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="V113" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="W113" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="X113" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="Y113" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="Z113" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA113" s="1" t="s">
-        <v>613</v>
-      </c>
       <c r="AB113" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AD113" s="0" t="s">
         <v>74</v>
@@ -11928,19 +11936,19 @@
       </c>
       <c r="AF113" s="1"/>
       <c r="AG113" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="114" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>126</v>
@@ -12038,7 +12046,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>126</v>
@@ -12136,7 +12144,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>126</v>
@@ -12234,7 +12242,7 @@
     </row>
     <row r="118" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>126</v>
@@ -12332,7 +12340,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>126</v>
@@ -12430,17 +12438,17 @@
     </row>
     <row r="120" s="6" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>132</v>
@@ -12535,10 +12543,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>63</v>
@@ -12633,10 +12641,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>19</v>
@@ -12731,10 +12739,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>10</v>
@@ -12829,10 +12837,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>215</v>
@@ -12928,7 +12936,7 @@
     <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G126" s="1"/>
       <c r="M126" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -13126,6 +13134,7 @@
     <hyperlink ref="AD18" r:id="rId56" display="https://sourceforge.net/p/amide/code/ci/default/tree/amide-current/"/>
     <hyperlink ref="AG18" r:id="rId57" display="https://github.com/cornerstonejs/cornerstone"/>
     <hyperlink ref="AE41" r:id="rId58" location="devel" display="API doc&#10;http://gwyddion.net/documentation/index.php#devel"/>
+    <hyperlink ref="C47" r:id="rId59" display="CircleCI&#10;https://github.com/Slicer/Slicer/blob/2da03dcc5ac9383d825598cfc58d24c1aa2158cd/CONTRIBUTING.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="643">
   <si>
     <t xml:space="preserve">Metrics &amp; Description</t>
   </si>
@@ -2484,32 +2484,35 @@
     <t xml:space="preserve">Repo Metrics (Measured via GitHub)</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of people watching this repo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">({number, n/a})</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of stars.</t>
   </si>
   <si>
-    <t xml:space="preserve">({number, n/a})</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of forks.</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of people watching this repo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of open pull requests.</t>
   </si>
   <si>
     <t xml:space="preserve">Number of closed pull requests.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Number of months on GitHub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessed date.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
@@ -2517,6 +2520,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2637,7 +2641,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2736,6 +2740,10 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3007,15 +3015,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG126"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="AE76" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
-      <selection pane="topRight" activeCell="AF83" activeCellId="0" sqref="AF83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B130" activeCellId="0" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.67"/>
@@ -3671,112 +3679,112 @@
       <c r="B9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f aca="false">"stars: " &amp; C121 &amp; ", forks:" &amp; C122 &amp; ", watching: " &amp; C123</f>
-        <v>stars: 132, forks:63, watching: 19</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f aca="false">"stars: " &amp; D121 &amp; ", forks:" &amp; D122 &amp; ", watching: " &amp; D123</f>
-        <v>stars: 91, forks:27, watching: 22</v>
+      <c r="C9" s="1" t="e">
+        <f aca="false">"stars: " &amp; C121 &amp; ", forks:" &amp; C122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="1" t="e">
+        <f aca="false">"stars: " &amp; D121 &amp; ", forks:" &amp; D122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f aca="false">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
-        <v>stars: 255, forks:152, watching: 48</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f aca="false">"stars: " &amp; G121 &amp; ", forks:" &amp; G122 &amp; ", watching: " &amp; G123</f>
-        <v>stars: 29, forks:1, watching: 8</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f aca="false">"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; H123</f>
-        <v>stars: 16, forks:9, watching: 5</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f aca="false">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; I123</f>
-        <v>stars: 668, forks:264, watching: 92</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f aca="false">"stars: " &amp; J121 &amp; ", forks:" &amp; J122 &amp; ", watching: " &amp; J123</f>
-        <v>stars: 368, forks:198, watching: 53</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f aca="false">"stars: " &amp; K121 &amp; ", forks:" &amp; K122 &amp; ", watching: " &amp; K123</f>
-        <v>stars: n/a, forks:n/a, watching: n/a</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f aca="false">"stars: " &amp; L121 &amp; ", forks:" &amp; L122 &amp; ", watching: " &amp; L123</f>
-        <v>stars: n/a, forks:n/a, watching: n/a</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f aca="false">"stars: " &amp; M121 &amp; ", forks:" &amp; M122 &amp; ", watching: " &amp; M123</f>
-        <v>stars: 271, forks:108, watching: 58</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f aca="false">"stars: " &amp; N121 &amp; ", forks:" &amp; N122 &amp; ", watching: " &amp; N123</f>
-        <v>stars: 272, forks:193, watching: 72</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f aca="false">"stars: " &amp; O121 &amp; ", forks:" &amp; O122 &amp; ", watching: " &amp; O123</f>
-        <v>stars: 1100, forks:452, watching: 114</v>
-      </c>
-      <c r="P9" s="1" t="str">
-        <f aca="false">"stars: " &amp; P121 &amp; ", forks:" &amp; P122 &amp; ", watching: " &amp; P123</f>
-        <v>stars: 112, forks:27, watching: 30</v>
-      </c>
-      <c r="Q9" s="1" t="str">
-        <f aca="false">"stars: " &amp; Q121 &amp; ", forks:" &amp; Q122 &amp; ", watching: " &amp; Q123</f>
-        <v>stars: 45, forks:18, watching: 13</v>
-      </c>
-      <c r="R9" s="1" t="str">
-        <f aca="false">"stars: " &amp; R121 &amp; ", forks:" &amp; R122 &amp; ", watching: " &amp; R123</f>
-        <v>stars: 1300, forks:948, watching: 111</v>
-      </c>
-      <c r="S9" s="1" t="str">
-        <f aca="false">"stars: " &amp; S121 &amp; ", forks:" &amp; S122 &amp; ", watching: " &amp; S123</f>
-        <v>stars: 87, forks:46, watching: 19</v>
-      </c>
-      <c r="T9" s="1" t="str">
-        <f aca="false">"stars: " &amp; T121 &amp; ", forks:" &amp; T122 &amp; ", watching: " &amp; T123</f>
-        <v>stars: 117, forks:152, watching: 37</v>
-      </c>
-      <c r="U9" s="1" t="str">
-        <f aca="false">"stars: " &amp; U121 &amp; ", forks:" &amp; U122 &amp; ", watching: " &amp; U123</f>
-        <v>stars: 48, forks:20, watching: 5</v>
-      </c>
-      <c r="V9" s="1" t="str">
-        <f aca="false">"stars: " &amp; V121 &amp; ", forks:" &amp; V122 &amp; ", watching: " &amp; V123</f>
-        <v>stars: 644, forks:298, watching: 80</v>
-      </c>
-      <c r="W9" s="1" t="str">
-        <f aca="false">"stars: " &amp; W121 &amp; ", forks:" &amp; W122 &amp; ", watching: " &amp; W123</f>
-        <v>stars: 5, forks:0, watching: 1</v>
-      </c>
-      <c r="X9" s="1" t="str">
-        <f aca="false">"stars: " &amp; X121 &amp; ", forks:" &amp; X122 &amp; ", watching: " &amp; X123</f>
-        <v>stars: 121, forks:25, watching: 18</v>
-      </c>
-      <c r="Y9" s="1" t="str">
-        <f aca="false">"stars: " &amp; Y121 &amp; ", forks:" &amp; Y122 &amp; ", watching: " &amp; Y123</f>
-        <v>stars: 292, forks:131, watching: 36</v>
-      </c>
-      <c r="Z9" s="1" t="str">
-        <f aca="false">"stars: " &amp; Z121 &amp; ", forks:" &amp; Z122 &amp; ", watching: " &amp; Z123</f>
-        <v>stars: 53, forks:47, watching: 30</v>
-      </c>
-      <c r="AA9" s="1" t="str">
-        <f aca="false">"stars: " &amp; AA121 &amp; ", forks:" &amp; AA122 &amp; ", watching: " &amp; AA123</f>
-        <v>stars: 186, forks:80, watching: 27</v>
-      </c>
-      <c r="AB9" s="1" t="str">
-        <f aca="false">"stars: " &amp; AB121 &amp; ", forks:" &amp; AB122 &amp; ", watching: " &amp; AB123</f>
-        <v>stars: 8, forks:6, watching: 4</v>
-      </c>
-      <c r="AC9" s="10" t="str">
-        <f aca="false">"stars: " &amp; AC121 &amp; ", forks:" &amp; AC122 &amp; ", watching: " &amp; AC123</f>
-        <v>stars: 379, forks:152, watching: 46</v>
+      <c r="F9" s="1" t="e">
+        <f aca="false">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="1" t="e">
+        <f aca="false">"stars: " &amp; G121 &amp; ", forks:" &amp; G122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="1" t="e">
+        <f aca="false">"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="1" t="e">
+        <f aca="false">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f aca="false">"stars: " &amp; J121 &amp; ", forks:" &amp; J122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="1" t="e">
+        <f aca="false">"stars: " &amp; K121 &amp; ", forks:" &amp; K122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="1" t="e">
+        <f aca="false">"stars: " &amp; L121 &amp; ", forks:" &amp; L122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="1" t="e">
+        <f aca="false">"stars: " &amp; M121 &amp; ", forks:" &amp; M122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="1" t="e">
+        <f aca="false">"stars: " &amp; N121 &amp; ", forks:" &amp; N122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="1" t="e">
+        <f aca="false">"stars: " &amp; O121 &amp; ", forks:" &amp; O122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="1" t="e">
+        <f aca="false">"stars: " &amp; P121 &amp; ", forks:" &amp; P122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="1" t="e">
+        <f aca="false">"stars: " &amp; Q121 &amp; ", forks:" &amp; Q122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R9" s="1" t="e">
+        <f aca="false">"stars: " &amp; R121 &amp; ", forks:" &amp; R122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S9" s="1" t="e">
+        <f aca="false">"stars: " &amp; S121 &amp; ", forks:" &amp; S122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T9" s="1" t="e">
+        <f aca="false">"stars: " &amp; T121 &amp; ", forks:" &amp; T122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U9" s="1" t="e">
+        <f aca="false">"stars: " &amp; U121 &amp; ", forks:" &amp; U122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V9" s="1" t="e">
+        <f aca="false">"stars: " &amp; V121 &amp; ", forks:" &amp; V122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W9" s="1" t="e">
+        <f aca="false">"stars: " &amp; W121 &amp; ", forks:" &amp; W122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X9" s="1" t="e">
+        <f aca="false">"stars: " &amp; X121 &amp; ", forks:" &amp; X122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y9" s="1" t="e">
+        <f aca="false">"stars: " &amp; Y121 &amp; ", forks:" &amp; Y122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z9" s="1" t="e">
+        <f aca="false">"stars: " &amp; Z121 &amp; ", forks:" &amp; Z122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA9" s="1" t="e">
+        <f aca="false">"stars: " &amp; AA121 &amp; ", forks:" &amp; AA122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB9" s="1" t="e">
+        <f aca="false">"stars: " &amp; AB121 &amp; ", forks:" &amp; AB122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC9" s="10" t="e">
+        <f aca="false">"stars: " &amp; AC121 &amp; ", forks:" &amp; AC122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AD9" s="10" t="s">
         <v>74</v>
@@ -3785,9 +3793,9 @@
         <v>74</v>
       </c>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1" t="str">
-        <f aca="false">"stars: " &amp; AG121 &amp; ", forks:" &amp; AG122 &amp; ", watching: " &amp; AG123</f>
-        <v>stars: 1400, forks:456, watching: 155</v>
+      <c r="AG9" s="1" t="e">
+        <f aca="false">"stars: " &amp; AG121 &amp; ", forks:" &amp; AG122 &amp; ", watching: " &amp; #REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12443,7 +12451,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>635</v>
       </c>
@@ -12451,85 +12459,85 @@
         <v>636</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>74</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="G121" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="P121" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H121" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="I121" s="0" t="n">
-        <v>668</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="K121" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L121" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="M121" s="0" t="n">
-        <v>271</v>
-      </c>
-      <c r="N121" s="0" t="n">
-        <v>272</v>
-      </c>
-      <c r="O121" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="P121" s="0" t="n">
-        <v>112</v>
-      </c>
       <c r="Q121" s="0" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="R121" s="0" t="n">
-        <v>1300</v>
+        <v>111</v>
       </c>
       <c r="S121" s="0" t="n">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="T121" s="0" t="n">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="U121" s="0" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="V121" s="0" t="n">
-        <v>644</v>
+        <v>80</v>
       </c>
       <c r="W121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y121" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z121" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA121" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB121" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="X121" s="0" t="n">
-        <v>121</v>
-      </c>
-      <c r="Y121" s="0" t="n">
-        <v>292</v>
-      </c>
-      <c r="Z121" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="AA121" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="AB121" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="AC121" s="0" t="n">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="AD121" s="0" t="s">
         <v>74</v>
@@ -12538,10 +12546,10 @@
         <v>74</v>
       </c>
       <c r="AG121" s="0" t="n">
-        <v>1400</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>637</v>
       </c>
@@ -12549,85 +12557,85 @@
         <v>636</v>
       </c>
       <c r="C122" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="G122" s="15" t="n">
         <v>63</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="G122" s="15" t="n">
-        <v>1</v>
-      </c>
       <c r="H122" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>794</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>1215</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>1593</v>
+      </c>
+      <c r="S122" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="T122" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X122" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y122" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="Z122" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA122" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="AB122" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I122" s="0" t="n">
-        <v>264</v>
-      </c>
-      <c r="J122" s="0" t="n">
-        <v>198</v>
-      </c>
-      <c r="K122" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L122" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="M122" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="N122" s="0" t="n">
-        <v>193</v>
-      </c>
-      <c r="O122" s="0" t="n">
-        <v>452</v>
-      </c>
-      <c r="P122" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q122" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="R122" s="0" t="n">
-        <v>948</v>
-      </c>
-      <c r="S122" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="T122" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="U122" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V122" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="W122" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X122" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y122" s="0" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z122" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="AA122" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB122" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AC122" s="0" t="n">
-        <v>152</v>
+        <v>406</v>
       </c>
       <c r="AD122" s="0" t="s">
         <v>74</v>
@@ -12636,10 +12644,10 @@
         <v>74</v>
       </c>
       <c r="AG122" s="0" t="n">
-        <v>456</v>
+        <v>1400</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>638</v>
       </c>
@@ -12647,85 +12655,85 @@
         <v>636</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D123" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="G123" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>505</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q123" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="G123" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="J123" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="K123" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L123" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="M123" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="N123" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="O123" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="P123" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q123" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="R123" s="0" t="n">
-        <v>111</v>
+        <v>1287</v>
       </c>
       <c r="S123" s="0" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="T123" s="0" t="n">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="U123" s="0" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="V123" s="0" t="n">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="W123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X123" s="0" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Y123" s="0" t="n">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="Z123" s="0" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AA123" s="0" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AB123" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC123" s="0" t="n">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="AD123" s="0" t="s">
         <v>74</v>
@@ -12734,10 +12742,10 @@
         <v>74</v>
       </c>
       <c r="AG123" s="0" t="n">
-        <v>155</v>
+        <v>456</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>639</v>
       </c>
@@ -12745,16 +12753,16 @@
         <v>636</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>74</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="15" t="n">
         <v>0</v>
@@ -12763,10 +12771,10 @@
         <v>1</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K124" s="0" t="s">
         <v>74</v>
@@ -12775,49 +12783,49 @@
         <v>74</v>
       </c>
       <c r="M124" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O124" s="0" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="P124" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="S124" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q124" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R124" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="S124" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T124" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V124" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="U124" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V124" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="W124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="X124" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y124" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z124" s="0" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA124" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB124" s="0" t="n">
         <v>0</v>
@@ -12835,7 +12843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>640</v>
       </c>
@@ -12843,16 +12851,16 @@
         <v>636</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>215</v>
+        <v>644</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>74</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125" s="15" t="n">
         <v>0</v>
@@ -12864,7 +12872,7 @@
         <v>33</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K125" s="0" t="s">
         <v>74</v>
@@ -12873,31 +12881,31 @@
         <v>74</v>
       </c>
       <c r="M125" s="0" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N125" s="0" t="n">
         <v>53</v>
       </c>
       <c r="O125" s="0" t="n">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="P125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q125" s="0" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R125" s="0" t="n">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="S125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="T125" s="0" t="n">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="U125" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V125" s="0" t="n">
         <v>7</v>
@@ -12909,10 +12917,10 @@
         <v>24</v>
       </c>
       <c r="Y125" s="0" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="Z125" s="0" t="n">
-        <v>591</v>
+        <v>675</v>
       </c>
       <c r="AA125" s="0" t="n">
         <v>12</v>
@@ -12921,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="AC125" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD125" s="0" t="s">
         <v>74</v>
@@ -12933,14 +12941,238 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G126" s="1"/>
-      <c r="M126" s="0" t="s">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
         <v>641</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M126" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="N126" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="O126" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q126" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="S126" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="T126" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="X126" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y126" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="Z126" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AA126" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AB126" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC126" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD126" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE126" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="D127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="G127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="H127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="I127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="J127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="N127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="O127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="P127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="Q127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="R127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="S127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="T127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="U127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="V127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="W127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="X127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="Y127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="Z127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="AA127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="AB127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="AC127" s="25" t="n">
+        <v>44403</v>
+      </c>
+      <c r="AD127" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE127" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="8"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="8"/>
+      <c r="X128" s="8"/>
+      <c r="Y128" s="8"/>
+      <c r="Z128" s="8"/>
+      <c r="AA128" s="8"/>
+      <c r="AB128" s="8"/>
+      <c r="AC128" s="8"/>
+      <c r="AD128" s="8"/>
+      <c r="AE128" s="8"/>
+      <c r="AF128" s="8"/>
+      <c r="AG128" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:AMJ3 A99:H99 J99:T99 A4:J4 M4:AMJ4 A14:L16 M18:AA18 A97:T98 AF97:AMJ99 N16:W16 N15:X15 N14:Z14 A12:Z13 A5:AMJ8 A17:W17 A9:AB9 AF9:AMJ18 A10:A11 C10:AB11 A100:AMJ1048576 AG64:AMJ68 A64:AE68 A19:AMJ63 A69:AMJ96">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:AMJ3 A99:H99 J99:T99 A4:J4 M4:AMJ4 A14:L16 M18:AA18 A97:T98 AF97:AMJ99 N16:W16 N15:X15 N14:Z14 A12:Z13 A5:AMJ8 A17:W17 A9:AB9 AF9:AMJ18 A10:A11 C10:AB11 AG64:AMJ68 A64:AE68 A19:AMJ63 A69:AMJ96 AF126:AMJ127 A100:AMJ125 A126:AE127 A128:G128 I128:AMJ128 A129:AMJ1048576">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>

--- a/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Ao-Notes/MedicalImaging_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="643">
   <si>
     <t xml:space="preserve">Metrics &amp; Description</t>
   </si>
@@ -2484,16 +2484,16 @@
     <t xml:space="preserve">Repo Metrics (Measured via GitHub)</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of stars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">({number, n/a})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of forks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of people watching this repo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({number, n/a})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of stars.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of forks.</t>
   </si>
   <si>
     <t xml:space="preserve">Number of open pull requests.</t>
@@ -2512,15 +2512,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
-    <numFmt numFmtId="171" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2634,14 +2633,14 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2682,19 +2681,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2702,11 +2697,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2718,6 +2713,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2726,23 +2729,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3017,13 +3012,13 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B130" activeCellId="0" sqref="B130"/>
+      <selection pane="topRight" activeCell="AF13" activeCellId="0" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.67"/>
@@ -3672,130 +3667,133 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="1" t="e">
-        <f aca="false">"stars: " &amp; C121 &amp; ", forks:" &amp; C122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="1" t="e">
-        <f aca="false">"stars: " &amp; D121 &amp; ", forks:" &amp; D122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="1" t="e">
-        <f aca="false">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="1" t="e">
-        <f aca="false">"stars: " &amp; G121 &amp; ", forks:" &amp; G122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="1" t="e">
-        <f aca="false">"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="1" t="e">
-        <f aca="false">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="1" t="e">
-        <f aca="false">"stars: " &amp; J121 &amp; ", forks:" &amp; J122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="1" t="e">
-        <f aca="false">"stars: " &amp; K121 &amp; ", forks:" &amp; K122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="1" t="e">
-        <f aca="false">"stars: " &amp; L121 &amp; ", forks:" &amp; L122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="1" t="e">
-        <f aca="false">"stars: " &amp; M121 &amp; ", forks:" &amp; M122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="1" t="e">
-        <f aca="false">"stars: " &amp; N121 &amp; ", forks:" &amp; N122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="1" t="e">
-        <f aca="false">"stars: " &amp; O121 &amp; ", forks:" &amp; O122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="1" t="e">
-        <f aca="false">"stars: " &amp; P121 &amp; ", forks:" &amp; P122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" s="1" t="e">
-        <f aca="false">"stars: " &amp; Q121 &amp; ", forks:" &amp; Q122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R9" s="1" t="e">
-        <f aca="false">"stars: " &amp; R121 &amp; ", forks:" &amp; R122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S9" s="1" t="e">
-        <f aca="false">"stars: " &amp; S121 &amp; ", forks:" &amp; S122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T9" s="1" t="e">
-        <f aca="false">"stars: " &amp; T121 &amp; ", forks:" &amp; T122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U9" s="1" t="e">
-        <f aca="false">"stars: " &amp; U121 &amp; ", forks:" &amp; U122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V9" s="1" t="e">
-        <f aca="false">"stars: " &amp; V121 &amp; ", forks:" &amp; V122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W9" s="1" t="e">
-        <f aca="false">"stars: " &amp; W121 &amp; ", forks:" &amp; W122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X9" s="1" t="e">
-        <f aca="false">"stars: " &amp; X121 &amp; ", forks:" &amp; X122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y9" s="1" t="e">
-        <f aca="false">"stars: " &amp; Y121 &amp; ", forks:" &amp; Y122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z9" s="1" t="e">
-        <f aca="false">"stars: " &amp; Z121 &amp; ", forks:" &amp; Z122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA9" s="1" t="e">
-        <f aca="false">"stars: " &amp; AA121 &amp; ", forks:" &amp; AA122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB9" s="1" t="e">
-        <f aca="false">"stars: " &amp; AB121 &amp; ", forks:" &amp; AB122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC9" s="10" t="e">
-        <f aca="false">"stars: " &amp; AC121 &amp; ", forks:" &amp; AC122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE9" s="10" t="s">
-        <v>74</v>
+      <c r="C9" s="1" t="str">
+        <f aca="false">"stars: " &amp; C121 &amp; ", forks:" &amp; C122 &amp; ", watching: " &amp; C123</f>
+        <v>stars: 379, forks:171, watching: 25</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f aca="false">"stars: " &amp; D121 &amp; ", forks:" &amp; D122 &amp; ", watching: " &amp; D123</f>
+        <v>stars: 102, forks:31, watching: 24</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f aca="false">"stars: " &amp; E121 &amp; ", forks:" &amp; E122 &amp; ", watching: " &amp; E123</f>
+        <v>stars: n/a, forks:n/a, watching: n/a</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f aca="false">"stars: " &amp; F121 &amp; ", forks:" &amp; F122 &amp; ", watching: " &amp; F123</f>
+        <v>stars: 339, forks:178, watching: 48</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f aca="false">"stars: " &amp; G121 &amp; ", forks:" &amp; G122 &amp; ", watching: " &amp; G123</f>
+        <v>stars: 63, forks:9, watching: 9</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f aca="false">"stars: " &amp; H121 &amp; ", forks:" &amp; H122 &amp; ", watching: " &amp; H123</f>
+        <v>stars: 20, forks:10, watching: 6</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f aca="false">"stars: " &amp; I121 &amp; ", forks:" &amp; I122 &amp; ", watching: " &amp; I123</f>
+        <v>stars: 794, forks:285, watching: 89</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f aca="false">"stars: " &amp; J121 &amp; ", forks:" &amp; J122 &amp; ", watching: " &amp; J123</f>
+        <v>stars: 453, forks:212, watching: 51</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f aca="false">"stars: " &amp; K121 &amp; ", forks:" &amp; K122 &amp; ", watching: " &amp; K123</f>
+        <v>stars: n/a, forks:n/a, watching: n/a</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f aca="false">"stars: " &amp; L121 &amp; ", forks:" &amp; L122 &amp; ", watching: " &amp; L123</f>
+        <v>stars: n/a, forks:n/a, watching: n/a</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f aca="false">"stars: " &amp; M121 &amp; ", forks:" &amp; M122 &amp; ", watching: " &amp; M123</f>
+        <v>stars: 316, forks:117, watching: 60</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f aca="false">"stars: " &amp; N121 &amp; ", forks:" &amp; N122 &amp; ", watching: " &amp; N123</f>
+        <v>stars: 293, forks:204, watching: 74</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f aca="false">"stars: " &amp; O121 &amp; ", forks:" &amp; O122 &amp; ", watching: " &amp; O123</f>
+        <v>stars: 1215, forks:505, watching: 114</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f aca="false">"stars: " &amp; P121 &amp; ", forks:" &amp; P122 &amp; ", watching: " &amp; P123</f>
+        <v>stars: 123, forks:34, watching: 29</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f aca="false">"stars: " &amp; Q121 &amp; ", forks:" &amp; Q122 &amp; ", watching: " &amp; Q123</f>
+        <v>stars: 58, forks:22, watching: 15</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f aca="false">"stars: " &amp; R121 &amp; ", forks:" &amp; R122 &amp; ", watching: " &amp; R123</f>
+        <v>stars: 1593, forks:1287, watching: 111</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f aca="false">"stars: " &amp; S121 &amp; ", forks:" &amp; S122 &amp; ", watching: " &amp; S123</f>
+        <v>stars: 90, forks:46, watching: 20</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f aca="false">"stars: " &amp; T121 &amp; ", forks:" &amp; T122 &amp; ", watching: " &amp; T123</f>
+        <v>stars: 137, forks:187, watching: 42</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f aca="false">"stars: " &amp; U121 &amp; ", forks:" &amp; U122 &amp; ", watching: " &amp; U123</f>
+        <v>stars: 66, forks:26, watching: 7</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f aca="false">"stars: " &amp; V121 &amp; ", forks:" &amp; V122 &amp; ", watching: " &amp; V123</f>
+        <v>stars: 751, forks:319, watching: 80</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f aca="false">"stars: " &amp; W121 &amp; ", forks:" &amp; W122 &amp; ", watching: " &amp; W123</f>
+        <v>stars: 6, forks:1, watching: 1</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f aca="false">"stars: " &amp; X121 &amp; ", forks:" &amp; X122 &amp; ", watching: " &amp; X123</f>
+        <v>stars: 150, forks:30, watching: 20</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f aca="false">"stars: " &amp; Y121 &amp; ", forks:" &amp; Y122 &amp; ", watching: " &amp; Y123</f>
+        <v>stars: 347, forks:152, watching: 36</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <f aca="false">"stars: " &amp; Z121 &amp; ", forks:" &amp; Z122 &amp; ", watching: " &amp; Z123</f>
+        <v>stars: 61, forks:55, watching: 29</v>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <f aca="false">"stars: " &amp; AA121 &amp; ", forks:" &amp; AA122 &amp; ", watching: " &amp; AA123</f>
+        <v>stars: 214, forks:83, watching: 29</v>
+      </c>
+      <c r="AB9" s="1" t="str">
+        <f aca="false">"stars: " &amp; AB121 &amp; ", forks:" &amp; AB122 &amp; ", watching: " &amp; AB123</f>
+        <v>stars: 9, forks:5, watching: 5</v>
+      </c>
+      <c r="AC9" s="1" t="str">
+        <f aca="false">"stars: " &amp; AC121 &amp; ", forks:" &amp; AC122 &amp; ", watching: " &amp; AC123</f>
+        <v>stars: 406, forks:179, watching: 44</v>
+      </c>
+      <c r="AD9" s="1" t="str">
+        <f aca="false">"stars: " &amp; AD121 &amp; ", forks:" &amp; AD122 &amp; ", watching: " &amp; AD123</f>
+        <v>stars: n/a, forks:n/a, watching: n/a</v>
+      </c>
+      <c r="AE9" s="1" t="str">
+        <f aca="false">"stars: " &amp; AE121 &amp; ", forks:" &amp; AE122 &amp; ", watching: " &amp; AE123</f>
+        <v>stars: n/a, forks:n/a, watching: n/a</v>
       </c>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1" t="e">
-        <f aca="false">"stars: " &amp; AG121 &amp; ", forks:" &amp; AG122 &amp; ", watching: " &amp; #REF!</f>
-        <v>#REF!</v>
+      <c r="AG9" s="1" t="str">
+        <f aca="false">"stars: " &amp; AG121 &amp; ", forks:" &amp; AG122 &amp; ", watching: " &amp; AG123</f>
+        <v>stars: 1400, forks:456, watching: 155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,101 +3895,101 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="11" s="13" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="12" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="11" t="n">
         <v>44045</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <v>43606</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="12" t="n">
         <v>44046</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="12" t="n">
         <v>44049</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="12" t="n">
         <v>44047</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="12" t="n">
         <v>44059</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="J11" s="12" t="n">
         <v>44057</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="12" t="n">
         <v>44070</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="12" t="n">
         <v>43893</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="12" t="n">
         <v>43924</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="12" t="n">
         <v>43775</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="12" t="n">
         <v>44075</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="12" t="n">
         <v>44048</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="12" t="n">
         <v>44109</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="12" t="n">
         <v>44111</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <v>43928</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="12" t="n">
         <v>44113</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="12" t="n">
         <v>43983</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <v>44116</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="12" t="n">
         <v>43282</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="12" t="n">
         <v>43928</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="12" t="n">
         <v>44080</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="12" t="n">
         <v>44139</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AA11" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="12" t="n">
         <v>44068</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="12" t="n">
         <v>43590</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="12" t="n">
         <v>42759</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="12" t="n">
         <v>44160</v>
       </c>
-      <c r="AG11" s="13" t="n">
+      <c r="AG11" s="12" t="n">
         <v>44104</v>
       </c>
     </row>
@@ -4503,10 +4501,10 @@
       <c r="E17" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="13" t="n">
         <v>188</v>
       </c>
-      <c r="G17" s="14" t="n">
+      <c r="G17" s="13" t="n">
         <v>484</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -4527,7 +4525,7 @@
       <c r="M17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="N17" s="15" t="n">
+      <c r="N17" s="14" t="n">
         <v>19800</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -4551,7 +4549,7 @@
       <c r="U17" s="1" t="n">
         <v>7780</v>
       </c>
-      <c r="V17" s="16" t="n">
+      <c r="V17" s="15" t="n">
         <v>15400</v>
       </c>
       <c r="W17" s="1" t="s">
@@ -4560,13 +4558,13 @@
       <c r="X17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="Y17" s="16" t="n">
+      <c r="Y17" s="15" t="n">
         <v>2600</v>
       </c>
-      <c r="Z17" s="16" t="n">
+      <c r="Z17" s="15" t="n">
         <v>1140</v>
       </c>
-      <c r="AA17" s="16" t="n">
+      <c r="AA17" s="15" t="n">
         <v>45</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -4695,43 +4693,43 @@
       <c r="C19" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="16" t="s">
         <v>241</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -4797,7 +4795,7 @@
       <c r="D20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>259</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -4815,16 +4813,16 @@
       <c r="J20" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="N20" s="17" t="s">
+      <c r="K20" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20" s="16" t="s">
         <v>259</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -5779,13 +5777,13 @@
       <c r="E32" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>311</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -6557,7 +6555,7 @@
       <c r="AD41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AE41" s="18" t="s">
+      <c r="AE41" s="17" t="s">
         <v>344</v>
       </c>
       <c r="AF41" s="1"/>
@@ -7049,7 +7047,7 @@
       <c r="B47" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>357</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -8653,101 +8651,101 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" s="20" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19" t="s">
+    <row r="71" s="19" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="H71" s="20" t="n">
+      <c r="H71" s="19" t="n">
         <v>1.04</v>
       </c>
-      <c r="I71" s="19" t="s">
+      <c r="I71" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="K71" s="19" t="s">
+      <c r="K71" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="L71" s="19" t="s">
+      <c r="L71" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="M71" s="19" t="s">
+      <c r="M71" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="N71" s="20" t="n">
+      <c r="N71" s="19" t="n">
         <v>5.8</v>
       </c>
-      <c r="O71" s="19" t="s">
+      <c r="O71" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="P71" s="20" t="n">
+      <c r="P71" s="19" t="n">
         <v>2.7</v>
       </c>
-      <c r="Q71" s="19" t="s">
+      <c r="Q71" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="R71" s="19" t="s">
+      <c r="R71" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="S71" s="19" t="s">
+      <c r="S71" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="T71" s="19" t="s">
+      <c r="T71" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="U71" s="19" t="s">
+      <c r="U71" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="V71" s="19" t="s">
+      <c r="V71" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="W71" s="19" t="s">
+      <c r="W71" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="X71" s="19" t="s">
+      <c r="X71" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="Y71" s="19" t="s">
+      <c r="Y71" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="Z71" s="19" t="s">
+      <c r="Z71" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="AA71" s="19" t="s">
+      <c r="AA71" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="AB71" s="19" t="s">
+      <c r="AB71" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="AC71" s="19" t="s">
+      <c r="AC71" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="AD71" s="19" t="s">
+      <c r="AD71" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="AE71" s="19" t="s">
+      <c r="AE71" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="AF71" s="19"/>
+      <c r="AF71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -9037,225 +9035,225 @@
       </c>
       <c r="AF74" s="1"/>
     </row>
-    <row r="75" s="22" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="21" t="s">
+    <row r="75" s="21" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="21" t="n">
+      <c r="C75" s="20" t="n">
         <v>0.9165</v>
       </c>
-      <c r="D75" s="22" t="n">
+      <c r="D75" s="21" t="n">
         <v>0.5625</v>
       </c>
-      <c r="E75" s="22" t="n">
+      <c r="E75" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F75" s="22" t="n">
+      <c r="F75" s="21" t="n">
         <v>0.893</v>
       </c>
-      <c r="G75" s="22" t="n">
+      <c r="G75" s="21" t="n">
         <v>0.9545</v>
       </c>
-      <c r="H75" s="22" t="n">
+      <c r="H75" s="21" t="n">
         <v>0.2857</v>
       </c>
-      <c r="I75" s="22" t="n">
+      <c r="I75" s="21" t="n">
         <v>0.5249</v>
       </c>
-      <c r="J75" s="22" t="n">
+      <c r="J75" s="21" t="n">
         <v>0.6379</v>
       </c>
-      <c r="K75" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="L75" s="22" t="n">
+      <c r="K75" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" s="21" t="n">
         <v>0.3077</v>
       </c>
-      <c r="M75" s="22" t="n">
+      <c r="M75" s="21" t="n">
         <v>0.3296</v>
       </c>
-      <c r="N75" s="21" t="s">
+      <c r="N75" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="O75" s="22" t="n">
+      <c r="O75" s="21" t="n">
         <v>0.906</v>
       </c>
-      <c r="P75" s="22" t="n">
+      <c r="P75" s="21" t="n">
         <v>0.1915</v>
       </c>
-      <c r="Q75" s="22" t="n">
+      <c r="Q75" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="R75" s="22" t="n">
+      <c r="R75" s="21" t="n">
         <v>0.792</v>
       </c>
-      <c r="S75" s="22" t="n">
+      <c r="S75" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="T75" s="22" t="n">
+      <c r="T75" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="U75" s="22" t="n">
+      <c r="U75" s="21" t="n">
         <v>0.1538</v>
       </c>
-      <c r="V75" s="22" t="n">
+      <c r="V75" s="21" t="n">
         <v>0.8252</v>
       </c>
-      <c r="W75" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="X75" s="22" t="n">
+      <c r="W75" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="X75" s="21" t="n">
         <v>0.6981</v>
       </c>
-      <c r="Y75" s="22" t="n">
+      <c r="Y75" s="21" t="n">
         <v>0.6357</v>
       </c>
-      <c r="Z75" s="22" t="n">
+      <c r="Z75" s="21" t="n">
         <v>0.6742</v>
       </c>
-      <c r="AA75" s="22" t="n">
+      <c r="AA75" s="21" t="n">
         <v>0.5083</v>
       </c>
-      <c r="AB75" s="22" t="n">
+      <c r="AB75" s="21" t="n">
         <v>0.617</v>
       </c>
-      <c r="AC75" s="22" t="n">
+      <c r="AC75" s="21" t="n">
         <v>0.767</v>
       </c>
-      <c r="AD75" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE75" s="22" t="s">
+      <c r="AD75" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE75" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" s="24" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23" t="s">
+    <row r="76" s="23" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C76" s="23" t="n">
+      <c r="C76" s="22" t="n">
         <f aca="false">C118/C116</f>
         <v>0.174476798050605</v>
       </c>
-      <c r="D76" s="23" t="n">
+      <c r="D76" s="22" t="n">
         <f aca="false">D118/D116</f>
         <v>0.186973120675956</v>
       </c>
-      <c r="E76" s="23" t="n">
+      <c r="E76" s="22" t="n">
         <f aca="false">E118/E116</f>
         <v>0.143571478025402</v>
       </c>
-      <c r="F76" s="23" t="n">
+      <c r="F76" s="22" t="n">
         <f aca="false">F118/F116</f>
         <v>0.0904242068080051</v>
       </c>
-      <c r="G76" s="23" t="n">
+      <c r="G76" s="22" t="n">
         <f aca="false">G118/G116</f>
         <v>0.824997522053722</v>
       </c>
-      <c r="H76" s="23" t="n">
+      <c r="H76" s="22" t="n">
         <f aca="false">H118/H116</f>
         <v>0.189204179885963</v>
       </c>
-      <c r="I76" s="23" t="n">
+      <c r="I76" s="22" t="n">
         <f aca="false">I118/I116</f>
         <v>0.0585661080074488</v>
       </c>
-      <c r="J76" s="23" t="n">
+      <c r="J76" s="22" t="n">
         <f aca="false">J118/J116</f>
         <v>0.114574251671026</v>
       </c>
-      <c r="K76" s="23" t="n">
+      <c r="K76" s="22" t="n">
         <f aca="false">K118/K116</f>
         <v>0.11864406779661</v>
       </c>
-      <c r="L76" s="23" t="n">
+      <c r="L76" s="22" t="n">
         <f aca="false">L118/L116</f>
         <v>0.137544830796212</v>
       </c>
-      <c r="M76" s="23" t="n">
+      <c r="M76" s="22" t="n">
         <f aca="false">M118/M116</f>
         <v>0.259025792989777</v>
       </c>
-      <c r="N76" s="23" t="n">
+      <c r="N76" s="22" t="n">
         <f aca="false">N118/N116</f>
         <v>0.241600183270811</v>
       </c>
-      <c r="O76" s="23" t="n">
+      <c r="O76" s="22" t="n">
         <f aca="false">O118/O116</f>
         <v>0.262282169932067</v>
       </c>
-      <c r="P76" s="23" t="n">
+      <c r="P76" s="22" t="n">
         <f aca="false">P118/P116</f>
         <v>0.0833050908827576</v>
       </c>
-      <c r="Q76" s="23" t="n">
+      <c r="Q76" s="22" t="n">
         <f aca="false">Q118/Q116</f>
         <v>0.149207595309357</v>
       </c>
-      <c r="R76" s="23" t="n">
+      <c r="R76" s="22" t="n">
         <f aca="false">R118/R116</f>
         <v>0.0830880819410006</v>
       </c>
-      <c r="S76" s="23" t="n">
+      <c r="S76" s="22" t="n">
         <f aca="false">S118/S116</f>
         <v>0.0819595645412131</v>
       </c>
-      <c r="T76" s="23" t="n">
+      <c r="T76" s="22" t="n">
         <f aca="false">T118/T116</f>
         <v>0.175262990731562</v>
       </c>
-      <c r="U76" s="23" t="n">
+      <c r="U76" s="22" t="n">
         <f aca="false">U118/U116</f>
         <v>0.193816128109808</v>
       </c>
-      <c r="V76" s="23" t="n">
+      <c r="V76" s="22" t="n">
         <f aca="false">V118/V116</f>
         <v>0.198137936489663</v>
       </c>
-      <c r="W76" s="23" t="n">
+      <c r="W76" s="22" t="n">
         <f aca="false">W118/W116</f>
         <v>0.180208067398519</v>
       </c>
-      <c r="X76" s="23" t="n">
+      <c r="X76" s="22" t="n">
         <f aca="false">X118/X116</f>
         <v>0.0547246477046771</v>
       </c>
-      <c r="Y76" s="23" t="n">
+      <c r="Y76" s="22" t="n">
         <f aca="false">Y118/Y116</f>
         <v>0.0837378640776699</v>
       </c>
-      <c r="Z76" s="23" t="n">
+      <c r="Z76" s="22" t="n">
         <f aca="false">Z118/Z116</f>
         <v>0.146630818193256</v>
       </c>
-      <c r="AA76" s="23" t="n">
+      <c r="AA76" s="22" t="n">
         <f aca="false">AA118/AA116</f>
         <v>0.0628092286860059</v>
       </c>
-      <c r="AB76" s="23" t="n">
+      <c r="AB76" s="22" t="n">
         <f aca="false">AB118/AB116</f>
         <v>0.10397257623089</v>
       </c>
-      <c r="AC76" s="23" t="n">
+      <c r="AC76" s="22" t="n">
         <f aca="false">AC118/AC116</f>
         <v>0.120467811787351</v>
       </c>
-      <c r="AD76" s="23" t="n">
+      <c r="AD76" s="22" t="n">
         <f aca="false">AD118/AD116</f>
         <v>0.107061536038036</v>
       </c>
-      <c r="AE76" s="23" t="n">
+      <c r="AE76" s="22" t="n">
         <f aca="false">AE118/AE116</f>
         <v>0.0946741356860575</v>
       </c>
-      <c r="AF76" s="23"/>
+      <c r="AF76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
@@ -11375,7 +11373,7 @@
       <c r="F108" s="1" t="n">
         <v>158642</v>
       </c>
-      <c r="G108" s="16" t="n">
+      <c r="G108" s="15" t="n">
         <v>77216</v>
       </c>
       <c r="H108" s="0" t="n">
@@ -11473,7 +11471,7 @@
       <c r="F109" s="1" t="n">
         <v>514448</v>
       </c>
-      <c r="G109" s="16" t="n">
+      <c r="G109" s="15" t="n">
         <v>119012</v>
       </c>
       <c r="H109" s="0" t="n">
@@ -11571,7 +11569,7 @@
       <c r="F110" s="1" t="n">
         <v>348317</v>
       </c>
-      <c r="G110" s="16" t="n">
+      <c r="G110" s="15" t="n">
         <v>41983</v>
       </c>
       <c r="H110" s="0" t="n">
@@ -12169,7 +12167,7 @@
       <c r="F117" s="0" t="n">
         <v>123272</v>
       </c>
-      <c r="G117" s="15" t="n">
+      <c r="G117" s="14" t="n">
         <v>8493</v>
       </c>
       <c r="H117" s="0" t="n">
@@ -12267,7 +12265,7 @@
       <c r="F118" s="0" t="n">
         <v>14156</v>
       </c>
-      <c r="G118" s="15" t="n">
+      <c r="G118" s="14" t="n">
         <v>41617</v>
       </c>
       <c r="H118" s="0" t="n">
@@ -12365,7 +12363,7 @@
       <c r="F119" s="0" t="n">
         <v>19123</v>
       </c>
-      <c r="G119" s="15" t="n">
+      <c r="G119" s="14" t="n">
         <v>335</v>
       </c>
       <c r="H119" s="0" t="n">
@@ -12459,85 +12457,85 @@
         <v>636</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>74</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="G121" s="15" t="n">
+        <v>339</v>
+      </c>
+      <c r="G121" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>794</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>1215</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>1593</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y121" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="Z121" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA121" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="AB121" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H121" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I121" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="K121" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L121" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="M121" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="N121" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="O121" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="P121" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q121" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="R121" s="0" t="n">
-        <v>111</v>
-      </c>
-      <c r="S121" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="T121" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="U121" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="V121" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="W121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X121" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y121" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z121" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA121" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB121" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="AC121" s="0" t="n">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="AD121" s="0" t="s">
         <v>74</v>
@@ -12546,7 +12544,7 @@
         <v>74</v>
       </c>
       <c r="AG121" s="0" t="n">
-        <v>155</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12557,28 +12555,28 @@
         <v>636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>379</v>
+        <v>171</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>74</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>339</v>
-      </c>
-      <c r="G122" s="15" t="n">
-        <v>63</v>
+        <v>178</v>
+      </c>
+      <c r="G122" s="14" t="n">
+        <v>9</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>794</v>
+        <v>285</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>453</v>
+        <v>212</v>
       </c>
       <c r="K122" s="0" t="s">
         <v>74</v>
@@ -12587,55 +12585,55 @@
         <v>74</v>
       </c>
       <c r="M122" s="0" t="n">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="N122" s="0" t="n">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="O122" s="0" t="n">
-        <v>1215</v>
+        <v>505</v>
       </c>
       <c r="P122" s="0" t="n">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="Q122" s="0" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="R122" s="0" t="n">
-        <v>1593</v>
+        <v>1287</v>
       </c>
       <c r="S122" s="0" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="T122" s="0" t="n">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="U122" s="0" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="V122" s="0" t="n">
-        <v>751</v>
+        <v>319</v>
       </c>
       <c r="W122" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X122" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="Y122" s="0" t="n">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="Z122" s="0" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AA122" s="0" t="n">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AB122" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC122" s="0" t="n">
-        <v>406</v>
+        <v>179</v>
       </c>
       <c r="AD122" s="0" t="s">
         <v>74</v>
@@ -12644,7 +12642,7 @@
         <v>74</v>
       </c>
       <c r="AG122" s="0" t="n">
-        <v>1400</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12655,28 +12653,28 @@
         <v>636</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>74</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="G123" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="G123" s="14" t="n">
         <v>9</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="K123" s="0" t="s">
         <v>74</v>
@@ -12685,55 +12683,55 @@
         <v>74</v>
       </c>
       <c r="M123" s="0" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="N123" s="0" t="n">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="O123" s="0" t="n">
-        <v>505</v>
+        <v>114</v>
       </c>
       <c r="P123" s="0" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q123" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R123" s="0" t="n">
-        <v>1287</v>
+        <v>111</v>
       </c>
       <c r="S123" s="0" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="T123" s="0" t="n">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="U123" s="0" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="V123" s="0" t="n">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="W123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X123" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y123" s="0" t="n">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="Z123" s="0" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AA123" s="0" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="AB123" s="0" t="n">
         <v>5</v>
       </c>
       <c r="AC123" s="0" t="n">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="AD123" s="0" t="s">
         <v>74</v>
@@ -12742,7 +12740,7 @@
         <v>74</v>
       </c>
       <c r="AG123" s="0" t="n">
-        <v>456</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12764,7 +12762,7 @@
       <c r="F124" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G124" s="15" t="n">
+      <c r="G124" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H124" s="0" t="n">
@@ -12862,7 +12860,7 @@
       <c r="F125" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G125" s="15" t="n">
+      <c r="G125" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H125" s="0" t="n">
@@ -13043,28 +13041,28 @@
       <c r="B127" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C127" s="25" t="n">
+      <c r="C127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="D127" s="25" t="n">
+      <c r="D127" s="24" t="n">
         <v>44403</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F127" s="25" t="n">
+      <c r="F127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="G127" s="25" t="n">
+      <c r="G127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="H127" s="25" t="n">
+      <c r="H127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="I127" s="25" t="n">
+      <c r="I127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="J127" s="25" t="n">
+      <c r="J127" s="24" t="n">
         <v>44403</v>
       </c>
       <c r="K127" s="0" t="s">
@@ -13073,55 +13071,55 @@
       <c r="L127" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="M127" s="25" t="n">
+      <c r="M127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="N127" s="25" t="n">
+      <c r="N127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="O127" s="25" t="n">
+      <c r="O127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="P127" s="25" t="n">
+      <c r="P127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="Q127" s="25" t="n">
+      <c r="Q127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="R127" s="25" t="n">
+      <c r="R127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="S127" s="25" t="n">
+      <c r="S127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="T127" s="25" t="n">
+      <c r="T127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="U127" s="25" t="n">
+      <c r="U127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="V127" s="25" t="n">
+      <c r="V127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="W127" s="25" t="n">
+      <c r="W127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="X127" s="25" t="n">
+      <c r="X127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="Y127" s="25" t="n">
+      <c r="Y127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="Z127" s="25" t="n">
+      <c r="Z127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="AA127" s="25" t="n">
+      <c r="AA127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="AB127" s="25" t="n">
+      <c r="AB127" s="24" t="n">
         <v>44403</v>
       </c>
-      <c r="AC127" s="25" t="n">
+      <c r="AC127" s="24" t="n">
         <v>44403</v>
       </c>
       <c r="AD127" s="0" t="s">
@@ -13137,7 +13135,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="9"/>
+      <c r="H128" s="8"/>
       <c r="I128" s="8"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -13172,7 +13170,7 @@
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A18:G18 I18:J18 A1:AMJ3 A99:H99 J99:T99 A4:J4 M4:AMJ4 A14:L16 M18:AA18 A97:T98 AF97:AMJ99 N16:W16 N15:X15 N14:Z14 A12:Z13 A5:AMJ8 A17:W17 A9:AB9 AF9:AMJ18 A10:A11 C10:AB11 AG64:AMJ68 A64:AE68 A19:AMJ63 A69:AMJ96 AF126:AMJ127 A100:AMJ125 A126:AE127 A128:G128 I128:AMJ128 A129:AMJ1048576">
+  <conditionalFormatting sqref="A18:G18 I18:J18 A1:AMJ3 A99:H99 J99:T99 A4:J4 M4:AMJ4 A14:L16 M18:AA18 A97:T98 AF97:AMJ99 N16:W16 N15:X15 N14:Z14 A12:Z13 A5:AMJ9 A17:W17 AF10:AMJ18 A10:A11 C10:AB11 AG64:AMJ68 A64:AE68 A19:AMJ63 A69:AMJ96 AF126:AMJ127 A126:AE127 A128:AMJ1048576 A100:AMJ125">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -13252,7 +13250,7 @@
       <formula>LEN(TRIM(AB14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AE11">
+  <conditionalFormatting sqref="AC10:AE11">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>LEN(TRIM(AC9))=0</formula>
     </cfRule>
